--- a/Paving/Paving_Share_Per_Country.xlsx
+++ b/Paving/Paving_Share_Per_Country.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\Output\Paving\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\TRIPI-GH-v100\Paving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7012FF-8AAE-4C8F-9C55-72FE335AC373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C495514-AC26-439D-BCBD-5116A0EE74F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1FD680DE-7C25-4B46-A69C-00549859E512}"/>
+    <workbookView xWindow="12570" yWindow="885" windowWidth="14370" windowHeight="19110" xr2:uid="{1FD680DE-7C25-4B46-A69C-00549859E512}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paving aggregated" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Coversheet" sheetId="3" r:id="rId1"/>
+    <sheet name="Paving aggregated" sheetId="1" r:id="rId2"/>
+    <sheet name="raw_data" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="241">
   <si>
     <t>country</t>
   </si>
@@ -722,12 +723,64 @@
   <si>
     <t>unpaved - unmanaged</t>
   </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking.</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CircoMod – Circular Economy Modelling for Climate Change Mitigation 101056868 </t>
+  </si>
+  <si>
+    <t>Content:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Van Engelenburg, M., Deetman, S., Fishman, T., Behrens, P., &amp; van der Voet, E. (2024). TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In review</t>
+    </r>
+  </si>
+  <si>
+    <t>Contact:</t>
+  </si>
+  <si>
+    <t>Martijn van Engelenburg</t>
+  </si>
+  <si>
+    <t>m.van.engelenburg@cml.leidenuniv.nl</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>Leiden University</t>
+  </si>
+  <si>
+    <t>Paving shares per country v.1.0.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +790,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -789,10 +869,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -807,12 +890,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="2" xr:uid="{71335017-4E5A-4579-BE66-52B86205D614}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2 2" xfId="3" xr:uid="{CFC6D84D-B29D-4ACA-86E6-42B61F2CABAB}"/>
   </cellStyles>
   <dxfs count="44">
     <dxf>
@@ -1109,6 +1198,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31598F8-A5F2-4798-AAAE-9A31B883D8C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="190501"/>
+          <a:ext cx="3091139" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CircoMod – Circular Economy Modelling for Climate Change Mitigation –  iamconsortium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63DB3EC-67DD-4227-A3A4-8FB3C906E189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686175" y="190500"/>
+          <a:ext cx="2600325" cy="1715303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1464,10 +1680,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD36353-92CA-49E8-9DC1-466AF3162ED8}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B12:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{622F4203-89D1-4D55-A7CC-30F7934536B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F5FDAC-3CF6-4D56-8EFE-1FCD4F46BB43}">
   <dimension ref="A1:AO177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -1639,23 +1945,23 @@
         <v>36</v>
       </c>
       <c r="B2" s="2">
-        <f>E2/D2</f>
+        <f t="shared" ref="B2:B33" si="0">E2/D2</f>
         <v>8.0568073936061316E-2</v>
       </c>
       <c r="C2" s="2">
-        <f>F2/D2</f>
+        <f t="shared" ref="C2:C33" si="1">F2/D2</f>
         <v>0.91943192606393875</v>
       </c>
       <c r="D2" s="4">
-        <f>E2+F2</f>
+        <f t="shared" ref="D2:D33" si="2">E2+F2</f>
         <v>136921.33199999999</v>
       </c>
       <c r="E2" s="4">
-        <f>H2+I2+N2+P2+R2+S2+U2+V2+Z2+AC2+AD2+AE2+AI2+AL2+AK2+AJ2+AO2</f>
+        <f t="shared" ref="E2:E33" si="3">H2+I2+N2+P2+R2+S2+U2+V2+Z2+AC2+AD2+AE2+AI2+AL2+AK2+AJ2+AO2</f>
         <v>11031.487999999998</v>
       </c>
       <c r="F2" s="4">
-        <f>G2+J2+K2+L2+M2+O2+Q2+T2+W2+X2+Y2+AA2+AB2+AF2+AG2+AH2+AJ2+AM2+AN2</f>
+        <f t="shared" ref="F2:F33" si="4">G2+J2+K2+L2+M2+O2+Q2+T2+W2+X2+Y2+AA2+AB2+AF2+AG2+AH2+AJ2+AM2+AN2</f>
         <v>125889.84400000001</v>
       </c>
       <c r="G2" s="3">
@@ -1729,23 +2035,23 @@
         <v>37</v>
       </c>
       <c r="B3" s="2">
-        <f>E3/D3</f>
+        <f t="shared" si="0"/>
         <v>0.47729038683776159</v>
       </c>
       <c r="C3" s="2">
-        <f>F3/D3</f>
+        <f t="shared" si="1"/>
         <v>0.52270961316223841</v>
       </c>
       <c r="D3" s="4">
-        <f>E3+F3</f>
+        <f t="shared" si="2"/>
         <v>17331.580999999998</v>
       </c>
       <c r="E3" s="4">
-        <f>H3+I3+N3+P3+R3+S3+U3+V3+Z3+AC3+AD3+AE3+AI3+AL3+AK3+AJ3+AO3</f>
+        <f t="shared" si="3"/>
         <v>8272.1969999999983</v>
       </c>
       <c r="F3" s="4">
-        <f>G3+J3+K3+L3+M3+O3+Q3+T3+W3+X3+Y3+AA3+AB3+AF3+AG3+AH3+AJ3+AM3+AN3</f>
+        <f t="shared" si="4"/>
         <v>9059.384</v>
       </c>
       <c r="G3" s="3">
@@ -1831,23 +2137,23 @@
         <v>38</v>
       </c>
       <c r="B4" s="2">
-        <f>E4/D4</f>
+        <f t="shared" si="0"/>
         <v>0.76222542549336014</v>
       </c>
       <c r="C4" s="2">
-        <f>F4/D4</f>
+        <f t="shared" si="1"/>
         <v>0.23777457450663983</v>
       </c>
       <c r="D4" s="4">
-        <f>E4+F4</f>
+        <f t="shared" si="2"/>
         <v>71705.172999999995</v>
       </c>
       <c r="E4" s="4">
-        <f>H4+I4+N4+P4+R4+S4+U4+V4+Z4+AC4+AD4+AE4+AI4+AL4+AK4+AJ4+AO4</f>
+        <f t="shared" si="3"/>
         <v>54655.505999999994</v>
       </c>
       <c r="F4" s="4">
-        <f>G4+J4+K4+L4+M4+O4+Q4+T4+W4+X4+Y4+AA4+AB4+AF4+AG4+AH4+AJ4+AM4+AN4</f>
+        <f t="shared" si="4"/>
         <v>17049.666999999998</v>
       </c>
       <c r="G4" s="3">
@@ -1933,23 +2239,23 @@
         <v>39</v>
       </c>
       <c r="B5" s="2">
-        <f>E5/D5</f>
+        <f t="shared" si="0"/>
         <v>0.99696386572589268</v>
       </c>
       <c r="C5" s="2">
-        <f>F5/D5</f>
+        <f t="shared" si="1"/>
         <v>3.0361342741073334E-3</v>
       </c>
       <c r="D5" s="4">
-        <f>E5+F5</f>
+        <f t="shared" si="2"/>
         <v>350.77500000000003</v>
       </c>
       <c r="E5" s="4">
-        <f>H5+I5+N5+P5+R5+S5+U5+V5+Z5+AC5+AD5+AE5+AI5+AL5+AK5+AJ5+AO5</f>
+        <f t="shared" si="3"/>
         <v>349.71000000000004</v>
       </c>
       <c r="F5" s="4">
-        <f>G5+J5+K5+L5+M5+O5+Q5+T5+W5+X5+Y5+AA5+AB5+AF5+AG5+AH5+AJ5+AM5+AN5</f>
+        <f t="shared" si="4"/>
         <v>1.0649999999999999</v>
       </c>
       <c r="G5" s="3">
@@ -2019,23 +2325,23 @@
         <v>40</v>
       </c>
       <c r="B6" s="2">
-        <f>E6/D6</f>
+        <f t="shared" si="0"/>
         <v>0.1663824641136345</v>
       </c>
       <c r="C6" s="2">
-        <f>F6/D6</f>
+        <f t="shared" si="1"/>
         <v>0.83361753588636545</v>
       </c>
       <c r="D6" s="4">
-        <f>E6+F6</f>
+        <f t="shared" si="2"/>
         <v>86129.299000000014</v>
       </c>
       <c r="E6" s="4">
-        <f>H6+I6+N6+P6+R6+S6+U6+V6+Z6+AC6+AD6+AE6+AI6+AL6+AK6+AJ6+AO6</f>
+        <f t="shared" si="3"/>
         <v>14330.404999999999</v>
       </c>
       <c r="F6" s="4">
-        <f>G6+J6+K6+L6+M6+O6+Q6+T6+W6+X6+Y6+AA6+AB6+AF6+AG6+AH6+AJ6+AM6+AN6</f>
+        <f t="shared" si="4"/>
         <v>71798.894000000015</v>
       </c>
       <c r="G6" s="3">
@@ -2111,23 +2417,23 @@
         <v>41</v>
       </c>
       <c r="B7" s="2">
-        <f>E7/D7</f>
+        <f t="shared" si="0"/>
         <v>0.21240034869402283</v>
       </c>
       <c r="C7" s="2">
-        <f>F7/D7</f>
+        <f t="shared" si="1"/>
         <v>0.78759965130597709</v>
       </c>
       <c r="D7" s="4">
-        <f>E7+F7</f>
+        <f t="shared" si="2"/>
         <v>675790.19000000018</v>
       </c>
       <c r="E7" s="4">
-        <f>H7+I7+N7+P7+R7+S7+U7+V7+Z7+AC7+AD7+AE7+AI7+AL7+AK7+AJ7+AO7</f>
+        <f t="shared" si="3"/>
         <v>143538.07199999999</v>
       </c>
       <c r="F7" s="4">
-        <f>G7+J7+K7+L7+M7+O7+Q7+T7+W7+X7+Y7+AA7+AB7+AF7+AG7+AH7+AJ7+AM7+AN7</f>
+        <f t="shared" si="4"/>
         <v>532252.11800000013</v>
       </c>
       <c r="G7" s="3">
@@ -2217,23 +2523,23 @@
         <v>42</v>
       </c>
       <c r="B8" s="2">
-        <f>E8/D8</f>
+        <f t="shared" si="0"/>
         <v>0.65865425021064816</v>
       </c>
       <c r="C8" s="2">
-        <f>F8/D8</f>
+        <f t="shared" si="1"/>
         <v>0.34134574978935173</v>
       </c>
       <c r="D8" s="4">
-        <f>E8+F8</f>
+        <f t="shared" si="2"/>
         <v>9744.9169999999995</v>
       </c>
       <c r="E8" s="4">
-        <f>H8+I8+N8+P8+R8+S8+U8+V8+Z8+AC8+AD8+AE8+AI8+AL8+AK8+AJ8+AO8</f>
+        <f t="shared" si="3"/>
         <v>6418.530999999999</v>
       </c>
       <c r="F8" s="4">
-        <f>G8+J8+K8+L8+M8+O8+Q8+T8+W8+X8+Y8+AA8+AB8+AF8+AG8+AH8+AJ8+AM8+AN8</f>
+        <f t="shared" si="4"/>
         <v>3326.386</v>
       </c>
       <c r="G8" s="3">
@@ -2313,23 +2619,23 @@
         <v>43</v>
       </c>
       <c r="B9" s="2">
-        <f>E9/D9</f>
+        <f t="shared" si="0"/>
         <v>0.4335446091225047</v>
       </c>
       <c r="C9" s="2">
-        <f>F9/D9</f>
+        <f t="shared" si="1"/>
         <v>0.5664553908774953</v>
       </c>
       <c r="D9" s="4">
-        <f>E9+F9</f>
+        <f t="shared" si="2"/>
         <v>892470.77200000023</v>
       </c>
       <c r="E9" s="4">
-        <f>H9+I9+N9+P9+R9+S9+U9+V9+Z9+AC9+AD9+AE9+AI9+AL9+AK9+AJ9+AO9</f>
+        <f t="shared" si="3"/>
         <v>386925.89200000011</v>
       </c>
       <c r="F9" s="4">
-        <f>G9+J9+K9+L9+M9+O9+Q9+T9+W9+X9+Y9+AA9+AB9+AF9+AG9+AH9+AJ9+AM9+AN9</f>
+        <f t="shared" si="4"/>
         <v>505544.88000000012</v>
       </c>
       <c r="G9" s="3">
@@ -2425,23 +2731,23 @@
         <v>44</v>
       </c>
       <c r="B10" s="2">
-        <f>E10/D10</f>
+        <f t="shared" si="0"/>
         <v>0.93519179064367164</v>
       </c>
       <c r="C10" s="2">
-        <f>F10/D10</f>
+        <f t="shared" si="1"/>
         <v>6.4808209356328333E-2</v>
       </c>
       <c r="D10" s="4">
-        <f>E10+F10</f>
+        <f t="shared" si="2"/>
         <v>62247.900999999998</v>
       </c>
       <c r="E10" s="4">
-        <f>H10+I10+N10+P10+R10+S10+U10+V10+Z10+AC10+AD10+AE10+AI10+AL10+AK10+AJ10+AO10</f>
+        <f t="shared" si="3"/>
         <v>58213.725999999995</v>
       </c>
       <c r="F10" s="4">
-        <f>G10+J10+K10+L10+M10+O10+Q10+T10+W10+X10+Y10+AA10+AB10+AF10+AG10+AH10+AJ10+AM10+AN10</f>
+        <f t="shared" si="4"/>
         <v>4034.1749999999997</v>
       </c>
       <c r="G10" s="3">
@@ -2533,23 +2839,23 @@
         <v>45</v>
       </c>
       <c r="B11" s="2">
-        <f>E11/D11</f>
+        <f t="shared" si="0"/>
         <v>0.32897709527611368</v>
       </c>
       <c r="C11" s="2">
-        <f>F11/D11</f>
+        <f t="shared" si="1"/>
         <v>0.67102290472388637</v>
       </c>
       <c r="D11" s="4">
-        <f>E11+F11</f>
+        <f t="shared" si="2"/>
         <v>10623.921999999999</v>
       </c>
       <c r="E11" s="4">
-        <f>H11+I11+N11+P11+R11+S11+U11+V11+Z11+AC11+AD11+AE11+AI11+AL11+AK11+AJ11+AO11</f>
+        <f t="shared" si="3"/>
         <v>3495.0269999999996</v>
       </c>
       <c r="F11" s="4">
-        <f>G11+J11+K11+L11+M11+O11+Q11+T11+W11+X11+Y11+AA11+AB11+AF11+AG11+AH11+AJ11+AM11+AN11</f>
+        <f t="shared" si="4"/>
         <v>7128.8949999999995</v>
       </c>
       <c r="G11" s="3">
@@ -2627,23 +2933,23 @@
         <v>46</v>
       </c>
       <c r="B12" s="2">
-        <f>E12/D12</f>
+        <f t="shared" si="0"/>
         <v>0.83881533213420734</v>
       </c>
       <c r="C12" s="2">
-        <f>F12/D12</f>
+        <f t="shared" si="1"/>
         <v>0.16118466786579264</v>
       </c>
       <c r="D12" s="4">
-        <f>E12+F12</f>
+        <f t="shared" si="2"/>
         <v>2294.4490000000001</v>
       </c>
       <c r="E12" s="4">
-        <f>H12+I12+N12+P12+R12+S12+U12+V12+Z12+AC12+AD12+AE12+AI12+AL12+AK12+AJ12+AO12</f>
+        <f t="shared" si="3"/>
         <v>1924.6189999999999</v>
       </c>
       <c r="F12" s="4">
-        <f>G12+J12+K12+L12+M12+O12+Q12+T12+W12+X12+Y12+AA12+AB12+AF12+AG12+AH12+AJ12+AM12+AN12</f>
+        <f t="shared" si="4"/>
         <v>369.83000000000004</v>
       </c>
       <c r="G12" s="3">
@@ -2717,23 +3023,23 @@
         <v>47</v>
       </c>
       <c r="B13" s="2">
-        <f>E13/D13</f>
+        <f t="shared" si="0"/>
         <v>0.56563114989236229</v>
       </c>
       <c r="C13" s="2">
-        <f>F13/D13</f>
+        <f t="shared" si="1"/>
         <v>0.43436885010763765</v>
       </c>
       <c r="D13" s="4">
-        <f>E13+F13</f>
+        <f t="shared" si="2"/>
         <v>23334.758000000002</v>
       </c>
       <c r="E13" s="4">
-        <f>H13+I13+N13+P13+R13+S13+U13+V13+Z13+AC13+AD13+AE13+AI13+AL13+AK13+AJ13+AO13</f>
+        <f t="shared" si="3"/>
         <v>13198.866000000002</v>
       </c>
       <c r="F13" s="4">
-        <f>G13+J13+K13+L13+M13+O13+Q13+T13+W13+X13+Y13+AA13+AB13+AF13+AG13+AH13+AJ13+AM13+AN13</f>
+        <f t="shared" si="4"/>
         <v>10135.892</v>
       </c>
       <c r="G13" s="3">
@@ -2827,23 +3133,23 @@
         <v>48</v>
       </c>
       <c r="B14" s="2">
-        <f>E14/D14</f>
+        <f t="shared" si="0"/>
         <v>0.49544389988933857</v>
       </c>
       <c r="C14" s="2">
-        <f>F14/D14</f>
+        <f t="shared" si="1"/>
         <v>0.50455610011066143</v>
       </c>
       <c r="D14" s="4">
-        <f>E14+F14</f>
+        <f t="shared" si="2"/>
         <v>125237.81</v>
       </c>
       <c r="E14" s="4">
-        <f>H14+I14+N14+P14+R14+S14+U14+V14+Z14+AC14+AD14+AE14+AI14+AL14+AK14+AJ14+AO14</f>
+        <f t="shared" si="3"/>
         <v>62048.309000000001</v>
       </c>
       <c r="F14" s="4">
-        <f>G14+J14+K14+L14+M14+O14+Q14+T14+W14+X14+Y14+AA14+AB14+AF14+AG14+AH14+AJ14+AM14+AN14</f>
+        <f t="shared" si="4"/>
         <v>63189.500999999989</v>
       </c>
       <c r="G14" s="3">
@@ -2939,23 +3245,23 @@
         <v>49</v>
       </c>
       <c r="B15" s="2">
-        <f>E15/D15</f>
+        <f t="shared" si="0"/>
         <v>0.97611562966743226</v>
       </c>
       <c r="C15" s="2">
-        <f>F15/D15</f>
+        <f t="shared" si="1"/>
         <v>2.3884370332567822E-2</v>
       </c>
       <c r="D15" s="4">
-        <f>E15+F15</f>
+        <f t="shared" si="2"/>
         <v>39278.154999999984</v>
       </c>
       <c r="E15" s="4">
-        <f>H15+I15+N15+P15+R15+S15+U15+V15+Z15+AC15+AD15+AE15+AI15+AL15+AK15+AJ15+AO15</f>
+        <f t="shared" si="3"/>
         <v>38340.020999999986</v>
       </c>
       <c r="F15" s="4">
-        <f>G15+J15+K15+L15+M15+O15+Q15+T15+W15+X15+Y15+AA15+AB15+AF15+AG15+AH15+AJ15+AM15+AN15</f>
+        <f t="shared" si="4"/>
         <v>938.13400000000013</v>
       </c>
       <c r="G15" s="3">
@@ -3051,23 +3357,23 @@
         <v>50</v>
       </c>
       <c r="B16" s="2">
-        <f>E16/D16</f>
+        <f t="shared" si="0"/>
         <v>0.20147897484273961</v>
       </c>
       <c r="C16" s="2">
-        <f>F16/D16</f>
+        <f t="shared" si="1"/>
         <v>0.79852102515726042</v>
       </c>
       <c r="D16" s="4">
-        <f>E16+F16</f>
+        <f t="shared" si="2"/>
         <v>7026.0829999999987</v>
       </c>
       <c r="E16" s="4">
-        <f>H16+I16+N16+P16+R16+S16+U16+V16+Z16+AC16+AD16+AE16+AI16+AL16+AK16+AJ16+AO16</f>
+        <f t="shared" si="3"/>
         <v>1415.6080000000002</v>
       </c>
       <c r="F16" s="4">
-        <f>G16+J16+K16+L16+M16+O16+Q16+T16+W16+X16+Y16+AA16+AB16+AF16+AG16+AH16+AJ16+AM16+AN16</f>
+        <f t="shared" si="4"/>
         <v>5610.4749999999985</v>
       </c>
       <c r="G16" s="3">
@@ -3141,23 +3447,23 @@
         <v>51</v>
       </c>
       <c r="B17" s="2">
-        <f>E17/D17</f>
+        <f t="shared" si="0"/>
         <v>0.1326422067395597</v>
       </c>
       <c r="C17" s="2">
-        <f>F17/D17</f>
+        <f t="shared" si="1"/>
         <v>0.86735779326044038</v>
       </c>
       <c r="D17" s="4">
-        <f>E17+F17</f>
+        <f t="shared" si="2"/>
         <v>27896.866999999998</v>
       </c>
       <c r="E17" s="4">
-        <f>H17+I17+N17+P17+R17+S17+U17+V17+Z17+AC17+AD17+AE17+AI17+AL17+AK17+AJ17+AO17</f>
+        <f t="shared" si="3"/>
         <v>3700.3020000000001</v>
       </c>
       <c r="F17" s="4">
-        <f>G17+J17+K17+L17+M17+O17+Q17+T17+W17+X17+Y17+AA17+AB17+AF17+AG17+AH17+AJ17+AM17+AN17</f>
+        <f t="shared" si="4"/>
         <v>24196.564999999999</v>
       </c>
       <c r="G17" s="3">
@@ -3229,23 +3535,23 @@
         <v>52</v>
       </c>
       <c r="B18" s="2">
-        <f>E18/D18</f>
+        <f t="shared" si="0"/>
         <v>0.46883099055833161</v>
       </c>
       <c r="C18" s="2">
-        <f>F18/D18</f>
+        <f t="shared" si="1"/>
         <v>0.53116900944166845</v>
       </c>
       <c r="D18" s="4">
-        <f>E18+F18</f>
+        <f t="shared" si="2"/>
         <v>2068.9139999999998</v>
       </c>
       <c r="E18" s="4">
-        <f>H18+I18+N18+P18+R18+S18+U18+V18+Z18+AC18+AD18+AE18+AI18+AL18+AK18+AJ18+AO18</f>
+        <f t="shared" si="3"/>
         <v>969.971</v>
       </c>
       <c r="F18" s="4">
-        <f>G18+J18+K18+L18+M18+O18+Q18+T18+W18+X18+Y18+AA18+AB18+AF18+AG18+AH18+AJ18+AM18+AN18</f>
+        <f t="shared" si="4"/>
         <v>1098.943</v>
       </c>
       <c r="G18" s="3">
@@ -3311,23 +3617,23 @@
         <v>53</v>
       </c>
       <c r="B19" s="2">
-        <f>E19/D19</f>
+        <f t="shared" si="0"/>
         <v>9.9880135632948036E-2</v>
       </c>
       <c r="C19" s="2">
-        <f>F19/D19</f>
+        <f t="shared" si="1"/>
         <v>0.90011986436705205</v>
       </c>
       <c r="D19" s="4">
-        <f>E19+F19</f>
+        <f t="shared" si="2"/>
         <v>185561.40200000003</v>
       </c>
       <c r="E19" s="4">
-        <f>H19+I19+N19+P19+R19+S19+U19+V19+Z19+AC19+AD19+AE19+AI19+AL19+AK19+AJ19+AO19</f>
+        <f t="shared" si="3"/>
         <v>18533.897999999997</v>
       </c>
       <c r="F19" s="4">
-        <f>G19+J19+K19+L19+M19+O19+Q19+T19+W19+X19+Y19+AA19+AB19+AF19+AG19+AH19+AJ19+AM19+AN19</f>
+        <f t="shared" si="4"/>
         <v>167027.50400000004</v>
       </c>
       <c r="G19" s="3">
@@ -3423,23 +3729,23 @@
         <v>54</v>
       </c>
       <c r="B20" s="2">
-        <f>E20/D20</f>
+        <f t="shared" si="0"/>
         <v>0.75504675302185209</v>
       </c>
       <c r="C20" s="2">
-        <f>F20/D20</f>
+        <f t="shared" si="1"/>
         <v>0.24495324697814805</v>
       </c>
       <c r="D20" s="4">
-        <f>E20+F20</f>
+        <f t="shared" si="2"/>
         <v>18952.036999999997</v>
       </c>
       <c r="E20" s="4">
-        <f>H20+I20+N20+P20+R20+S20+U20+V20+Z20+AC20+AD20+AE20+AI20+AL20+AK20+AJ20+AO20</f>
+        <f t="shared" si="3"/>
         <v>14309.673999999999</v>
       </c>
       <c r="F20" s="4">
-        <f>G20+J20+K20+L20+M20+O20+Q20+T20+W20+X20+Y20+AA20+AB20+AF20+AG20+AH20+AJ20+AM20+AN20</f>
+        <f t="shared" si="4"/>
         <v>4642.3629999999994</v>
       </c>
       <c r="G20" s="3">
@@ -3525,23 +3831,23 @@
         <v>55</v>
       </c>
       <c r="B21" s="2">
-        <f>E21/D21</f>
+        <f t="shared" si="0"/>
         <v>0.32798312328285723</v>
       </c>
       <c r="C21" s="2">
-        <f>F21/D21</f>
+        <f t="shared" si="1"/>
         <v>0.67201687671714272</v>
       </c>
       <c r="D21" s="4">
-        <f>E21+F21</f>
+        <f t="shared" si="2"/>
         <v>33737.366999999998</v>
       </c>
       <c r="E21" s="4">
-        <f>H21+I21+N21+P21+R21+S21+U21+V21+Z21+AC21+AD21+AE21+AI21+AL21+AK21+AJ21+AO21</f>
+        <f t="shared" si="3"/>
         <v>11065.286999999998</v>
       </c>
       <c r="F21" s="4">
-        <f>G21+J21+K21+L21+M21+O21+Q21+T21+W21+X21+Y21+AA21+AB21+AF21+AG21+AH21+AJ21+AM21+AN21</f>
+        <f t="shared" si="4"/>
         <v>22672.079999999998</v>
       </c>
       <c r="G21" s="3">
@@ -3617,23 +3923,23 @@
         <v>56</v>
       </c>
       <c r="B22" s="2">
-        <f>E22/D22</f>
+        <f t="shared" si="0"/>
         <v>0.20867265103400481</v>
       </c>
       <c r="C22" s="2">
-        <f>F22/D22</f>
+        <f t="shared" si="1"/>
         <v>0.79132734896599521</v>
       </c>
       <c r="D22" s="4">
-        <f>E22+F22</f>
+        <f t="shared" si="2"/>
         <v>1189805.3040000002</v>
       </c>
       <c r="E22" s="4">
-        <f>H22+I22+N22+P22+R22+S22+U22+V22+Z22+AC22+AD22+AE22+AI22+AL22+AK22+AJ22+AO22</f>
+        <f t="shared" si="3"/>
         <v>248279.82700000005</v>
       </c>
       <c r="F22" s="4">
-        <f>G22+J22+K22+L22+M22+O22+Q22+T22+W22+X22+Y22+AA22+AB22+AF22+AG22+AH22+AJ22+AM22+AN22</f>
+        <f t="shared" si="4"/>
         <v>941525.47700000019</v>
       </c>
       <c r="G22" s="3">
@@ -3729,23 +4035,23 @@
         <v>57</v>
       </c>
       <c r="B23" s="2">
-        <f>E23/D23</f>
+        <f t="shared" si="0"/>
         <v>0.90315084480658625</v>
       </c>
       <c r="C23" s="2">
-        <f>F23/D23</f>
+        <f t="shared" si="1"/>
         <v>9.6849155193413736E-2</v>
       </c>
       <c r="D23" s="4">
-        <f>E23+F23</f>
+        <f t="shared" si="2"/>
         <v>27302.995000000006</v>
       </c>
       <c r="E23" s="4">
-        <f>H23+I23+N23+P23+R23+S23+U23+V23+Z23+AC23+AD23+AE23+AI23+AL23+AK23+AJ23+AO23</f>
+        <f t="shared" si="3"/>
         <v>24658.723000000005</v>
       </c>
       <c r="F23" s="4">
-        <f>G23+J23+K23+L23+M23+O23+Q23+T23+W23+X23+Y23+AA23+AB23+AF23+AG23+AH23+AJ23+AM23+AN23</f>
+        <f t="shared" si="4"/>
         <v>2644.2719999999999</v>
       </c>
       <c r="G23" s="3">
@@ -3835,23 +4141,23 @@
         <v>58</v>
       </c>
       <c r="B24" s="2">
-        <f>E24/D24</f>
+        <f t="shared" si="0"/>
         <v>8.4460285965651069E-2</v>
       </c>
       <c r="C24" s="2">
-        <f>F24/D24</f>
+        <f t="shared" si="1"/>
         <v>0.91553971403434897</v>
       </c>
       <c r="D24" s="4">
-        <f>E24+F24</f>
+        <f t="shared" si="2"/>
         <v>57487.183999999994</v>
       </c>
       <c r="E24" s="4">
-        <f>H24+I24+N24+P24+R24+S24+U24+V24+Z24+AC24+AD24+AE24+AI24+AL24+AK24+AJ24+AO24</f>
+        <f t="shared" si="3"/>
         <v>4855.384</v>
       </c>
       <c r="F24" s="4">
-        <f>G24+J24+K24+L24+M24+O24+Q24+T24+W24+X24+Y24+AA24+AB24+AF24+AG24+AH24+AJ24+AM24+AN24</f>
+        <f t="shared" si="4"/>
         <v>52631.799999999996</v>
       </c>
       <c r="G24" s="3">
@@ -3921,23 +4227,23 @@
         <v>59</v>
       </c>
       <c r="B25" s="2">
-        <f>E25/D25</f>
+        <f t="shared" si="0"/>
         <v>5.0052667985740103E-2</v>
       </c>
       <c r="C25" s="2">
-        <f>F25/D25</f>
+        <f t="shared" si="1"/>
         <v>0.94994733201425985</v>
       </c>
       <c r="D25" s="4">
-        <f>E25+F25</f>
+        <f t="shared" si="2"/>
         <v>32823.545000000006</v>
       </c>
       <c r="E25" s="4">
-        <f>H25+I25+N25+P25+R25+S25+U25+V25+Z25+AC25+AD25+AE25+AI25+AL25+AK25+AJ25+AO25</f>
+        <f t="shared" si="3"/>
         <v>1642.9059999999999</v>
       </c>
       <c r="F25" s="4">
-        <f>G25+J25+K25+L25+M25+O25+Q25+T25+W25+X25+Y25+AA25+AB25+AF25+AG25+AH25+AJ25+AM25+AN25</f>
+        <f t="shared" si="4"/>
         <v>31180.639000000003</v>
       </c>
       <c r="G25" s="3">
@@ -4015,23 +4321,23 @@
         <v>60</v>
       </c>
       <c r="B26" s="2">
-        <f>E26/D26</f>
+        <f t="shared" si="0"/>
         <v>0.2720163603302253</v>
       </c>
       <c r="C26" s="2">
-        <f>F26/D26</f>
+        <f t="shared" si="1"/>
         <v>0.72798363966977464</v>
       </c>
       <c r="D26" s="4">
-        <f>E26+F26</f>
+        <f t="shared" si="2"/>
         <v>11673.603000000001</v>
       </c>
       <c r="E26" s="4">
-        <f>H26+I26+N26+P26+R26+S26+U26+V26+Z26+AC26+AD26+AE26+AI26+AL26+AK26+AJ26+AO26</f>
+        <f t="shared" si="3"/>
         <v>3175.4109999999996</v>
       </c>
       <c r="F26" s="4">
-        <f>G26+J26+K26+L26+M26+O26+Q26+T26+W26+X26+Y26+AA26+AB26+AF26+AG26+AH26+AJ26+AM26+AN26</f>
+        <f t="shared" si="4"/>
         <v>8498.1920000000009</v>
       </c>
       <c r="G26" s="3">
@@ -4109,23 +4415,23 @@
         <v>61</v>
       </c>
       <c r="B27" s="2">
-        <f>E27/D27</f>
+        <f t="shared" si="0"/>
         <v>0.11562834341875444</v>
       </c>
       <c r="C27" s="2">
-        <f>F27/D27</f>
+        <f t="shared" si="1"/>
         <v>0.8843716565812455</v>
       </c>
       <c r="D27" s="4">
-        <f>E27+F27</f>
+        <f t="shared" si="2"/>
         <v>71486.521000000008</v>
       </c>
       <c r="E27" s="4">
-        <f>H27+I27+N27+P27+R27+S27+U27+V27+Z27+AC27+AD27+AE27+AI27+AL27+AK27+AJ27+AO27</f>
+        <f t="shared" si="3"/>
         <v>8265.8680000000022</v>
       </c>
       <c r="F27" s="4">
-        <f>G27+J27+K27+L27+M27+O27+Q27+T27+W27+X27+Y27+AA27+AB27+AF27+AG27+AH27+AJ27+AM27+AN27</f>
+        <f t="shared" si="4"/>
         <v>63220.653000000006</v>
       </c>
       <c r="G27" s="3">
@@ -4215,23 +4521,23 @@
         <v>62</v>
       </c>
       <c r="B28" s="2">
-        <f>E28/D28</f>
+        <f t="shared" si="0"/>
         <v>0.28567911967986603</v>
       </c>
       <c r="C28" s="2">
-        <f>F28/D28</f>
+        <f t="shared" si="1"/>
         <v>0.71432088032013408</v>
       </c>
       <c r="D28" s="4">
-        <f>E28+F28</f>
+        <f t="shared" si="2"/>
         <v>973967.40899999975</v>
       </c>
       <c r="E28" s="4">
-        <f>H28+I28+N28+P28+R28+S28+U28+V28+Z28+AC28+AD28+AE28+AI28+AL28+AK28+AJ28+AO28</f>
+        <f t="shared" si="3"/>
         <v>278242.15199999994</v>
       </c>
       <c r="F28" s="4">
-        <f>G28+J28+K28+L28+M28+O28+Q28+T28+W28+X28+Y28+AA28+AB28+AF28+AG28+AH28+AJ28+AM28+AN28</f>
+        <f t="shared" si="4"/>
         <v>695725.25699999987</v>
       </c>
       <c r="G28" s="3">
@@ -4333,23 +4639,23 @@
         <v>63</v>
       </c>
       <c r="B29" s="2">
-        <f>E29/D29</f>
+        <f t="shared" si="0"/>
         <v>0.56754322556374981</v>
       </c>
       <c r="C29" s="2">
-        <f>F29/D29</f>
+        <f t="shared" si="1"/>
         <v>0.43245677443625025</v>
       </c>
       <c r="D29" s="4">
-        <f>E29+F29</f>
+        <f t="shared" si="2"/>
         <v>1456.7190000000001</v>
       </c>
       <c r="E29" s="4">
-        <f>H29+I29+N29+P29+R29+S29+U29+V29+Z29+AC29+AD29+AE29+AI29+AL29+AK29+AJ29+AO29</f>
+        <f t="shared" si="3"/>
         <v>826.75100000000009</v>
       </c>
       <c r="F29" s="4">
-        <f>G29+J29+K29+L29+M29+O29+Q29+T29+W29+X29+Y29+AA29+AB29+AF29+AG29+AH29+AJ29+AM29+AN29</f>
+        <f t="shared" si="4"/>
         <v>629.96800000000007</v>
       </c>
       <c r="G29" s="3">
@@ -4427,23 +4733,23 @@
         <v>64</v>
       </c>
       <c r="B30" s="2">
-        <f>E30/D30</f>
+        <f t="shared" si="0"/>
         <v>3.0211407043610645E-2</v>
       </c>
       <c r="C30" s="2">
-        <f>F30/D30</f>
+        <f t="shared" si="1"/>
         <v>0.96978859295638942</v>
       </c>
       <c r="D30" s="4">
-        <f>E30+F30</f>
+        <f t="shared" si="2"/>
         <v>29091.131000000001</v>
       </c>
       <c r="E30" s="4">
-        <f>H30+I30+N30+P30+R30+S30+U30+V30+Z30+AC30+AD30+AE30+AI30+AL30+AK30+AJ30+AO30</f>
+        <f t="shared" si="3"/>
         <v>878.88400000000001</v>
       </c>
       <c r="F30" s="4">
-        <f>G30+J30+K30+L30+M30+O30+Q30+T30+W30+X30+Y30+AA30+AB30+AF30+AG30+AH30+AJ30+AM30+AN30</f>
+        <f t="shared" si="4"/>
         <v>28212.247000000003</v>
       </c>
       <c r="G30" s="3">
@@ -4505,23 +4811,23 @@
         <v>65</v>
       </c>
       <c r="B31" s="2">
-        <f>E31/D31</f>
+        <f t="shared" si="0"/>
         <v>4.4546344156900557E-2</v>
       </c>
       <c r="C31" s="2">
-        <f>F31/D31</f>
+        <f t="shared" si="1"/>
         <v>0.95545365584309949</v>
       </c>
       <c r="D31" s="4">
-        <f>E31+F31</f>
+        <f t="shared" si="2"/>
         <v>53237.746999999996</v>
       </c>
       <c r="E31" s="4">
-        <f>H31+I31+N31+P31+R31+S31+U31+V31+Z31+AC31+AD31+AE31+AI31+AL31+AK31+AJ31+AO31</f>
+        <f t="shared" si="3"/>
         <v>2371.547</v>
       </c>
       <c r="F31" s="4">
-        <f>G31+J31+K31+L31+M31+O31+Q31+T31+W31+X31+Y31+AA31+AB31+AF31+AG31+AH31+AJ31+AM31+AN31</f>
+        <f t="shared" si="4"/>
         <v>50866.2</v>
       </c>
       <c r="G31" s="3">
@@ -4593,23 +4899,23 @@
         <v>66</v>
       </c>
       <c r="B32" s="2">
-        <f>E32/D32</f>
+        <f t="shared" si="0"/>
         <v>0.37754205787318779</v>
       </c>
       <c r="C32" s="2">
-        <f>F32/D32</f>
+        <f t="shared" si="1"/>
         <v>0.62245794212681216</v>
       </c>
       <c r="D32" s="4">
-        <f>E32+F32</f>
+        <f t="shared" si="2"/>
         <v>201557.86200000002</v>
       </c>
       <c r="E32" s="4">
-        <f>H32+I32+N32+P32+R32+S32+U32+V32+Z32+AC32+AD32+AE32+AI32+AL32+AK32+AJ32+AO32</f>
+        <f t="shared" si="3"/>
         <v>76096.570000000007</v>
       </c>
       <c r="F32" s="4">
-        <f>G32+J32+K32+L32+M32+O32+Q32+T32+W32+X32+Y32+AA32+AB32+AF32+AG32+AH32+AJ32+AM32+AN32</f>
+        <f t="shared" si="4"/>
         <v>125461.292</v>
       </c>
       <c r="G32" s="3">
@@ -4705,23 +5011,23 @@
         <v>67</v>
       </c>
       <c r="B33" s="2">
-        <f>E33/D33</f>
+        <f t="shared" si="0"/>
         <v>0.84792443978012233</v>
       </c>
       <c r="C33" s="2">
-        <f>F33/D33</f>
+        <f t="shared" si="1"/>
         <v>0.15207556021987773</v>
       </c>
       <c r="D33" s="4">
-        <f>E33+F33</f>
+        <f t="shared" si="2"/>
         <v>329129.16399999999</v>
       </c>
       <c r="E33" s="4">
-        <f>H33+I33+N33+P33+R33+S33+U33+V33+Z33+AC33+AD33+AE33+AI33+AL33+AK33+AJ33+AO33</f>
+        <f t="shared" si="3"/>
         <v>279076.66200000001</v>
       </c>
       <c r="F33" s="4">
-        <f>G33+J33+K33+L33+M33+O33+Q33+T33+W33+X33+Y33+AA33+AB33+AF33+AG33+AH33+AJ33+AM33+AN33</f>
+        <f t="shared" si="4"/>
         <v>50052.502000000008</v>
       </c>
       <c r="G33" s="3">
@@ -4819,23 +5125,23 @@
         <v>68</v>
       </c>
       <c r="B34" s="2">
-        <f>E34/D34</f>
+        <f t="shared" ref="B34:B65" si="5">E34/D34</f>
         <v>0.25028735175780487</v>
       </c>
       <c r="C34" s="2">
-        <f>F34/D34</f>
+        <f t="shared" ref="C34:C65" si="6">F34/D34</f>
         <v>0.74971264824219519</v>
       </c>
       <c r="D34" s="4">
-        <f>E34+F34</f>
+        <f t="shared" ref="D34:D65" si="7">E34+F34</f>
         <v>141032.71999999997</v>
       </c>
       <c r="E34" s="4">
-        <f>H34+I34+N34+P34+R34+S34+U34+V34+Z34+AC34+AD34+AE34+AI34+AL34+AK34+AJ34+AO34</f>
+        <f t="shared" ref="E34:E65" si="8">H34+I34+N34+P34+R34+S34+U34+V34+Z34+AC34+AD34+AE34+AI34+AL34+AK34+AJ34+AO34</f>
         <v>35298.705999999998</v>
       </c>
       <c r="F34" s="4">
-        <f>G34+J34+K34+L34+M34+O34+Q34+T34+W34+X34+Y34+AA34+AB34+AF34+AG34+AH34+AJ34+AM34+AN34</f>
+        <f t="shared" ref="F34:F65" si="9">G34+J34+K34+L34+M34+O34+Q34+T34+W34+X34+Y34+AA34+AB34+AF34+AG34+AH34+AJ34+AM34+AN34</f>
         <v>105734.01399999998</v>
       </c>
       <c r="G34" s="3">
@@ -4931,23 +5237,23 @@
         <v>69</v>
       </c>
       <c r="B35" s="2">
-        <f>E35/D35</f>
+        <f t="shared" si="5"/>
         <v>0.57025976788465826</v>
       </c>
       <c r="C35" s="2">
-        <f>F35/D35</f>
+        <f t="shared" si="6"/>
         <v>0.42974023211534168</v>
       </c>
       <c r="D35" s="4">
-        <f>E35+F35</f>
+        <f t="shared" si="7"/>
         <v>192.749</v>
       </c>
       <c r="E35" s="4">
-        <f>H35+I35+N35+P35+R35+S35+U35+V35+Z35+AC35+AD35+AE35+AI35+AL35+AK35+AJ35+AO35</f>
+        <f t="shared" si="8"/>
         <v>109.917</v>
       </c>
       <c r="F35" s="4">
-        <f>G35+J35+K35+L35+M35+O35+Q35+T35+W35+X35+Y35+AA35+AB35+AF35+AG35+AH35+AJ35+AM35+AN35</f>
+        <f t="shared" si="9"/>
         <v>82.831999999999994</v>
       </c>
       <c r="G35" s="3">
@@ -5009,23 +5315,23 @@
         <v>70</v>
       </c>
       <c r="B36" s="2">
-        <f>E36/D36</f>
+        <f t="shared" si="5"/>
         <v>0.20838580669626838</v>
       </c>
       <c r="C36" s="2">
-        <f>F36/D36</f>
+        <f t="shared" si="6"/>
         <v>0.79161419330373162</v>
       </c>
       <c r="D36" s="4">
-        <f>E36+F36</f>
+        <f t="shared" si="7"/>
         <v>10015.398999999999</v>
       </c>
       <c r="E36" s="4">
-        <f>H36+I36+N36+P36+R36+S36+U36+V36+Z36+AC36+AD36+AE36+AI36+AL36+AK36+AJ36+AO36</f>
+        <f t="shared" si="8"/>
         <v>2087.0669999999996</v>
       </c>
       <c r="F36" s="4">
-        <f>G36+J36+K36+L36+M36+O36+Q36+T36+W36+X36+Y36+AA36+AB36+AF36+AG36+AH36+AJ36+AM36+AN36</f>
+        <f t="shared" si="9"/>
         <v>7928.3320000000003</v>
       </c>
       <c r="G36" s="3">
@@ -5091,23 +5397,23 @@
         <v>71</v>
       </c>
       <c r="B37" s="2">
-        <f>E37/D37</f>
+        <f t="shared" si="5"/>
         <v>3.4893435007556171E-2</v>
       </c>
       <c r="C37" s="2">
-        <f>F37/D37</f>
+        <f t="shared" si="6"/>
         <v>0.96510656499244374</v>
       </c>
       <c r="D37" s="4">
-        <f>E37+F37</f>
+        <f t="shared" si="7"/>
         <v>112547.04500000001</v>
       </c>
       <c r="E37" s="4">
-        <f>H37+I37+N37+P37+R37+S37+U37+V37+Z37+AC37+AD37+AE37+AI37+AL37+AK37+AJ37+AO37</f>
+        <f t="shared" si="8"/>
         <v>3927.1530000000002</v>
       </c>
       <c r="F37" s="4">
-        <f>G37+J37+K37+L37+M37+O37+Q37+T37+W37+X37+Y37+AA37+AB37+AF37+AG37+AH37+AJ37+AM37+AN37</f>
+        <f t="shared" si="9"/>
         <v>108619.89200000001</v>
       </c>
       <c r="G37" s="3">
@@ -5193,23 +5499,23 @@
         <v>72</v>
       </c>
       <c r="B38" s="2">
-        <f>E38/D38</f>
+        <f t="shared" si="5"/>
         <v>0.63305543922102392</v>
       </c>
       <c r="C38" s="2">
-        <f>F38/D38</f>
+        <f t="shared" si="6"/>
         <v>0.36694456077897603</v>
       </c>
       <c r="D38" s="4">
-        <f>E38+F38</f>
+        <f t="shared" si="7"/>
         <v>152.816</v>
       </c>
       <c r="E38" s="4">
-        <f>H38+I38+N38+P38+R38+S38+U38+V38+Z38+AC38+AD38+AE38+AI38+AL38+AK38+AJ38+AO38</f>
+        <f t="shared" si="8"/>
         <v>96.741</v>
       </c>
       <c r="F38" s="4">
-        <f>G38+J38+K38+L38+M38+O38+Q38+T38+W38+X38+Y38+AA38+AB38+AF38+AG38+AH38+AJ38+AM38+AN38</f>
+        <f t="shared" si="9"/>
         <v>56.075000000000003</v>
       </c>
       <c r="G38" s="3">
@@ -5269,23 +5575,23 @@
         <v>73</v>
       </c>
       <c r="B39" s="2">
-        <f>E39/D39</f>
+        <f t="shared" si="5"/>
         <v>0.85030438263913788</v>
       </c>
       <c r="C39" s="2">
-        <f>F39/D39</f>
+        <f t="shared" si="6"/>
         <v>0.14969561736086204</v>
       </c>
       <c r="D39" s="4">
-        <f>E39+F39</f>
+        <f t="shared" si="7"/>
         <v>34999.367999999995</v>
       </c>
       <c r="E39" s="4">
-        <f>H39+I39+N39+P39+R39+S39+U39+V39+Z39+AC39+AD39+AE39+AI39+AL39+AK39+AJ39+AO39</f>
+        <f t="shared" si="8"/>
         <v>29760.115999999995</v>
       </c>
       <c r="F39" s="4">
-        <f>G39+J39+K39+L39+M39+O39+Q39+T39+W39+X39+Y39+AA39+AB39+AF39+AG39+AH39+AJ39+AM39+AN39</f>
+        <f t="shared" si="9"/>
         <v>5239.2519999999986</v>
       </c>
       <c r="G39" s="3">
@@ -5375,23 +5681,23 @@
         <v>74</v>
       </c>
       <c r="B40" s="2">
-        <f>E40/D40</f>
+        <f t="shared" si="5"/>
         <v>0.32066348321335614</v>
       </c>
       <c r="C40" s="2">
-        <f>F40/D40</f>
+        <f t="shared" si="6"/>
         <v>0.67933651678664386</v>
       </c>
       <c r="D40" s="4">
-        <f>E40+F40</f>
+        <f t="shared" si="7"/>
         <v>27885.860000000008</v>
       </c>
       <c r="E40" s="4">
-        <f>H40+I40+N40+P40+R40+S40+U40+V40+Z40+AC40+AD40+AE40+AI40+AL40+AK40+AJ40+AO40</f>
+        <f t="shared" si="8"/>
         <v>8941.9770000000026</v>
       </c>
       <c r="F40" s="4">
-        <f>G40+J40+K40+L40+M40+O40+Q40+T40+W40+X40+Y40+AA40+AB40+AF40+AG40+AH40+AJ40+AM40+AN40</f>
+        <f t="shared" si="9"/>
         <v>18943.883000000005</v>
       </c>
       <c r="G40" s="3">
@@ -5477,23 +5783,23 @@
         <v>75</v>
       </c>
       <c r="B41" s="2">
-        <f>E41/D41</f>
+        <f t="shared" si="5"/>
         <v>0.87857740255358252</v>
       </c>
       <c r="C41" s="2">
-        <f>F41/D41</f>
+        <f t="shared" si="6"/>
         <v>0.12142259744641748</v>
       </c>
       <c r="D41" s="4">
-        <f>E41+F41</f>
+        <f t="shared" si="7"/>
         <v>12815.093999999999</v>
       </c>
       <c r="E41" s="4">
-        <f>H41+I41+N41+P41+R41+S41+U41+V41+Z41+AC41+AD41+AE41+AI41+AL41+AK41+AJ41+AO41</f>
+        <f t="shared" si="8"/>
         <v>11259.052</v>
       </c>
       <c r="F41" s="4">
-        <f>G41+J41+K41+L41+M41+O41+Q41+T41+W41+X41+Y41+AA41+AB41+AF41+AG41+AH41+AJ41+AM41+AN41</f>
+        <f t="shared" si="9"/>
         <v>1556.0419999999999</v>
       </c>
       <c r="G41" s="3">
@@ -5577,23 +5883,23 @@
         <v>76</v>
       </c>
       <c r="B42" s="2">
-        <f>E42/D42</f>
+        <f t="shared" si="5"/>
         <v>0.95705585400011484</v>
       </c>
       <c r="C42" s="2">
-        <f>F42/D42</f>
+        <f t="shared" si="6"/>
         <v>4.294414599988524E-2</v>
       </c>
       <c r="D42" s="4">
-        <f>E42+F42</f>
+        <f t="shared" si="7"/>
         <v>34922.547999999995</v>
       </c>
       <c r="E42" s="4">
-        <f>H42+I42+N42+P42+R42+S42+U42+V42+Z42+AC42+AD42+AE42+AI42+AL42+AK42+AJ42+AO42</f>
+        <f t="shared" si="8"/>
         <v>33422.828999999998</v>
       </c>
       <c r="F42" s="4">
-        <f>G42+J42+K42+L42+M42+O42+Q42+T42+W42+X42+Y42+AA42+AB42+AF42+AG42+AH42+AJ42+AM42+AN42</f>
+        <f t="shared" si="9"/>
         <v>1499.7190000000001</v>
       </c>
       <c r="G42" s="3">
@@ -5683,23 +5989,23 @@
         <v>77</v>
       </c>
       <c r="B43" s="2">
-        <f>E43/D43</f>
+        <f t="shared" si="5"/>
         <v>0.86541178960753862</v>
       </c>
       <c r="C43" s="2">
-        <f>F43/D43</f>
+        <f t="shared" si="6"/>
         <v>0.13458821039246135</v>
       </c>
       <c r="D43" s="4">
-        <f>E43+F43</f>
+        <f t="shared" si="7"/>
         <v>88177.456000000006</v>
       </c>
       <c r="E43" s="4">
-        <f>H43+I43+N43+P43+R43+S43+U43+V43+Z43+AC43+AD43+AE43+AI43+AL43+AK43+AJ43+AO43</f>
+        <f t="shared" si="8"/>
         <v>76309.81</v>
       </c>
       <c r="F43" s="4">
-        <f>G43+J43+K43+L43+M43+O43+Q43+T43+W43+X43+Y43+AA43+AB43+AF43+AG43+AH43+AJ43+AM43+AN43</f>
+        <f t="shared" si="9"/>
         <v>11867.646000000004</v>
       </c>
       <c r="G43" s="3">
@@ -5787,23 +6093,23 @@
         <v>78</v>
       </c>
       <c r="B44" s="2">
-        <f>E44/D44</f>
+        <f t="shared" si="5"/>
         <v>0.36816051847343795</v>
       </c>
       <c r="C44" s="2">
-        <f>F44/D44</f>
+        <f t="shared" si="6"/>
         <v>0.63183948152656211</v>
       </c>
       <c r="D44" s="4">
-        <f>E44+F44</f>
+        <f t="shared" si="7"/>
         <v>1559.347</v>
       </c>
       <c r="E44" s="4">
-        <f>H44+I44+N44+P44+R44+S44+U44+V44+Z44+AC44+AD44+AE44+AI44+AL44+AK44+AJ44+AO44</f>
+        <f t="shared" si="8"/>
         <v>574.09</v>
       </c>
       <c r="F44" s="4">
-        <f>G44+J44+K44+L44+M44+O44+Q44+T44+W44+X44+Y44+AA44+AB44+AF44+AG44+AH44+AJ44+AM44+AN44</f>
+        <f t="shared" si="9"/>
         <v>985.25699999999995</v>
       </c>
       <c r="G44" s="3">
@@ -5869,23 +6175,23 @@
         <v>79</v>
       </c>
       <c r="B45" s="2">
-        <f>E45/D45</f>
+        <f t="shared" si="5"/>
         <v>0.32390423776253241</v>
       </c>
       <c r="C45" s="2">
-        <f>F45/D45</f>
+        <f t="shared" si="6"/>
         <v>0.67609576223746759</v>
       </c>
       <c r="D45" s="4">
-        <f>E45+F45</f>
+        <f t="shared" si="7"/>
         <v>73408.100999999995</v>
       </c>
       <c r="E45" s="4">
-        <f>H45+I45+N45+P45+R45+S45+U45+V45+Z45+AC45+AD45+AE45+AI45+AL45+AK45+AJ45+AO45</f>
+        <f t="shared" si="8"/>
         <v>23777.194999999992</v>
       </c>
       <c r="F45" s="4">
-        <f>G45+J45+K45+L45+M45+O45+Q45+T45+W45+X45+Y45+AA45+AB45+AF45+AG45+AH45+AJ45+AM45+AN45</f>
+        <f t="shared" si="9"/>
         <v>49630.906000000003</v>
       </c>
       <c r="G45" s="3">
@@ -5981,23 +6287,23 @@
         <v>80</v>
       </c>
       <c r="B46" s="2">
-        <f>E46/D46</f>
+        <f t="shared" si="5"/>
         <v>0.78062495709818713</v>
       </c>
       <c r="C46" s="2">
-        <f>F46/D46</f>
+        <f t="shared" si="6"/>
         <v>0.21937504290181289</v>
       </c>
       <c r="D46" s="4">
-        <f>E46+F46</f>
+        <f t="shared" si="7"/>
         <v>30126.932000000001</v>
       </c>
       <c r="E46" s="4">
-        <f>H46+I46+N46+P46+R46+S46+U46+V46+Z46+AC46+AD46+AE46+AI46+AL46+AK46+AJ46+AO46</f>
+        <f t="shared" si="8"/>
         <v>23517.835000000003</v>
       </c>
       <c r="F46" s="4">
-        <f>G46+J46+K46+L46+M46+O46+Q46+T46+W46+X46+Y46+AA46+AB46+AF46+AG46+AH46+AJ46+AM46+AN46</f>
+        <f t="shared" si="9"/>
         <v>6609.0969999999998</v>
       </c>
       <c r="G46" s="3">
@@ -6077,23 +6383,23 @@
         <v>81</v>
       </c>
       <c r="B47" s="2">
-        <f>E47/D47</f>
+        <f t="shared" si="5"/>
         <v>0.61317116903036262</v>
       </c>
       <c r="C47" s="2">
-        <f>F47/D47</f>
+        <f t="shared" si="6"/>
         <v>0.38682883096963738</v>
       </c>
       <c r="D47" s="4">
-        <f>E47+F47</f>
+        <f t="shared" si="7"/>
         <v>3610.6589999999997</v>
       </c>
       <c r="E47" s="4">
-        <f>H47+I47+N47+P47+R47+S47+U47+V47+Z47+AC47+AD47+AE47+AI47+AL47+AK47+AJ47+AO47</f>
+        <f t="shared" si="8"/>
         <v>2213.9519999999998</v>
       </c>
       <c r="F47" s="4">
-        <f>G47+J47+K47+L47+M47+O47+Q47+T47+W47+X47+Y47+AA47+AB47+AF47+AG47+AH47+AJ47+AM47+AN47</f>
+        <f t="shared" si="9"/>
         <v>1396.7069999999999</v>
       </c>
       <c r="G47" s="3">
@@ -6153,23 +6459,23 @@
         <v>82</v>
       </c>
       <c r="B48" s="2">
-        <f>E48/D48</f>
+        <f t="shared" si="5"/>
         <v>0.11755796592696599</v>
       </c>
       <c r="C48" s="2">
-        <f>F48/D48</f>
+        <f t="shared" si="6"/>
         <v>0.88244203407303401</v>
       </c>
       <c r="D48" s="4">
-        <f>E48+F48</f>
+        <f t="shared" si="7"/>
         <v>4500.92</v>
       </c>
       <c r="E48" s="4">
-        <f>H48+I48+N48+P48+R48+S48+U48+V48+Z48+AC48+AD48+AE48+AI48+AL48+AK48+AJ48+AO48</f>
+        <f t="shared" si="8"/>
         <v>529.1189999999998</v>
       </c>
       <c r="F48" s="4">
-        <f>G48+J48+K48+L48+M48+O48+Q48+T48+W48+X48+Y48+AA48+AB48+AF48+AG48+AH48+AJ48+AM48+AN48</f>
+        <f t="shared" si="9"/>
         <v>3971.8010000000004</v>
       </c>
       <c r="G48" s="3">
@@ -6235,23 +6541,23 @@
         <v>83</v>
       </c>
       <c r="B49" s="2">
-        <f>E49/D49</f>
+        <f t="shared" si="5"/>
         <v>0.65721927191019813</v>
       </c>
       <c r="C49" s="2">
-        <f>F49/D49</f>
+        <f t="shared" si="6"/>
         <v>0.34278072808980181</v>
       </c>
       <c r="D49" s="4">
-        <f>E49+F49</f>
+        <f t="shared" si="7"/>
         <v>24719.231</v>
       </c>
       <c r="E49" s="4">
-        <f>H49+I49+N49+P49+R49+S49+U49+V49+Z49+AC49+AD49+AE49+AI49+AL49+AK49+AJ49+AO49</f>
+        <f t="shared" si="8"/>
         <v>16245.955</v>
       </c>
       <c r="F49" s="4">
-        <f>G49+J49+K49+L49+M49+O49+Q49+T49+W49+X49+Y49+AA49+AB49+AF49+AG49+AH49+AJ49+AM49+AN49</f>
+        <f t="shared" si="9"/>
         <v>8473.2759999999998</v>
       </c>
       <c r="G49" s="3">
@@ -6343,23 +6649,23 @@
         <v>84</v>
       </c>
       <c r="B50" s="2">
-        <f>E50/D50</f>
+        <f t="shared" si="5"/>
         <v>0.22776776921320574</v>
       </c>
       <c r="C50" s="2">
-        <f>F50/D50</f>
+        <f t="shared" si="6"/>
         <v>0.77223223078679426</v>
       </c>
       <c r="D50" s="4">
-        <f>E50+F50</f>
+        <f t="shared" si="7"/>
         <v>43490.53</v>
       </c>
       <c r="E50" s="4">
-        <f>H50+I50+N50+P50+R50+S50+U50+V50+Z50+AC50+AD50+AE50+AI50+AL50+AK50+AJ50+AO50</f>
+        <f t="shared" si="8"/>
         <v>9905.741</v>
       </c>
       <c r="F50" s="4">
-        <f>G50+J50+K50+L50+M50+O50+Q50+T50+W50+X50+Y50+AA50+AB50+AF50+AG50+AH50+AJ50+AM50+AN50</f>
+        <f t="shared" si="9"/>
         <v>33584.788999999997</v>
       </c>
       <c r="G50" s="3">
@@ -6441,23 +6747,23 @@
         <v>85</v>
       </c>
       <c r="B51" s="2">
-        <f>E51/D51</f>
+        <f t="shared" si="5"/>
         <v>0.92835792446781784</v>
       </c>
       <c r="C51" s="2">
-        <f>F51/D51</f>
+        <f t="shared" si="6"/>
         <v>7.1642075532182173E-2</v>
       </c>
       <c r="D51" s="4">
-        <f>E51+F51</f>
+        <f t="shared" si="7"/>
         <v>230.84199999999998</v>
       </c>
       <c r="E51" s="4">
-        <f>H51+I51+N51+P51+R51+S51+U51+V51+Z51+AC51+AD51+AE51+AI51+AL51+AK51+AJ51+AO51</f>
+        <f t="shared" si="8"/>
         <v>214.304</v>
       </c>
       <c r="F51" s="4">
-        <f>G51+J51+K51+L51+M51+O51+Q51+T51+W51+X51+Y51+AA51+AB51+AF51+AG51+AH51+AJ51+AM51+AN51</f>
+        <f t="shared" si="9"/>
         <v>16.537999999999997</v>
       </c>
       <c r="G51" s="3">
@@ -6515,23 +6821,23 @@
         <v>86</v>
       </c>
       <c r="B52" s="2">
-        <f>E52/D52</f>
+        <f t="shared" si="5"/>
         <v>0.12362331121520685</v>
       </c>
       <c r="C52" s="2">
-        <f>F52/D52</f>
+        <f t="shared" si="6"/>
         <v>0.87637668878479313</v>
       </c>
       <c r="D52" s="4">
-        <f>E52+F52</f>
+        <f t="shared" si="7"/>
         <v>8019.9679999999989</v>
       </c>
       <c r="E52" s="4">
-        <f>H52+I52+N52+P52+R52+S52+U52+V52+Z52+AC52+AD52+AE52+AI52+AL52+AK52+AJ52+AO52</f>
+        <f t="shared" si="8"/>
         <v>991.45499999999993</v>
       </c>
       <c r="F52" s="4">
-        <f>G52+J52+K52+L52+M52+O52+Q52+T52+W52+X52+Y52+AA52+AB52+AF52+AG52+AH52+AJ52+AM52+AN52</f>
+        <f t="shared" si="9"/>
         <v>7028.512999999999</v>
       </c>
       <c r="G52" s="3">
@@ -6601,23 +6907,23 @@
         <v>87</v>
       </c>
       <c r="B53" s="2">
-        <f>E53/D53</f>
+        <f t="shared" si="5"/>
         <v>0.34420583076295003</v>
       </c>
       <c r="C53" s="2">
-        <f>F53/D53</f>
+        <f t="shared" si="6"/>
         <v>0.65579416923705003</v>
       </c>
       <c r="D53" s="4">
-        <f>E53+F53</f>
+        <f t="shared" si="7"/>
         <v>176500.264</v>
       </c>
       <c r="E53" s="4">
-        <f>H53+I53+N53+P53+R53+S53+U53+V53+Z53+AC53+AD53+AE53+AI53+AL53+AK53+AJ53+AO53</f>
+        <f t="shared" si="8"/>
         <v>60752.42</v>
       </c>
       <c r="F53" s="4">
-        <f>G53+J53+K53+L53+M53+O53+Q53+T53+W53+X53+Y53+AA53+AB53+AF53+AG53+AH53+AJ53+AM53+AN53</f>
+        <f t="shared" si="9"/>
         <v>115747.844</v>
       </c>
       <c r="G53" s="3">
@@ -6711,23 +7017,23 @@
         <v>88</v>
       </c>
       <c r="B54" s="2">
-        <f>E54/D54</f>
+        <f t="shared" si="5"/>
         <v>0.95817333328830545</v>
       </c>
       <c r="C54" s="2">
-        <f>F54/D54</f>
+        <f t="shared" si="6"/>
         <v>4.1826666711694556E-2</v>
       </c>
       <c r="D54" s="4">
-        <f>E54+F54</f>
+        <f t="shared" si="7"/>
         <v>320098.08699999988</v>
       </c>
       <c r="E54" s="4">
-        <f>H54+I54+N54+P54+R54+S54+U54+V54+Z54+AC54+AD54+AE54+AI54+AL54+AK54+AJ54+AO54</f>
+        <f t="shared" si="8"/>
         <v>306709.45099999988</v>
       </c>
       <c r="F54" s="4">
-        <f>G54+J54+K54+L54+M54+O54+Q54+T54+W54+X54+Y54+AA54+AB54+AF54+AG54+AH54+AJ54+AM54+AN54</f>
+        <f t="shared" si="9"/>
         <v>13388.636000000002</v>
       </c>
       <c r="G54" s="3">
@@ -6825,23 +7131,23 @@
         <v>89</v>
       </c>
       <c r="B55" s="2">
-        <f>E55/D55</f>
+        <f t="shared" si="5"/>
         <v>0.25594477386819414</v>
       </c>
       <c r="C55" s="2">
-        <f>F55/D55</f>
+        <f t="shared" si="6"/>
         <v>0.74405522613180597</v>
       </c>
       <c r="D55" s="4">
-        <f>E55+F55</f>
+        <f t="shared" si="7"/>
         <v>12643.289999999997</v>
       </c>
       <c r="E55" s="4">
-        <f>H55+I55+N55+P55+R55+S55+U55+V55+Z55+AC55+AD55+AE55+AI55+AL55+AK55+AJ55+AO55</f>
+        <f t="shared" si="8"/>
         <v>3235.9839999999995</v>
       </c>
       <c r="F55" s="4">
-        <f>G55+J55+K55+L55+M55+O55+Q55+T55+W55+X55+Y55+AA55+AB55+AF55+AG55+AH55+AJ55+AM55+AN55</f>
+        <f t="shared" si="9"/>
         <v>9407.3059999999987</v>
       </c>
       <c r="G55" s="3">
@@ -6909,23 +7215,23 @@
         <v>90</v>
       </c>
       <c r="B56" s="2">
-        <f>E56/D56</f>
+        <f t="shared" si="5"/>
         <v>0.86584092106616428</v>
       </c>
       <c r="C56" s="2">
-        <f>F56/D56</f>
+        <f t="shared" si="6"/>
         <v>0.13415907893383566</v>
       </c>
       <c r="D56" s="4">
-        <f>E56+F56</f>
+        <f t="shared" si="7"/>
         <v>135937.50900000002</v>
       </c>
       <c r="E56" s="4">
-        <f>H56+I56+N56+P56+R56+S56+U56+V56+Z56+AC56+AD56+AE56+AI56+AL56+AK56+AJ56+AO56</f>
+        <f t="shared" si="8"/>
         <v>117700.25800000002</v>
       </c>
       <c r="F56" s="4">
-        <f>G56+J56+K56+L56+M56+O56+Q56+T56+W56+X56+Y56+AA56+AB56+AF56+AG56+AH56+AJ56+AM56+AN56</f>
+        <f t="shared" si="9"/>
         <v>18237.251</v>
       </c>
       <c r="G56" s="3">
@@ -7015,23 +7321,23 @@
         <v>91</v>
       </c>
       <c r="B57" s="2">
-        <f>E57/D57</f>
+        <f t="shared" si="5"/>
         <v>0.41249570742274994</v>
       </c>
       <c r="C57" s="2">
-        <f>F57/D57</f>
+        <f t="shared" si="6"/>
         <v>0.58750429257725001</v>
       </c>
       <c r="D57" s="4">
-        <f>E57+F57</f>
+        <f t="shared" si="7"/>
         <v>24920.925999999989</v>
       </c>
       <c r="E57" s="4">
-        <f>H57+I57+N57+P57+R57+S57+U57+V57+Z57+AC57+AD57+AE57+AI57+AL57+AK57+AJ57+AO57</f>
+        <f t="shared" si="8"/>
         <v>10279.774999999998</v>
       </c>
       <c r="F57" s="4">
-        <f>G57+J57+K57+L57+M57+O57+Q57+T57+W57+X57+Y57+AA57+AB57+AF57+AG57+AH57+AJ57+AM57+AN57</f>
+        <f t="shared" si="9"/>
         <v>14641.150999999991</v>
       </c>
       <c r="G57" s="3">
@@ -7115,23 +7421,23 @@
         <v>92</v>
       </c>
       <c r="B58" s="2">
-        <f>E58/D58</f>
+        <f t="shared" si="5"/>
         <v>0.95892121469256786</v>
       </c>
       <c r="C58" s="2">
-        <f>F58/D58</f>
+        <f t="shared" si="6"/>
         <v>4.1078785307432114E-2</v>
       </c>
       <c r="D58" s="4">
-        <f>E58+F58</f>
+        <f t="shared" si="7"/>
         <v>570179.10399999982</v>
       </c>
       <c r="E58" s="4">
-        <f>H58+I58+N58+P58+R58+S58+U58+V58+Z58+AC58+AD58+AE58+AI58+AL58+AK58+AJ58+AO58</f>
+        <f t="shared" si="8"/>
         <v>546756.8389999998</v>
       </c>
       <c r="F58" s="4">
-        <f>G58+J58+K58+L58+M58+O58+Q58+T58+W58+X58+Y58+AA58+AB58+AF58+AG58+AH58+AJ58+AM58+AN58</f>
+        <f t="shared" si="9"/>
         <v>23422.264999999999</v>
       </c>
       <c r="G58" s="3">
@@ -7233,23 +7539,23 @@
         <v>93</v>
       </c>
       <c r="B59" s="2">
-        <f>E59/D59</f>
+        <f t="shared" si="5"/>
         <v>0.21973002657208926</v>
       </c>
       <c r="C59" s="2">
-        <f>F59/D59</f>
+        <f t="shared" si="6"/>
         <v>0.78026997342791071</v>
       </c>
       <c r="D59" s="4">
-        <f>E59+F59</f>
+        <f t="shared" si="7"/>
         <v>28764.015999999992</v>
       </c>
       <c r="E59" s="4">
-        <f>H59+I59+N59+P59+R59+S59+U59+V59+Z59+AC59+AD59+AE59+AI59+AL59+AK59+AJ59+AO59</f>
+        <f t="shared" si="8"/>
         <v>6320.3179999999993</v>
       </c>
       <c r="F59" s="4">
-        <f>G59+J59+K59+L59+M59+O59+Q59+T59+W59+X59+Y59+AA59+AB59+AF59+AG59+AH59+AJ59+AM59+AN59</f>
+        <f t="shared" si="9"/>
         <v>22443.697999999993</v>
       </c>
       <c r="G59" s="3">
@@ -7341,23 +7647,23 @@
         <v>94</v>
       </c>
       <c r="B60" s="2">
-        <f>E60/D60</f>
+        <f t="shared" si="5"/>
         <v>0.95144211547886159</v>
       </c>
       <c r="C60" s="2">
-        <f>F60/D60</f>
+        <f t="shared" si="6"/>
         <v>4.8557884521138378E-2</v>
       </c>
       <c r="D60" s="4">
-        <f>E60+F60</f>
+        <f t="shared" si="7"/>
         <v>240660.44299999994</v>
       </c>
       <c r="E60" s="4">
-        <f>H60+I60+N60+P60+R60+S60+U60+V60+Z60+AC60+AD60+AE60+AI60+AL60+AK60+AJ60+AO60</f>
+        <f t="shared" si="8"/>
         <v>228974.48099999994</v>
       </c>
       <c r="F60" s="4">
-        <f>G60+J60+K60+L60+M60+O60+Q60+T60+W60+X60+Y60+AA60+AB60+AF60+AG60+AH60+AJ60+AM60+AN60</f>
+        <f t="shared" si="9"/>
         <v>11685.962000000001</v>
       </c>
       <c r="G60" s="3">
@@ -7455,23 +7761,23 @@
         <v>95</v>
       </c>
       <c r="B61" s="2">
-        <f>E61/D61</f>
+        <f t="shared" si="5"/>
         <v>0.80891417050623293</v>
       </c>
       <c r="C61" s="2">
-        <f>F61/D61</f>
+        <f t="shared" si="6"/>
         <v>0.19108582949376707</v>
       </c>
       <c r="D61" s="4">
-        <f>E61+F61</f>
+        <f t="shared" si="7"/>
         <v>84777.803999999989</v>
       </c>
       <c r="E61" s="4">
-        <f>H61+I61+N61+P61+R61+S61+U61+V61+Z61+AC61+AD61+AE61+AI61+AL61+AK61+AJ61+AO61</f>
+        <f t="shared" si="8"/>
         <v>68577.96699999999</v>
       </c>
       <c r="F61" s="4">
-        <f>G61+J61+K61+L61+M61+O61+Q61+T61+W61+X61+Y61+AA61+AB61+AF61+AG61+AH61+AJ61+AM61+AN61</f>
+        <f t="shared" si="9"/>
         <v>16199.837000000001</v>
       </c>
       <c r="G61" s="3">
@@ -7565,23 +7871,23 @@
         <v>96</v>
       </c>
       <c r="B62" s="2">
-        <f>E62/D62</f>
+        <f t="shared" si="5"/>
         <v>0.17976391968024663</v>
       </c>
       <c r="C62" s="2">
-        <f>F62/D62</f>
+        <f t="shared" si="6"/>
         <v>0.82023608031975337</v>
       </c>
       <c r="D62" s="4">
-        <f>E62+F62</f>
+        <f t="shared" si="7"/>
         <v>503.38800000000003</v>
       </c>
       <c r="E62" s="4">
-        <f>H62+I62+N62+P62+R62+S62+U62+V62+Z62+AC62+AD62+AE62+AI62+AL62+AK62+AJ62+AO62</f>
+        <f t="shared" si="8"/>
         <v>90.491</v>
       </c>
       <c r="F62" s="4">
-        <f>G62+J62+K62+L62+M62+O62+Q62+T62+W62+X62+Y62+AA62+AB62+AF62+AG62+AH62+AJ62+AM62+AN62</f>
+        <f t="shared" si="9"/>
         <v>412.89700000000005</v>
       </c>
       <c r="G62" s="3">
@@ -7651,23 +7957,23 @@
         <v>97</v>
       </c>
       <c r="B63" s="2">
-        <f>E63/D63</f>
+        <f t="shared" si="5"/>
         <v>0.31425678257248257</v>
       </c>
       <c r="C63" s="2">
-        <f>F63/D63</f>
+        <f t="shared" si="6"/>
         <v>0.68574321742751743</v>
       </c>
       <c r="D63" s="4">
-        <f>E63+F63</f>
+        <f t="shared" si="7"/>
         <v>29436.802999999993</v>
       </c>
       <c r="E63" s="4">
-        <f>H63+I63+N63+P63+R63+S63+U63+V63+Z63+AC63+AD63+AE63+AI63+AL63+AK63+AJ63+AO63</f>
+        <f t="shared" si="8"/>
         <v>9250.7150000000001</v>
       </c>
       <c r="F63" s="4">
-        <f>G63+J63+K63+L63+M63+O63+Q63+T63+W63+X63+Y63+AA63+AB63+AF63+AG63+AH63+AJ63+AM63+AN63</f>
+        <f t="shared" si="9"/>
         <v>20186.087999999992</v>
       </c>
       <c r="G63" s="3">
@@ -7759,23 +8065,23 @@
         <v>98</v>
       </c>
       <c r="B64" s="2">
-        <f>E64/D64</f>
+        <f t="shared" si="5"/>
         <v>7.311343180331438E-2</v>
       </c>
       <c r="C64" s="2">
-        <f>F64/D64</f>
+        <f t="shared" si="6"/>
         <v>0.92688656819668569</v>
       </c>
       <c r="D64" s="4">
-        <f>E64+F64</f>
+        <f t="shared" si="7"/>
         <v>39217.704999999994</v>
       </c>
       <c r="E64" s="4">
-        <f>H64+I64+N64+P64+R64+S64+U64+V64+Z64+AC64+AD64+AE64+AI64+AL64+AK64+AJ64+AO64</f>
+        <f t="shared" si="8"/>
         <v>2867.3410000000008</v>
       </c>
       <c r="F64" s="4">
-        <f>G64+J64+K64+L64+M64+O64+Q64+T64+W64+X64+Y64+AA64+AB64+AF64+AG64+AH64+AJ64+AM64+AN64</f>
+        <f t="shared" si="9"/>
         <v>36350.363999999994</v>
       </c>
       <c r="G64" s="3">
@@ -7853,23 +8159,23 @@
         <v>99</v>
       </c>
       <c r="B65" s="2">
-        <f>E65/D65</f>
+        <f t="shared" si="5"/>
         <v>0.12202986965606787</v>
       </c>
       <c r="C65" s="2">
-        <f>F65/D65</f>
+        <f t="shared" si="6"/>
         <v>0.87797013034393212</v>
       </c>
       <c r="D65" s="4">
-        <f>E65+F65</f>
+        <f t="shared" si="7"/>
         <v>5884.9689999999991</v>
       </c>
       <c r="E65" s="4">
-        <f>H65+I65+N65+P65+R65+S65+U65+V65+Z65+AC65+AD65+AE65+AI65+AL65+AK65+AJ65+AO65</f>
+        <f t="shared" si="8"/>
         <v>718.14199999999994</v>
       </c>
       <c r="F65" s="4">
-        <f>G65+J65+K65+L65+M65+O65+Q65+T65+W65+X65+Y65+AA65+AB65+AF65+AG65+AH65+AJ65+AM65+AN65</f>
+        <f t="shared" si="9"/>
         <v>5166.8269999999993</v>
       </c>
       <c r="G65" s="3">
@@ -7933,23 +8239,23 @@
         <v>100</v>
       </c>
       <c r="B66" s="2">
-        <f>E66/D66</f>
+        <f t="shared" ref="B66:B97" si="10">E66/D66</f>
         <v>0.46075540591552083</v>
       </c>
       <c r="C66" s="2">
-        <f>F66/D66</f>
+        <f t="shared" ref="C66:C97" si="11">F66/D66</f>
         <v>0.53924459408447922</v>
       </c>
       <c r="D66" s="4">
-        <f>E66+F66</f>
+        <f t="shared" ref="D66:D97" si="12">E66+F66</f>
         <v>17198.012000000002</v>
       </c>
       <c r="E66" s="4">
-        <f>H66+I66+N66+P66+R66+S66+U66+V66+Z66+AC66+AD66+AE66+AI66+AL66+AK66+AJ66+AO66</f>
+        <f t="shared" ref="E66:E97" si="13">H66+I66+N66+P66+R66+S66+U66+V66+Z66+AC66+AD66+AE66+AI66+AL66+AK66+AJ66+AO66</f>
         <v>7924.0769999999993</v>
       </c>
       <c r="F66" s="4">
-        <f>G66+J66+K66+L66+M66+O66+Q66+T66+W66+X66+Y66+AA66+AB66+AF66+AG66+AH66+AJ66+AM66+AN66</f>
+        <f t="shared" ref="F66:F97" si="14">G66+J66+K66+L66+M66+O66+Q66+T66+W66+X66+Y66+AA66+AB66+AF66+AG66+AH66+AJ66+AM66+AN66</f>
         <v>9273.9350000000031</v>
       </c>
       <c r="G66" s="3">
@@ -8033,23 +8339,23 @@
         <v>101</v>
       </c>
       <c r="B67" s="2">
-        <f>E67/D67</f>
+        <f t="shared" si="10"/>
         <v>0.88519817880454343</v>
       </c>
       <c r="C67" s="2">
-        <f>F67/D67</f>
+        <f t="shared" si="11"/>
         <v>0.11480182119545659</v>
       </c>
       <c r="D67" s="4">
-        <f>E67+F67</f>
+        <f t="shared" si="12"/>
         <v>38768.600999999995</v>
       </c>
       <c r="E67" s="4">
-        <f>H67+I67+N67+P67+R67+S67+U67+V67+Z67+AC67+AD67+AE67+AI67+AL67+AK67+AJ67+AO67</f>
+        <f t="shared" si="13"/>
         <v>34317.894999999997</v>
       </c>
       <c r="F67" s="4">
-        <f>G67+J67+K67+L67+M67+O67+Q67+T67+W67+X67+Y67+AA67+AB67+AF67+AG67+AH67+AJ67+AM67+AN67</f>
+        <f t="shared" si="14"/>
         <v>4450.7059999999992</v>
       </c>
       <c r="G67" s="3">
@@ -8143,23 +8449,23 @@
         <v>102</v>
       </c>
       <c r="B68" s="2">
-        <f>E68/D68</f>
+        <f t="shared" si="10"/>
         <v>0.43666812041138436</v>
       </c>
       <c r="C68" s="2">
-        <f>F68/D68</f>
+        <f t="shared" si="11"/>
         <v>0.56333187958861564</v>
       </c>
       <c r="D68" s="4">
-        <f>E68+F68</f>
+        <f t="shared" si="12"/>
         <v>17811.471999999998</v>
       </c>
       <c r="E68" s="4">
-        <f>H68+I68+N68+P68+R68+S68+U68+V68+Z68+AC68+AD68+AE68+AI68+AL68+AK68+AJ68+AO68</f>
+        <f t="shared" si="13"/>
         <v>7777.7020000000002</v>
       </c>
       <c r="F68" s="4">
-        <f>G68+J68+K68+L68+M68+O68+Q68+T68+W68+X68+Y68+AA68+AB68+AF68+AG68+AH68+AJ68+AM68+AN68</f>
+        <f t="shared" si="14"/>
         <v>10033.769999999999</v>
       </c>
       <c r="G68" s="3">
@@ -8243,23 +8549,23 @@
         <v>103</v>
       </c>
       <c r="B69" s="2">
-        <f>E69/D69</f>
+        <f t="shared" si="10"/>
         <v>0.89465148400365813</v>
       </c>
       <c r="C69" s="2">
-        <f>F69/D69</f>
+        <f t="shared" si="11"/>
         <v>0.10534851599634189</v>
       </c>
       <c r="D69" s="4">
-        <f>E69+F69</f>
+        <f t="shared" si="12"/>
         <v>238872.89500000002</v>
       </c>
       <c r="E69" s="4">
-        <f>H69+I69+N69+P69+R69+S69+U69+V69+Z69+AC69+AD69+AE69+AI69+AL69+AK69+AJ69+AO69</f>
+        <f t="shared" si="13"/>
         <v>213707.99000000002</v>
       </c>
       <c r="F69" s="4">
-        <f>G69+J69+K69+L69+M69+O69+Q69+T69+W69+X69+Y69+AA69+AB69+AF69+AG69+AH69+AJ69+AM69+AN69</f>
+        <f t="shared" si="14"/>
         <v>25164.904999999999</v>
       </c>
       <c r="G69" s="3">
@@ -8355,23 +8661,23 @@
         <v>104</v>
       </c>
       <c r="B70" s="2">
-        <f>E70/D70</f>
+        <f t="shared" si="10"/>
         <v>0.58095030509669365</v>
       </c>
       <c r="C70" s="2">
-        <f>F70/D70</f>
+        <f t="shared" si="11"/>
         <v>0.41904969490330629</v>
       </c>
       <c r="D70" s="4">
-        <f>E70+F70</f>
+        <f t="shared" si="12"/>
         <v>109072.63399999998</v>
       </c>
       <c r="E70" s="4">
-        <f>H70+I70+N70+P70+R70+S70+U70+V70+Z70+AC70+AD70+AE70+AI70+AL70+AK70+AJ70+AO70</f>
+        <f t="shared" si="13"/>
         <v>63365.779999999992</v>
       </c>
       <c r="F70" s="4">
-        <f>G70+J70+K70+L70+M70+O70+Q70+T70+W70+X70+Y70+AA70+AB70+AF70+AG70+AH70+AJ70+AM70+AN70</f>
+        <f t="shared" si="14"/>
         <v>45706.853999999985</v>
       </c>
       <c r="G70" s="3">
@@ -8465,23 +8771,23 @@
         <v>105</v>
       </c>
       <c r="B71" s="2">
-        <f>E71/D71</f>
+        <f t="shared" si="10"/>
         <v>0.70974609231128727</v>
       </c>
       <c r="C71" s="2">
-        <f>F71/D71</f>
+        <f t="shared" si="11"/>
         <v>0.29025390768871279</v>
       </c>
       <c r="D71" s="4">
-        <f>E71+F71</f>
+        <f t="shared" si="12"/>
         <v>128899.40499999998</v>
       </c>
       <c r="E71" s="4">
-        <f>H71+I71+N71+P71+R71+S71+U71+V71+Z71+AC71+AD71+AE71+AI71+AL71+AK71+AJ71+AO71</f>
+        <f t="shared" si="13"/>
         <v>91485.848999999987</v>
       </c>
       <c r="F71" s="4">
-        <f>G71+J71+K71+L71+M71+O71+Q71+T71+W71+X71+Y71+AA71+AB71+AF71+AG71+AH71+AJ71+AM71+AN71</f>
+        <f t="shared" si="14"/>
         <v>37413.555999999997</v>
       </c>
       <c r="G71" s="3">
@@ -8575,23 +8881,23 @@
         <v>106</v>
       </c>
       <c r="B72" s="2">
-        <f>E72/D72</f>
+        <f t="shared" si="10"/>
         <v>0.79509256288677321</v>
       </c>
       <c r="C72" s="2">
-        <f>F72/D72</f>
+        <f t="shared" si="11"/>
         <v>0.2049074371132269</v>
       </c>
       <c r="D72" s="4">
-        <f>E72+F72</f>
+        <f t="shared" si="12"/>
         <v>18655.154999999999</v>
       </c>
       <c r="E72" s="4">
-        <f>H72+I72+N72+P72+R72+S72+U72+V72+Z72+AC72+AD72+AE72+AI72+AL72+AK72+AJ72+AO72</f>
+        <f t="shared" si="13"/>
         <v>14832.575000000001</v>
       </c>
       <c r="F72" s="4">
-        <f>G72+J72+K72+L72+M72+O72+Q72+T72+W72+X72+Y72+AA72+AB72+AF72+AG72+AH72+AJ72+AM72+AN72</f>
+        <f t="shared" si="14"/>
         <v>3822.58</v>
       </c>
       <c r="G72" s="3">
@@ -8673,23 +8979,23 @@
         <v>107</v>
       </c>
       <c r="B73" s="2">
-        <f>E73/D73</f>
+        <f t="shared" si="10"/>
         <v>0.97542458077242611</v>
       </c>
       <c r="C73" s="2">
-        <f>F73/D73</f>
+        <f t="shared" si="11"/>
         <v>2.4575419227573964E-2</v>
       </c>
       <c r="D73" s="4">
-        <f>E73+F73</f>
+        <f t="shared" si="12"/>
         <v>47896.599000000002</v>
       </c>
       <c r="E73" s="4">
-        <f>H73+I73+N73+P73+R73+S73+U73+V73+Z73+AC73+AD73+AE73+AI73+AL73+AK73+AJ73+AO73</f>
+        <f t="shared" si="13"/>
         <v>46719.520000000004</v>
       </c>
       <c r="F73" s="4">
-        <f>G73+J73+K73+L73+M73+O73+Q73+T73+W73+X73+Y73+AA73+AB73+AF73+AG73+AH73+AJ73+AM73+AN73</f>
+        <f t="shared" si="14"/>
         <v>1177.079</v>
       </c>
       <c r="G73" s="3">
@@ -8783,23 +9089,23 @@
         <v>108</v>
       </c>
       <c r="B74" s="2">
-        <f>E74/D74</f>
+        <f t="shared" si="10"/>
         <v>0.78368078740581315</v>
       </c>
       <c r="C74" s="2">
-        <f>F74/D74</f>
+        <f t="shared" si="11"/>
         <v>0.21631921259418688</v>
       </c>
       <c r="D74" s="4">
-        <f>E74+F74</f>
+        <f t="shared" si="12"/>
         <v>14899.763000000003</v>
       </c>
       <c r="E74" s="4">
-        <f>H74+I74+N74+P74+R74+S74+U74+V74+Z74+AC74+AD74+AE74+AI74+AL74+AK74+AJ74+AO74</f>
+        <f t="shared" si="13"/>
         <v>11676.658000000003</v>
       </c>
       <c r="F74" s="4">
-        <f>G74+J74+K74+L74+M74+O74+Q74+T74+W74+X74+Y74+AA74+AB74+AF74+AG74+AH74+AJ74+AM74+AN74</f>
+        <f t="shared" si="14"/>
         <v>3223.105</v>
       </c>
       <c r="G74" s="3">
@@ -8879,23 +9185,23 @@
         <v>109</v>
       </c>
       <c r="B75" s="2">
-        <f>E75/D75</f>
+        <f t="shared" si="10"/>
         <v>0.88262643387108997</v>
       </c>
       <c r="C75" s="2">
-        <f>F75/D75</f>
+        <f t="shared" si="11"/>
         <v>0.11737356612891009</v>
       </c>
       <c r="D75" s="4">
-        <f>E75+F75</f>
+        <f t="shared" si="12"/>
         <v>314384.78200000006</v>
       </c>
       <c r="E75" s="4">
-        <f>H75+I75+N75+P75+R75+S75+U75+V75+Z75+AC75+AD75+AE75+AI75+AL75+AK75+AJ75+AO75</f>
+        <f t="shared" si="13"/>
         <v>277484.31900000008</v>
       </c>
       <c r="F75" s="4">
-        <f>G75+J75+K75+L75+M75+O75+Q75+T75+W75+X75+Y75+AA75+AB75+AF75+AG75+AH75+AJ75+AM75+AN75</f>
+        <f t="shared" si="14"/>
         <v>36900.462999999989</v>
       </c>
       <c r="G75" s="3">
@@ -8993,23 +9299,23 @@
         <v>110</v>
       </c>
       <c r="B76" s="2">
-        <f>E76/D76</f>
+        <f t="shared" si="10"/>
         <v>0.10839797455871845</v>
       </c>
       <c r="C76" s="2">
-        <f>F76/D76</f>
+        <f t="shared" si="11"/>
         <v>0.89160202544128153</v>
       </c>
       <c r="D76" s="4">
-        <f>E76+F76</f>
+        <f t="shared" si="12"/>
         <v>89741.233999999982</v>
       </c>
       <c r="E76" s="4">
-        <f>H76+I76+N76+P76+R76+S76+U76+V76+Z76+AC76+AD76+AE76+AI76+AL76+AK76+AJ76+AO76</f>
+        <f t="shared" si="13"/>
         <v>9727.7679999999982</v>
       </c>
       <c r="F76" s="4">
-        <f>G76+J76+K76+L76+M76+O76+Q76+T76+W76+X76+Y76+AA76+AB76+AF76+AG76+AH76+AJ76+AM76+AN76</f>
+        <f t="shared" si="14"/>
         <v>80013.465999999986</v>
       </c>
       <c r="G76" s="3">
@@ -9093,23 +9399,23 @@
         <v>111</v>
       </c>
       <c r="B77" s="2">
-        <f>E77/D77</f>
+        <f t="shared" si="10"/>
         <v>0.83673421413669191</v>
       </c>
       <c r="C77" s="2">
-        <f>F77/D77</f>
+        <f t="shared" si="11"/>
         <v>0.16326578586330801</v>
       </c>
       <c r="D77" s="4">
-        <f>E77+F77</f>
+        <f t="shared" si="12"/>
         <v>6338.4560000000001</v>
       </c>
       <c r="E77" s="4">
-        <f>H77+I77+N77+P77+R77+S77+U77+V77+Z77+AC77+AD77+AE77+AI77+AL77+AK77+AJ77+AO77</f>
+        <f t="shared" si="13"/>
         <v>5303.6030000000001</v>
       </c>
       <c r="F77" s="4">
-        <f>G77+J77+K77+L77+M77+O77+Q77+T77+W77+X77+Y77+AA77+AB77+AF77+AG77+AH77+AJ77+AM77+AN77</f>
+        <f t="shared" si="14"/>
         <v>1034.8529999999998</v>
       </c>
       <c r="G77" s="3">
@@ -9177,23 +9483,23 @@
         <v>112</v>
       </c>
       <c r="B78" s="2">
-        <f>E78/D78</f>
+        <f t="shared" si="10"/>
         <v>0.96159644486633966</v>
       </c>
       <c r="C78" s="2">
-        <f>F78/D78</f>
+        <f t="shared" si="11"/>
         <v>3.8403555133660304E-2</v>
       </c>
       <c r="D78" s="4">
-        <f>E78+F78</f>
+        <f t="shared" si="12"/>
         <v>134217.62600000002</v>
       </c>
       <c r="E78" s="4">
-        <f>H78+I78+N78+P78+R78+S78+U78+V78+Z78+AC78+AD78+AE78+AI78+AL78+AK78+AJ78+AO78</f>
+        <f t="shared" si="13"/>
         <v>129063.19200000001</v>
       </c>
       <c r="F78" s="4">
-        <f>G78+J78+K78+L78+M78+O78+Q78+T78+W78+X78+Y78+AA78+AB78+AF78+AG78+AH78+AJ78+AM78+AN78</f>
+        <f t="shared" si="14"/>
         <v>5154.4339999999993</v>
       </c>
       <c r="G78" s="3">
@@ -9285,23 +9591,23 @@
         <v>113</v>
       </c>
       <c r="B79" s="2">
-        <f>E79/D79</f>
+        <f t="shared" si="10"/>
         <v>0.8748494741217786</v>
       </c>
       <c r="C79" s="2">
-        <f>F79/D79</f>
+        <f t="shared" si="11"/>
         <v>0.12515052587822145</v>
       </c>
       <c r="D79" s="4">
-        <f>E79+F79</f>
+        <f t="shared" si="12"/>
         <v>8585.7330000000002</v>
       </c>
       <c r="E79" s="4">
-        <f>H79+I79+N79+P79+R79+S79+U79+V79+Z79+AC79+AD79+AE79+AI79+AL79+AK79+AJ79+AO79</f>
+        <f t="shared" si="13"/>
         <v>7511.2240000000011</v>
       </c>
       <c r="F79" s="4">
-        <f>G79+J79+K79+L79+M79+O79+Q79+T79+W79+X79+Y79+AA79+AB79+AF79+AG79+AH79+AJ79+AM79+AN79</f>
+        <f t="shared" si="14"/>
         <v>1074.509</v>
       </c>
       <c r="G79" s="3">
@@ -9371,23 +9677,23 @@
         <v>114</v>
       </c>
       <c r="B80" s="2">
-        <f>E80/D80</f>
+        <f t="shared" si="10"/>
         <v>0.48757528176067155</v>
       </c>
       <c r="C80" s="2">
-        <f>F80/D80</f>
+        <f t="shared" si="11"/>
         <v>0.51242471823932834</v>
       </c>
       <c r="D80" s="4">
-        <f>E80+F80</f>
+        <f t="shared" si="12"/>
         <v>88936.383000000002</v>
       </c>
       <c r="E80" s="4">
-        <f>H80+I80+N80+P80+R80+S80+U80+V80+Z80+AC80+AD80+AE80+AI80+AL80+AK80+AJ80+AO80</f>
+        <f t="shared" si="13"/>
         <v>43363.182000000001</v>
       </c>
       <c r="F80" s="4">
-        <f>G80+J80+K80+L80+M80+O80+Q80+T80+W80+X80+Y80+AA80+AB80+AF80+AG80+AH80+AJ80+AM80+AN80</f>
+        <f t="shared" si="14"/>
         <v>45573.200999999994</v>
       </c>
       <c r="G80" s="3">
@@ -9473,23 +9779,23 @@
         <v>115</v>
       </c>
       <c r="B81" s="2">
-        <f>E81/D81</f>
+        <f t="shared" si="10"/>
         <v>0.11283838477965497</v>
       </c>
       <c r="C81" s="2">
-        <f>F81/D81</f>
+        <f t="shared" si="11"/>
         <v>0.88716161522034509</v>
       </c>
       <c r="D81" s="4">
-        <f>E81+F81</f>
+        <f t="shared" si="12"/>
         <v>76030.864999999991</v>
       </c>
       <c r="E81" s="4">
-        <f>H81+I81+N81+P81+R81+S81+U81+V81+Z81+AC81+AD81+AE81+AI81+AL81+AK81+AJ81+AO81</f>
+        <f t="shared" si="13"/>
         <v>8579.2000000000007</v>
       </c>
       <c r="F81" s="4">
-        <f>G81+J81+K81+L81+M81+O81+Q81+T81+W81+X81+Y81+AA81+AB81+AF81+AG81+AH81+AJ81+AM81+AN81</f>
+        <f t="shared" si="14"/>
         <v>67451.664999999994</v>
       </c>
       <c r="G81" s="3">
@@ -9577,23 +9883,23 @@
         <v>116</v>
       </c>
       <c r="B82" s="2">
-        <f>E82/D82</f>
+        <f t="shared" si="10"/>
         <v>8.4906239784445586E-2</v>
       </c>
       <c r="C82" s="2">
-        <f>F82/D82</f>
+        <f t="shared" si="11"/>
         <v>0.91509376021555444</v>
       </c>
       <c r="D82" s="4">
-        <f>E82+F82</f>
+        <f t="shared" si="12"/>
         <v>504.74500000000006</v>
       </c>
       <c r="E82" s="4">
-        <f>H82+I82+N82+P82+R82+S82+U82+V82+Z82+AC82+AD82+AE82+AI82+AL82+AK82+AJ82+AO82</f>
+        <f t="shared" si="13"/>
         <v>42.855999999999995</v>
       </c>
       <c r="F82" s="4">
-        <f>G82+J82+K82+L82+M82+O82+Q82+T82+W82+X82+Y82+AA82+AB82+AF82+AG82+AH82+AJ82+AM82+AN82</f>
+        <f t="shared" si="14"/>
         <v>461.88900000000007</v>
       </c>
       <c r="G82" s="3">
@@ -9655,23 +9961,23 @@
         <v>117</v>
       </c>
       <c r="B83" s="2">
-        <f>E83/D83</f>
+        <f t="shared" si="10"/>
         <v>0.6725036440876061</v>
       </c>
       <c r="C83" s="2">
-        <f>F83/D83</f>
+        <f t="shared" si="11"/>
         <v>0.32749635591239379</v>
       </c>
       <c r="D83" s="4">
-        <f>E83+F83</f>
+        <f t="shared" si="12"/>
         <v>4971.0660000000007</v>
       </c>
       <c r="E83" s="4">
-        <f>H83+I83+N83+P83+R83+S83+U83+V83+Z83+AC83+AD83+AE83+AI83+AL83+AK83+AJ83+AO83</f>
+        <f t="shared" si="13"/>
         <v>3343.0600000000004</v>
       </c>
       <c r="F83" s="4">
-        <f>G83+J83+K83+L83+M83+O83+Q83+T83+W83+X83+Y83+AA83+AB83+AF83+AG83+AH83+AJ83+AM83+AN83</f>
+        <f t="shared" si="14"/>
         <v>1628.0060000000001</v>
       </c>
       <c r="G83" s="3">
@@ -9749,23 +10055,23 @@
         <v>118</v>
       </c>
       <c r="B84" s="2">
-        <f>E84/D84</f>
+        <f t="shared" si="10"/>
         <v>0.43201892679556386</v>
       </c>
       <c r="C84" s="2">
-        <f>F84/D84</f>
+        <f t="shared" si="11"/>
         <v>0.56798107320443614</v>
       </c>
       <c r="D84" s="4">
-        <f>E84+F84</f>
+        <f t="shared" si="12"/>
         <v>14090.921999999999</v>
       </c>
       <c r="E84" s="4">
-        <f>H84+I84+N84+P84+R84+S84+U84+V84+Z84+AC84+AD84+AE84+AI84+AL84+AK84+AJ84+AO84</f>
+        <f t="shared" si="13"/>
         <v>6087.5450000000001</v>
       </c>
       <c r="F84" s="4">
-        <f>G84+J84+K84+L84+M84+O84+Q84+T84+W84+X84+Y84+AA84+AB84+AF84+AG84+AH84+AJ84+AM84+AN84</f>
+        <f t="shared" si="14"/>
         <v>8003.3769999999995</v>
       </c>
       <c r="G84" s="3">
@@ -9843,23 +10149,23 @@
         <v>119</v>
       </c>
       <c r="B85" s="2">
-        <f>E85/D85</f>
+        <f t="shared" si="10"/>
         <v>0.15503077682282806</v>
       </c>
       <c r="C85" s="2">
-        <f>F85/D85</f>
+        <f t="shared" si="11"/>
         <v>0.84496922317717194</v>
       </c>
       <c r="D85" s="4">
-        <f>E85+F85</f>
+        <f t="shared" si="12"/>
         <v>32086.157999999996</v>
       </c>
       <c r="E85" s="4">
-        <f>H85+I85+N85+P85+R85+S85+U85+V85+Z85+AC85+AD85+AE85+AI85+AL85+AK85+AJ85+AO85</f>
+        <f t="shared" si="13"/>
         <v>4974.3419999999987</v>
       </c>
       <c r="F85" s="4">
-        <f>G85+J85+K85+L85+M85+O85+Q85+T85+W85+X85+Y85+AA85+AB85+AF85+AG85+AH85+AJ85+AM85+AN85</f>
+        <f t="shared" si="14"/>
         <v>27111.815999999999</v>
       </c>
       <c r="G85" s="3">
@@ -9937,23 +10243,23 @@
         <v>120</v>
       </c>
       <c r="B86" s="2">
-        <f>E86/D86</f>
+        <f t="shared" si="10"/>
         <v>0.32098975279197312</v>
       </c>
       <c r="C86" s="2">
-        <f>F86/D86</f>
+        <f t="shared" si="11"/>
         <v>0.67901024720802694</v>
       </c>
       <c r="D86" s="4">
-        <f>E86+F86</f>
+        <f t="shared" si="12"/>
         <v>42229.453999999998</v>
       </c>
       <c r="E86" s="4">
-        <f>H86+I86+N86+P86+R86+S86+U86+V86+Z86+AC86+AD86+AE86+AI86+AL86+AK86+AJ86+AO86</f>
+        <f t="shared" si="13"/>
         <v>13555.222</v>
       </c>
       <c r="F86" s="4">
-        <f>G86+J86+K86+L86+M86+O86+Q86+T86+W86+X86+Y86+AA86+AB86+AF86+AG86+AH86+AJ86+AM86+AN86</f>
+        <f t="shared" si="14"/>
         <v>28674.232</v>
       </c>
       <c r="G86" s="3">
@@ -10045,23 +10351,23 @@
         <v>121</v>
       </c>
       <c r="B87" s="2">
-        <f>E87/D87</f>
+        <f t="shared" si="10"/>
         <v>0.90886479743187132</v>
       </c>
       <c r="C87" s="2">
-        <f>F87/D87</f>
+        <f t="shared" si="11"/>
         <v>9.1135202568128681E-2</v>
       </c>
       <c r="D87" s="4">
-        <f>E87+F87</f>
+        <f t="shared" si="12"/>
         <v>5646.4460000000008</v>
       </c>
       <c r="E87" s="4">
-        <f>H87+I87+N87+P87+R87+S87+U87+V87+Z87+AC87+AD87+AE87+AI87+AL87+AK87+AJ87+AO87</f>
+        <f t="shared" si="13"/>
         <v>5131.8560000000007</v>
       </c>
       <c r="F87" s="4">
-        <f>G87+J87+K87+L87+M87+O87+Q87+T87+W87+X87+Y87+AA87+AB87+AF87+AG87+AH87+AJ87+AM87+AN87</f>
+        <f t="shared" si="14"/>
         <v>514.59</v>
       </c>
       <c r="G87" s="3">
@@ -10131,23 +10437,23 @@
         <v>122</v>
       </c>
       <c r="B88" s="2">
-        <f>E88/D88</f>
+        <f t="shared" si="10"/>
         <v>0.25634741140860962</v>
       </c>
       <c r="C88" s="2">
-        <f>F88/D88</f>
+        <f t="shared" si="11"/>
         <v>0.74365258859139038</v>
       </c>
       <c r="D88" s="4">
-        <f>E88+F88</f>
+        <f t="shared" si="12"/>
         <v>8128.6679999999997</v>
       </c>
       <c r="E88" s="4">
-        <f>H88+I88+N88+P88+R88+S88+U88+V88+Z88+AC88+AD88+AE88+AI88+AL88+AK88+AJ88+AO88</f>
+        <f t="shared" si="13"/>
         <v>2083.7629999999999</v>
       </c>
       <c r="F88" s="4">
-        <f>G88+J88+K88+L88+M88+O88+Q88+T88+W88+X88+Y88+AA88+AB88+AF88+AG88+AH88+AJ88+AM88+AN88</f>
+        <f t="shared" si="14"/>
         <v>6044.9049999999997</v>
       </c>
       <c r="G88" s="3">
@@ -10225,23 +10531,23 @@
         <v>123</v>
       </c>
       <c r="B89" s="2">
-        <f>E89/D89</f>
+        <f t="shared" si="10"/>
         <v>7.1827225418192198E-2</v>
       </c>
       <c r="C89" s="2">
-        <f>F89/D89</f>
+        <f t="shared" si="11"/>
         <v>0.9281727745818078</v>
       </c>
       <c r="D89" s="4">
-        <f>E89+F89</f>
+        <f t="shared" si="12"/>
         <v>14068.411999999998</v>
       </c>
       <c r="E89" s="4">
-        <f>H89+I89+N89+P89+R89+S89+U89+V89+Z89+AC89+AD89+AE89+AI89+AL89+AK89+AJ89+AO89</f>
+        <f t="shared" si="13"/>
         <v>1010.495</v>
       </c>
       <c r="F89" s="4">
-        <f>G89+J89+K89+L89+M89+O89+Q89+T89+W89+X89+Y89+AA89+AB89+AF89+AG89+AH89+AJ89+AM89+AN89</f>
+        <f t="shared" si="14"/>
         <v>13057.916999999998</v>
       </c>
       <c r="G89" s="3">
@@ -10307,23 +10613,23 @@
         <v>124</v>
       </c>
       <c r="B90" s="2">
-        <f>E90/D90</f>
+        <f t="shared" si="10"/>
         <v>0.55215201480396714</v>
       </c>
       <c r="C90" s="2">
-        <f>F90/D90</f>
+        <f t="shared" si="11"/>
         <v>0.44784798519603281</v>
       </c>
       <c r="D90" s="4">
-        <f>E90+F90</f>
+        <f t="shared" si="12"/>
         <v>49719.105000000003</v>
       </c>
       <c r="E90" s="4">
-        <f>H90+I90+N90+P90+R90+S90+U90+V90+Z90+AC90+AD90+AE90+AI90+AL90+AK90+AJ90+AO90</f>
+        <f t="shared" si="13"/>
         <v>27452.504000000001</v>
       </c>
       <c r="F90" s="4">
-        <f>G90+J90+K90+L90+M90+O90+Q90+T90+W90+X90+Y90+AA90+AB90+AF90+AG90+AH90+AJ90+AM90+AN90</f>
+        <f t="shared" si="14"/>
         <v>22266.601000000002</v>
       </c>
       <c r="G90" s="3">
@@ -10397,23 +10703,23 @@
         <v>125</v>
       </c>
       <c r="B91" s="2">
-        <f>E91/D91</f>
+        <f t="shared" si="10"/>
         <v>0.96762107568140387</v>
       </c>
       <c r="C91" s="2">
-        <f>F91/D91</f>
+        <f t="shared" si="11"/>
         <v>3.237892431859616E-2</v>
       </c>
       <c r="D91" s="4">
-        <f>E91+F91</f>
+        <f t="shared" si="12"/>
         <v>398.22199999999998</v>
       </c>
       <c r="E91" s="4">
-        <f>H91+I91+N91+P91+R91+S91+U91+V91+Z91+AC91+AD91+AE91+AI91+AL91+AK91+AJ91+AO91</f>
+        <f t="shared" si="13"/>
         <v>385.32799999999997</v>
       </c>
       <c r="F91" s="4">
-        <f>G91+J91+K91+L91+M91+O91+Q91+T91+W91+X91+Y91+AA91+AB91+AF91+AG91+AH91+AJ91+AM91+AN91</f>
+        <f t="shared" si="14"/>
         <v>12.893999999999998</v>
       </c>
       <c r="G91" s="3">
@@ -10489,23 +10795,23 @@
         <v>126</v>
       </c>
       <c r="B92" s="2">
-        <f>E92/D92</f>
+        <f t="shared" si="10"/>
         <v>0.41185862200006235</v>
       </c>
       <c r="C92" s="2">
-        <f>F92/D92</f>
+        <f t="shared" si="11"/>
         <v>0.58814137799993771</v>
       </c>
       <c r="D92" s="4">
-        <f>E92+F92</f>
+        <f t="shared" si="12"/>
         <v>63841.701000000001</v>
       </c>
       <c r="E92" s="4">
-        <f>H92+I92+N92+P92+R92+S92+U92+V92+Z92+AC92+AD92+AE92+AI92+AL92+AK92+AJ92+AO92</f>
+        <f t="shared" si="13"/>
         <v>26293.755000000001</v>
       </c>
       <c r="F92" s="4">
-        <f>G92+J92+K92+L92+M92+O92+Q92+T92+W92+X92+Y92+AA92+AB92+AF92+AG92+AH92+AJ92+AM92+AN92</f>
+        <f t="shared" si="14"/>
         <v>37547.946000000004</v>
       </c>
       <c r="G92" s="3">
@@ -10595,23 +10901,23 @@
         <v>127</v>
       </c>
       <c r="B93" s="2">
-        <f>E93/D93</f>
+        <f t="shared" si="10"/>
         <v>0.99385953722708031</v>
       </c>
       <c r="C93" s="2">
-        <f>F93/D93</f>
+        <f t="shared" si="11"/>
         <v>6.1404627729196859E-3</v>
       </c>
       <c r="D93" s="4">
-        <f>E93+F93</f>
+        <f t="shared" si="12"/>
         <v>6788.9019999999991</v>
       </c>
       <c r="E93" s="4">
-        <f>H93+I93+N93+P93+R93+S93+U93+V93+Z93+AC93+AD93+AE93+AI93+AL93+AK93+AJ93+AO93</f>
+        <f t="shared" si="13"/>
         <v>6747.2149999999992</v>
       </c>
       <c r="F93" s="4">
-        <f>G93+J93+K93+L93+M93+O93+Q93+T93+W93+X93+Y93+AA93+AB93+AF93+AG93+AH93+AJ93+AM93+AN93</f>
+        <f t="shared" si="14"/>
         <v>41.686999999999998</v>
       </c>
       <c r="G93" s="3">
@@ -10703,23 +11009,23 @@
         <v>128</v>
       </c>
       <c r="B94" s="2">
-        <f>E94/D94</f>
+        <f t="shared" si="10"/>
         <v>0.62314015335693929</v>
       </c>
       <c r="C94" s="2">
-        <f>F94/D94</f>
+        <f t="shared" si="11"/>
         <v>0.3768598466430606</v>
       </c>
       <c r="D94" s="4">
-        <f>E94+F94</f>
+        <f t="shared" si="12"/>
         <v>5390.4310000000005</v>
       </c>
       <c r="E94" s="4">
-        <f>H94+I94+N94+P94+R94+S94+U94+V94+Z94+AC94+AD94+AE94+AI94+AL94+AK94+AJ94+AO94</f>
+        <f t="shared" si="13"/>
         <v>3358.9940000000001</v>
       </c>
       <c r="F94" s="4">
-        <f>G94+J94+K94+L94+M94+O94+Q94+T94+W94+X94+Y94+AA94+AB94+AF94+AG94+AH94+AJ94+AM94+AN94</f>
+        <f t="shared" si="14"/>
         <v>2031.4370000000001</v>
       </c>
       <c r="G94" s="3">
@@ -10801,23 +11107,23 @@
         <v>129</v>
       </c>
       <c r="B95" s="2">
-        <f>E95/D95</f>
+        <f t="shared" si="10"/>
         <v>4.0135122058710518E-2</v>
       </c>
       <c r="C95" s="2">
-        <f>F95/D95</f>
+        <f t="shared" si="11"/>
         <v>0.9598648779412895</v>
       </c>
       <c r="D95" s="4">
-        <f>E95+F95</f>
+        <f t="shared" si="12"/>
         <v>48498.668999999994</v>
       </c>
       <c r="E95" s="4">
-        <f>H95+I95+N95+P95+R95+S95+U95+V95+Z95+AC95+AD95+AE95+AI95+AL95+AK95+AJ95+AO95</f>
+        <f t="shared" si="13"/>
         <v>1946.4999999999998</v>
       </c>
       <c r="F95" s="4">
-        <f>G95+J95+K95+L95+M95+O95+Q95+T95+W95+X95+Y95+AA95+AB95+AF95+AG95+AH95+AJ95+AM95+AN95</f>
+        <f t="shared" si="14"/>
         <v>46552.168999999994</v>
       </c>
       <c r="G95" s="3">
@@ -10909,23 +11215,23 @@
         <v>130</v>
       </c>
       <c r="B96" s="2">
-        <f>E96/D96</f>
+        <f t="shared" si="10"/>
         <v>8.4302661040365726E-2</v>
       </c>
       <c r="C96" s="2">
-        <f>F96/D96</f>
+        <f t="shared" si="11"/>
         <v>0.91569733895963434</v>
       </c>
       <c r="D96" s="4">
-        <f>E96+F96</f>
+        <f t="shared" si="12"/>
         <v>27522.167999999998</v>
       </c>
       <c r="E96" s="4">
-        <f>H96+I96+N96+P96+R96+S96+U96+V96+Z96+AC96+AD96+AE96+AI96+AL96+AK96+AJ96+AO96</f>
+        <f t="shared" si="13"/>
         <v>2320.192</v>
       </c>
       <c r="F96" s="4">
-        <f>G96+J96+K96+L96+M96+O96+Q96+T96+W96+X96+Y96+AA96+AB96+AF96+AG96+AH96+AJ96+AM96+AN96</f>
+        <f t="shared" si="14"/>
         <v>25201.975999999999</v>
       </c>
       <c r="G96" s="3">
@@ -10997,23 +11303,23 @@
         <v>131</v>
       </c>
       <c r="B97" s="2">
-        <f>E97/D97</f>
+        <f t="shared" si="10"/>
         <v>0.7925289054020771</v>
       </c>
       <c r="C97" s="2">
-        <f>F97/D97</f>
+        <f t="shared" si="11"/>
         <v>0.20747109459792284</v>
       </c>
       <c r="D97" s="4">
-        <f>E97+F97</f>
+        <f t="shared" si="12"/>
         <v>66384.650000000009</v>
       </c>
       <c r="E97" s="4">
-        <f>H97+I97+N97+P97+R97+S97+U97+V97+Z97+AC97+AD97+AE97+AI97+AL97+AK97+AJ97+AO97</f>
+        <f t="shared" si="13"/>
         <v>52611.754000000008</v>
       </c>
       <c r="F97" s="4">
-        <f>G97+J97+K97+L97+M97+O97+Q97+T97+W97+X97+Y97+AA97+AB97+AF97+AG97+AH97+AJ97+AM97+AN97</f>
+        <f t="shared" si="14"/>
         <v>13772.896000000001</v>
       </c>
       <c r="G97" s="3">
@@ -11105,23 +11411,23 @@
         <v>132</v>
       </c>
       <c r="B98" s="2">
-        <f>E98/D98</f>
+        <f t="shared" ref="B98:B129" si="15">E98/D98</f>
         <v>0.33224713851903764</v>
       </c>
       <c r="C98" s="2">
-        <f>F98/D98</f>
+        <f t="shared" ref="C98:C129" si="16">F98/D98</f>
         <v>0.66775286148096247</v>
       </c>
       <c r="D98" s="4">
-        <f>E98+F98</f>
+        <f t="shared" ref="D98:D129" si="17">E98+F98</f>
         <v>256.85999999999996</v>
       </c>
       <c r="E98" s="4">
-        <f>H98+I98+N98+P98+R98+S98+U98+V98+Z98+AC98+AD98+AE98+AI98+AL98+AK98+AJ98+AO98</f>
+        <f t="shared" ref="E98:E129" si="18">H98+I98+N98+P98+R98+S98+U98+V98+Z98+AC98+AD98+AE98+AI98+AL98+AK98+AJ98+AO98</f>
         <v>85.340999999999994</v>
       </c>
       <c r="F98" s="4">
-        <f>G98+J98+K98+L98+M98+O98+Q98+T98+W98+X98+Y98+AA98+AB98+AF98+AG98+AH98+AJ98+AM98+AN98</f>
+        <f t="shared" ref="F98:F129" si="19">G98+J98+K98+L98+M98+O98+Q98+T98+W98+X98+Y98+AA98+AB98+AF98+AG98+AH98+AJ98+AM98+AN98</f>
         <v>171.51899999999998</v>
       </c>
       <c r="G98" s="3">
@@ -11189,23 +11495,23 @@
         <v>133</v>
       </c>
       <c r="B99" s="2">
-        <f>E99/D99</f>
+        <f t="shared" si="15"/>
         <v>2.5321338717051823E-2</v>
       </c>
       <c r="C99" s="2">
-        <f>F99/D99</f>
+        <f t="shared" si="16"/>
         <v>0.97467866128294822</v>
       </c>
       <c r="D99" s="4">
-        <f>E99+F99</f>
+        <f t="shared" si="17"/>
         <v>220518.71200000003</v>
       </c>
       <c r="E99" s="4">
-        <f>H99+I99+N99+P99+R99+S99+U99+V99+Z99+AC99+AD99+AE99+AI99+AL99+AK99+AJ99+AO99</f>
+        <f t="shared" si="18"/>
         <v>5583.8290000000015</v>
       </c>
       <c r="F99" s="4">
-        <f>G99+J99+K99+L99+M99+O99+Q99+T99+W99+X99+Y99+AA99+AB99+AF99+AG99+AH99+AJ99+AM99+AN99</f>
+        <f t="shared" si="19"/>
         <v>214934.88300000003</v>
       </c>
       <c r="G99" s="3">
@@ -11293,23 +11599,23 @@
         <v>134</v>
       </c>
       <c r="B100" s="2">
-        <f>E100/D100</f>
+        <f t="shared" si="15"/>
         <v>0.96770669342480042</v>
       </c>
       <c r="C100" s="2">
-        <f>F100/D100</f>
+        <f t="shared" si="16"/>
         <v>3.2293306575199555E-2</v>
       </c>
       <c r="D100" s="4">
-        <f>E100+F100</f>
+        <f t="shared" si="17"/>
         <v>1481.9170000000001</v>
       </c>
       <c r="E100" s="4">
-        <f>H100+I100+N100+P100+R100+S100+U100+V100+Z100+AC100+AD100+AE100+AI100+AL100+AK100+AJ100+AO100</f>
+        <f t="shared" si="18"/>
         <v>1434.0610000000001</v>
       </c>
       <c r="F100" s="4">
-        <f>G100+J100+K100+L100+M100+O100+Q100+T100+W100+X100+Y100+AA100+AB100+AF100+AG100+AH100+AJ100+AM100+AN100</f>
+        <f t="shared" si="19"/>
         <v>47.856000000000009</v>
       </c>
       <c r="G100" s="3">
@@ -11383,23 +11689,23 @@
         <v>135</v>
       </c>
       <c r="B101" s="2">
-        <f>E101/D101</f>
+        <f t="shared" si="15"/>
         <v>0.51319758083420586</v>
       </c>
       <c r="C101" s="2">
-        <f>F101/D101</f>
+        <f t="shared" si="16"/>
         <v>0.48680241916579414</v>
       </c>
       <c r="D101" s="4">
-        <f>E101+F101</f>
+        <f t="shared" si="17"/>
         <v>63.988999999999997</v>
       </c>
       <c r="E101" s="4">
-        <f>H101+I101+N101+P101+R101+S101+U101+V101+Z101+AC101+AD101+AE101+AI101+AL101+AK101+AJ101+AO101</f>
+        <f t="shared" si="18"/>
         <v>32.838999999999999</v>
       </c>
       <c r="F101" s="4">
-        <f>G101+J101+K101+L101+M101+O101+Q101+T101+W101+X101+Y101+AA101+AB101+AF101+AG101+AH101+AJ101+AM101+AN101</f>
+        <f t="shared" si="19"/>
         <v>31.15</v>
       </c>
       <c r="G101" s="3">
@@ -11457,23 +11763,23 @@
         <v>136</v>
       </c>
       <c r="B102" s="2">
-        <f>E102/D102</f>
+        <f t="shared" si="15"/>
         <v>0.18025039789470873</v>
       </c>
       <c r="C102" s="2">
-        <f>F102/D102</f>
+        <f t="shared" si="16"/>
         <v>0.81974960210529124</v>
       </c>
       <c r="D102" s="4">
-        <f>E102+F102</f>
+        <f t="shared" si="17"/>
         <v>30831.649000000005</v>
       </c>
       <c r="E102" s="4">
-        <f>H102+I102+N102+P102+R102+S102+U102+V102+Z102+AC102+AD102+AE102+AI102+AL102+AK102+AJ102+AO102</f>
+        <f t="shared" si="18"/>
         <v>5557.4169999999995</v>
       </c>
       <c r="F102" s="4">
-        <f>G102+J102+K102+L102+M102+O102+Q102+T102+W102+X102+Y102+AA102+AB102+AF102+AG102+AH102+AJ102+AM102+AN102</f>
+        <f t="shared" si="19"/>
         <v>25274.232000000004</v>
       </c>
       <c r="G102" s="3">
@@ -11539,23 +11845,23 @@
         <v>137</v>
       </c>
       <c r="B103" s="2">
-        <f>E103/D103</f>
+        <f t="shared" si="15"/>
         <v>0.95325803777545903</v>
       </c>
       <c r="C103" s="2">
-        <f>F103/D103</f>
+        <f t="shared" si="16"/>
         <v>4.6741962224541099E-2</v>
       </c>
       <c r="D103" s="4">
-        <f>E103+F103</f>
+        <f t="shared" si="17"/>
         <v>2433.1669999999999</v>
       </c>
       <c r="E103" s="4">
-        <f>H103+I103+N103+P103+R103+S103+U103+V103+Z103+AC103+AD103+AE103+AI103+AL103+AK103+AJ103+AO103</f>
+        <f t="shared" si="18"/>
         <v>2319.4360000000001</v>
       </c>
       <c r="F103" s="4">
-        <f>G103+J103+K103+L103+M103+O103+Q103+T103+W103+X103+Y103+AA103+AB103+AF103+AG103+AH103+AJ103+AM103+AN103</f>
+        <f t="shared" si="19"/>
         <v>113.73099999999998</v>
       </c>
       <c r="G103" s="3">
@@ -11627,23 +11933,23 @@
         <v>138</v>
       </c>
       <c r="B104" s="2">
-        <f>E104/D104</f>
+        <f t="shared" si="15"/>
         <v>0.57955564473855692</v>
       </c>
       <c r="C104" s="2">
-        <f>F104/D104</f>
+        <f t="shared" si="16"/>
         <v>0.42044435526144308</v>
       </c>
       <c r="D104" s="4">
-        <f>E104+F104</f>
+        <f t="shared" si="17"/>
         <v>283292.65100000001</v>
       </c>
       <c r="E104" s="4">
-        <f>H104+I104+N104+P104+R104+S104+U104+V104+Z104+AC104+AD104+AE104+AI104+AL104+AK104+AJ104+AO104</f>
+        <f t="shared" si="18"/>
         <v>164183.85500000001</v>
       </c>
       <c r="F104" s="4">
-        <f>G104+J104+K104+L104+M104+O104+Q104+T104+W104+X104+Y104+AA104+AB104+AF104+AG104+AH104+AJ104+AM104+AN104</f>
+        <f t="shared" si="19"/>
         <v>119108.79600000002</v>
       </c>
       <c r="G104" s="3">
@@ -11743,23 +12049,23 @@
         <v>139</v>
       </c>
       <c r="B105" s="2">
-        <f>E105/D105</f>
+        <f t="shared" si="15"/>
         <v>0.20271596485221957</v>
       </c>
       <c r="C105" s="2">
-        <f>F105/D105</f>
+        <f t="shared" si="16"/>
         <v>0.79728403514778046</v>
       </c>
       <c r="D105" s="4">
-        <f>E105+F105</f>
+        <f t="shared" si="17"/>
         <v>131.44499999999999</v>
       </c>
       <c r="E105" s="4">
-        <f>H105+I105+N105+P105+R105+S105+U105+V105+Z105+AC105+AD105+AE105+AI105+AL105+AK105+AJ105+AO105</f>
+        <f t="shared" si="18"/>
         <v>26.646000000000001</v>
       </c>
       <c r="F105" s="4">
-        <f>G105+J105+K105+L105+M105+O105+Q105+T105+W105+X105+Y105+AA105+AB105+AF105+AG105+AH105+AJ105+AM105+AN105</f>
+        <f t="shared" si="19"/>
         <v>104.79899999999999</v>
       </c>
       <c r="G105" s="3">
@@ -11817,23 +12123,23 @@
         <v>140</v>
       </c>
       <c r="B106" s="2">
-        <f>E106/D106</f>
+        <f t="shared" si="15"/>
         <v>0.53030916034154474</v>
       </c>
       <c r="C106" s="2">
-        <f>F106/D106</f>
+        <f t="shared" si="16"/>
         <v>0.46969083965845532</v>
       </c>
       <c r="D106" s="4">
-        <f>E106+F106</f>
+        <f t="shared" si="17"/>
         <v>6747.6959999999999</v>
       </c>
       <c r="E106" s="4">
-        <f>H106+I106+N106+P106+R106+S106+U106+V106+Z106+AC106+AD106+AE106+AI106+AL106+AK106+AJ106+AO106</f>
+        <f t="shared" si="18"/>
         <v>3578.3650000000002</v>
       </c>
       <c r="F106" s="4">
-        <f>G106+J106+K106+L106+M106+O106+Q106+T106+W106+X106+Y106+AA106+AB106+AF106+AG106+AH106+AJ106+AM106+AN106</f>
+        <f t="shared" si="19"/>
         <v>3169.3310000000001</v>
       </c>
       <c r="G106" s="3">
@@ -11919,23 +12225,23 @@
         <v>141</v>
       </c>
       <c r="B107" s="2">
-        <f>E107/D107</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C107" s="2">
-        <f>F107/D107</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D107" s="4">
-        <f>E107+F107</f>
+        <f t="shared" si="17"/>
         <v>36.448</v>
       </c>
       <c r="E107" s="4">
-        <f>H107+I107+N107+P107+R107+S107+U107+V107+Z107+AC107+AD107+AE107+AI107+AL107+AK107+AJ107+AO107</f>
+        <f t="shared" si="18"/>
         <v>36.448</v>
       </c>
       <c r="F107" s="4">
-        <f>G107+J107+K107+L107+M107+O107+Q107+T107+W107+X107+Y107+AA107+AB107+AF107+AG107+AH107+AJ107+AM107+AN107</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G107" s="3"/>
@@ -11983,23 +12289,23 @@
         <v>142</v>
       </c>
       <c r="B108" s="2">
-        <f>E108/D108</f>
+        <f t="shared" si="15"/>
         <v>0.15322059598776358</v>
       </c>
       <c r="C108" s="2">
-        <f>F108/D108</f>
+        <f t="shared" si="16"/>
         <v>0.8467794040122365</v>
       </c>
       <c r="D108" s="4">
-        <f>E108+F108</f>
+        <f t="shared" si="17"/>
         <v>81594.493999999992</v>
       </c>
       <c r="E108" s="4">
-        <f>H108+I108+N108+P108+R108+S108+U108+V108+Z108+AC108+AD108+AE108+AI108+AL108+AK108+AJ108+AO108</f>
+        <f t="shared" si="18"/>
         <v>12501.956999999999</v>
       </c>
       <c r="F108" s="4">
-        <f>G108+J108+K108+L108+M108+O108+Q108+T108+W108+X108+Y108+AA108+AB108+AF108+AG108+AH108+AJ108+AM108+AN108</f>
+        <f t="shared" si="19"/>
         <v>69092.536999999997</v>
       </c>
       <c r="G108" s="3">
@@ -12073,23 +12379,23 @@
         <v>143</v>
       </c>
       <c r="B109" s="2">
-        <f>E109/D109</f>
+        <f t="shared" si="15"/>
         <v>0.70517819651070524</v>
       </c>
       <c r="C109" s="2">
-        <f>F109/D109</f>
+        <f t="shared" si="16"/>
         <v>0.29482180348929476</v>
       </c>
       <c r="D109" s="4">
-        <f>E109+F109</f>
+        <f t="shared" si="17"/>
         <v>6278.518</v>
       </c>
       <c r="E109" s="4">
-        <f>H109+I109+N109+P109+R109+S109+U109+V109+Z109+AC109+AD109+AE109+AI109+AL109+AK109+AJ109+AO109</f>
+        <f t="shared" si="18"/>
         <v>4427.4740000000002</v>
       </c>
       <c r="F109" s="4">
-        <f>G109+J109+K109+L109+M109+O109+Q109+T109+W109+X109+Y109+AA109+AB109+AF109+AG109+AH109+AJ109+AM109+AN109</f>
+        <f t="shared" si="19"/>
         <v>1851.0439999999999</v>
       </c>
       <c r="G109" s="3">
@@ -12171,23 +12477,23 @@
         <v>144</v>
       </c>
       <c r="B110" s="2">
-        <f>E110/D110</f>
+        <f t="shared" si="15"/>
         <v>0.78669885627420144</v>
       </c>
       <c r="C110" s="2">
-        <f>F110/D110</f>
+        <f t="shared" si="16"/>
         <v>0.21330114372579853</v>
       </c>
       <c r="D110" s="4">
-        <f>E110+F110</f>
+        <f t="shared" si="17"/>
         <v>93686.965999999986</v>
       </c>
       <c r="E110" s="4">
-        <f>H110+I110+N110+P110+R110+S110+U110+V110+Z110+AC110+AD110+AE110+AI110+AL110+AK110+AJ110+AO110</f>
+        <f t="shared" si="18"/>
         <v>73703.428999999989</v>
       </c>
       <c r="F110" s="4">
-        <f>G110+J110+K110+L110+M110+O110+Q110+T110+W110+X110+Y110+AA110+AB110+AF110+AG110+AH110+AJ110+AM110+AN110</f>
+        <f t="shared" si="19"/>
         <v>19983.536999999997</v>
       </c>
       <c r="G110" s="3">
@@ -12269,23 +12575,23 @@
         <v>145</v>
       </c>
       <c r="B111" s="2">
-        <f>E111/D111</f>
+        <f t="shared" si="15"/>
         <v>0.13224394845611601</v>
       </c>
       <c r="C111" s="2">
-        <f>F111/D111</f>
+        <f t="shared" si="16"/>
         <v>0.86775605154388402</v>
       </c>
       <c r="D111" s="4">
-        <f>E111+F111</f>
+        <f t="shared" si="17"/>
         <v>62099.938000000009</v>
       </c>
       <c r="E111" s="4">
-        <f>H111+I111+N111+P111+R111+S111+U111+V111+Z111+AC111+AD111+AE111+AI111+AL111+AK111+AJ111+AO111</f>
+        <f t="shared" si="18"/>
         <v>8212.3410000000003</v>
       </c>
       <c r="F111" s="4">
-        <f>G111+J111+K111+L111+M111+O111+Q111+T111+W111+X111+Y111+AA111+AB111+AF111+AG111+AH111+AJ111+AM111+AN111</f>
+        <f t="shared" si="19"/>
         <v>53887.597000000009</v>
       </c>
       <c r="G111" s="3">
@@ -12361,23 +12667,23 @@
         <v>146</v>
       </c>
       <c r="B112" s="2">
-        <f>E112/D112</f>
+        <f t="shared" si="15"/>
         <v>0.37282178646544167</v>
       </c>
       <c r="C112" s="2">
-        <f>F112/D112</f>
+        <f t="shared" si="16"/>
         <v>0.62717821353455838</v>
       </c>
       <c r="D112" s="4">
-        <f>E112+F112</f>
+        <f t="shared" si="17"/>
         <v>21258.188999999998</v>
       </c>
       <c r="E112" s="4">
-        <f>H112+I112+N112+P112+R112+S112+U112+V112+Z112+AC112+AD112+AE112+AI112+AL112+AK112+AJ112+AO112</f>
+        <f t="shared" si="18"/>
         <v>7925.5160000000005</v>
       </c>
       <c r="F112" s="4">
-        <f>G112+J112+K112+L112+M112+O112+Q112+T112+W112+X112+Y112+AA112+AB112+AF112+AG112+AH112+AJ112+AM112+AN112</f>
+        <f t="shared" si="19"/>
         <v>13332.672999999999</v>
       </c>
       <c r="G112" s="3">
@@ -12463,23 +12769,23 @@
         <v>147</v>
       </c>
       <c r="B113" s="2">
-        <f>E113/D113</f>
+        <f t="shared" si="15"/>
         <v>0.16549562952789582</v>
       </c>
       <c r="C113" s="2">
-        <f>F113/D113</f>
+        <f t="shared" si="16"/>
         <v>0.83450437047210424</v>
       </c>
       <c r="D113" s="4">
-        <f>E113+F113</f>
+        <f t="shared" si="17"/>
         <v>59640.009999999995</v>
       </c>
       <c r="E113" s="4">
-        <f>H113+I113+N113+P113+R113+S113+U113+V113+Z113+AC113+AD113+AE113+AI113+AL113+AK113+AJ113+AO113</f>
+        <f t="shared" si="18"/>
         <v>9870.1610000000001</v>
       </c>
       <c r="F113" s="4">
-        <f>G113+J113+K113+L113+M113+O113+Q113+T113+W113+X113+Y113+AA113+AB113+AF113+AG113+AH113+AJ113+AM113+AN113</f>
+        <f t="shared" si="19"/>
         <v>49769.848999999995</v>
       </c>
       <c r="G113" s="3">
@@ -12559,23 +12865,23 @@
         <v>148</v>
       </c>
       <c r="B114" s="2">
-        <f>E114/D114</f>
+        <f t="shared" si="15"/>
         <v>0.7241391808626314</v>
       </c>
       <c r="C114" s="2">
-        <f>F114/D114</f>
+        <f t="shared" si="16"/>
         <v>0.2758608191373686</v>
       </c>
       <c r="D114" s="4">
-        <f>E114+F114</f>
+        <f t="shared" si="17"/>
         <v>27.59</v>
       </c>
       <c r="E114" s="4">
-        <f>H114+I114+N114+P114+R114+S114+U114+V114+Z114+AC114+AD114+AE114+AI114+AL114+AK114+AJ114+AO114</f>
+        <f t="shared" si="18"/>
         <v>19.978999999999999</v>
       </c>
       <c r="F114" s="4">
-        <f>G114+J114+K114+L114+M114+O114+Q114+T114+W114+X114+Y114+AA114+AB114+AF114+AG114+AH114+AJ114+AM114+AN114</f>
+        <f t="shared" si="19"/>
         <v>7.6109999999999998</v>
       </c>
       <c r="G114" s="3">
@@ -12629,23 +12935,23 @@
         <v>149</v>
       </c>
       <c r="B115" s="2">
-        <f>E115/D115</f>
+        <f t="shared" si="15"/>
         <v>0.20170644554910472</v>
       </c>
       <c r="C115" s="2">
-        <f>F115/D115</f>
+        <f t="shared" si="16"/>
         <v>0.79829355445089523</v>
       </c>
       <c r="D115" s="4">
-        <f>E115+F115</f>
+        <f t="shared" si="17"/>
         <v>21180.166000000001</v>
       </c>
       <c r="E115" s="4">
-        <f>H115+I115+N115+P115+R115+S115+U115+V115+Z115+AC115+AD115+AE115+AI115+AL115+AK115+AJ115+AO115</f>
+        <f t="shared" si="18"/>
         <v>4272.1759999999995</v>
       </c>
       <c r="F115" s="4">
-        <f>G115+J115+K115+L115+M115+O115+Q115+T115+W115+X115+Y115+AA115+AB115+AF115+AG115+AH115+AJ115+AM115+AN115</f>
+        <f t="shared" si="19"/>
         <v>16907.990000000002</v>
       </c>
       <c r="G115" s="3">
@@ -12737,23 +13043,23 @@
         <v>150</v>
       </c>
       <c r="B116" s="2">
-        <f>E116/D116</f>
+        <f t="shared" si="15"/>
         <v>0.98375869344319855</v>
       </c>
       <c r="C116" s="2">
-        <f>F116/D116</f>
+        <f t="shared" si="16"/>
         <v>1.6241306556801494E-2</v>
       </c>
       <c r="D116" s="4">
-        <f>E116+F116</f>
+        <f t="shared" si="17"/>
         <v>70377.896999999983</v>
       </c>
       <c r="E116" s="4">
-        <f>H116+I116+N116+P116+R116+S116+U116+V116+Z116+AC116+AD116+AE116+AI116+AL116+AK116+AJ116+AO116</f>
+        <f t="shared" si="18"/>
         <v>69234.867999999988</v>
       </c>
       <c r="F116" s="4">
-        <f>G116+J116+K116+L116+M116+O116+Q116+T116+W116+X116+Y116+AA116+AB116+AF116+AG116+AH116+AJ116+AM116+AN116</f>
+        <f t="shared" si="19"/>
         <v>1143.029</v>
       </c>
       <c r="G116" s="3">
@@ -12849,23 +13155,23 @@
         <v>151</v>
       </c>
       <c r="B117" s="2">
-        <f>E117/D117</f>
+        <f t="shared" si="15"/>
         <v>0.61614596259083276</v>
       </c>
       <c r="C117" s="2">
-        <f>F117/D117</f>
+        <f t="shared" si="16"/>
         <v>0.38385403740916735</v>
       </c>
       <c r="D117" s="4">
-        <f>E117+F117</f>
+        <f t="shared" si="17"/>
         <v>120628.88099999999</v>
       </c>
       <c r="E117" s="4">
-        <f>H117+I117+N117+P117+R117+S117+U117+V117+Z117+AC117+AD117+AE117+AI117+AL117+AK117+AJ117+AO117</f>
+        <f t="shared" si="18"/>
         <v>74324.998000000007</v>
       </c>
       <c r="F117" s="4">
-        <f>G117+J117+K117+L117+M117+O117+Q117+T117+W117+X117+Y117+AA117+AB117+AF117+AG117+AH117+AJ117+AM117+AN117</f>
+        <f t="shared" si="19"/>
         <v>46303.882999999994</v>
       </c>
       <c r="G117" s="3">
@@ -12959,23 +13265,23 @@
         <v>152</v>
       </c>
       <c r="B118" s="2">
-        <f>E118/D118</f>
+        <f t="shared" si="15"/>
         <v>0.2477435977647276</v>
       </c>
       <c r="C118" s="2">
-        <f>F118/D118</f>
+        <f t="shared" si="16"/>
         <v>0.75225640223527235</v>
       </c>
       <c r="D118" s="4">
-        <f>E118+F118</f>
+        <f t="shared" si="17"/>
         <v>26372.625000000004</v>
       </c>
       <c r="E118" s="4">
-        <f>H118+I118+N118+P118+R118+S118+U118+V118+Z118+AC118+AD118+AE118+AI118+AL118+AK118+AJ118+AO118</f>
+        <f t="shared" si="18"/>
         <v>6533.6490000000003</v>
       </c>
       <c r="F118" s="4">
-        <f>G118+J118+K118+L118+M118+O118+Q118+T118+W118+X118+Y118+AA118+AB118+AF118+AG118+AH118+AJ118+AM118+AN118</f>
+        <f t="shared" si="19"/>
         <v>19838.976000000002</v>
       </c>
       <c r="G118" s="3">
@@ -13055,23 +13361,23 @@
         <v>153</v>
       </c>
       <c r="B119" s="2">
-        <f>E119/D119</f>
+        <f t="shared" si="15"/>
         <v>3.008012651245464E-2</v>
       </c>
       <c r="C119" s="2">
-        <f>F119/D119</f>
+        <f t="shared" si="16"/>
         <v>0.96991987348754538</v>
       </c>
       <c r="D119" s="4">
-        <f>E119+F119</f>
+        <f t="shared" si="17"/>
         <v>138246.62599999999</v>
       </c>
       <c r="E119" s="4">
-        <f>H119+I119+N119+P119+R119+S119+U119+V119+Z119+AC119+AD119+AE119+AI119+AL119+AK119+AJ119+AO119</f>
+        <f t="shared" si="18"/>
         <v>4158.4760000000006</v>
       </c>
       <c r="F119" s="4">
-        <f>G119+J119+K119+L119+M119+O119+Q119+T119+W119+X119+Y119+AA119+AB119+AF119+AG119+AH119+AJ119+AM119+AN119</f>
+        <f t="shared" si="19"/>
         <v>134088.15</v>
       </c>
       <c r="G119" s="3">
@@ -13147,23 +13453,23 @@
         <v>154</v>
       </c>
       <c r="B120" s="2">
-        <f>E120/D120</f>
+        <f t="shared" si="15"/>
         <v>0.16170324614164697</v>
       </c>
       <c r="C120" s="2">
-        <f>F120/D120</f>
+        <f t="shared" si="16"/>
         <v>0.83829675385835301</v>
       </c>
       <c r="D120" s="4">
-        <f>E120+F120</f>
+        <f t="shared" si="17"/>
         <v>338235.76399999991</v>
       </c>
       <c r="E120" s="4">
-        <f>H120+I120+N120+P120+R120+S120+U120+V120+Z120+AC120+AD120+AE120+AI120+AL120+AK120+AJ120+AO120</f>
+        <f t="shared" si="18"/>
         <v>54693.820999999996</v>
       </c>
       <c r="F120" s="4">
-        <f>G120+J120+K120+L120+M120+O120+Q120+T120+W120+X120+Y120+AA120+AB120+AF120+AG120+AH120+AJ120+AM120+AN120</f>
+        <f t="shared" si="19"/>
         <v>283541.94299999991</v>
       </c>
       <c r="G120" s="3">
@@ -13253,23 +13559,23 @@
         <v>155</v>
       </c>
       <c r="B121" s="2">
-        <f>E121/D121</f>
+        <f t="shared" si="15"/>
         <v>4.1202815099168266E-3</v>
       </c>
       <c r="C121" s="2">
-        <f>F121/D121</f>
+        <f t="shared" si="16"/>
         <v>0.99587971849008317</v>
       </c>
       <c r="D121" s="4">
-        <f>E121+F121</f>
+        <f t="shared" si="17"/>
         <v>78.150000000000006</v>
       </c>
       <c r="E121" s="4">
-        <f>H121+I121+N121+P121+R121+S121+U121+V121+Z121+AC121+AD121+AE121+AI121+AL121+AK121+AJ121+AO121</f>
+        <f t="shared" si="18"/>
         <v>0.32200000000000001</v>
       </c>
       <c r="F121" s="4">
-        <f>G121+J121+K121+L121+M121+O121+Q121+T121+W121+X121+Y121+AA121+AB121+AF121+AG121+AH121+AJ121+AM121+AN121</f>
+        <f t="shared" si="19"/>
         <v>77.828000000000003</v>
       </c>
       <c r="G121" s="3">
@@ -13319,23 +13625,23 @@
         <v>156</v>
       </c>
       <c r="B122" s="2">
-        <f>E122/D122</f>
+        <f t="shared" si="15"/>
         <v>0.101128203204657</v>
       </c>
       <c r="C122" s="2">
-        <f>F122/D122</f>
+        <f t="shared" si="16"/>
         <v>0.89887179679534301</v>
       </c>
       <c r="D122" s="4">
-        <f>E122+F122</f>
+        <f t="shared" si="17"/>
         <v>8744.5239999999994</v>
       </c>
       <c r="E122" s="4">
-        <f>H122+I122+N122+P122+R122+S122+U122+V122+Z122+AC122+AD122+AE122+AI122+AL122+AK122+AJ122+AO122</f>
+        <f t="shared" si="18"/>
         <v>884.31799999999998</v>
       </c>
       <c r="F122" s="4">
-        <f>G122+J122+K122+L122+M122+O122+Q122+T122+W122+X122+Y122+AA122+AB122+AF122+AG122+AH122+AJ122+AM122+AN122</f>
+        <f t="shared" si="19"/>
         <v>7860.2059999999992</v>
       </c>
       <c r="G122" s="3">
@@ -13409,23 +13715,23 @@
         <v>157</v>
       </c>
       <c r="B123" s="2">
-        <f>E123/D123</f>
+        <f t="shared" si="15"/>
         <v>0.66099407245501063</v>
       </c>
       <c r="C123" s="2">
-        <f>F123/D123</f>
+        <f t="shared" si="16"/>
         <v>0.33900592754498932</v>
       </c>
       <c r="D123" s="4">
-        <f>E123+F123</f>
+        <f t="shared" si="17"/>
         <v>61890.378000000012</v>
       </c>
       <c r="E123" s="4">
-        <f>H123+I123+N123+P123+R123+S123+U123+V123+Z123+AC123+AD123+AE123+AI123+AL123+AK123+AJ123+AO123</f>
+        <f t="shared" si="18"/>
         <v>40909.173000000003</v>
       </c>
       <c r="F123" s="4">
-        <f>G123+J123+K123+L123+M123+O123+Q123+T123+W123+X123+Y123+AA123+AB123+AF123+AG123+AH123+AJ123+AM123+AN123</f>
+        <f t="shared" si="19"/>
         <v>20981.205000000005</v>
       </c>
       <c r="G123" s="3">
@@ -13517,23 +13823,23 @@
         <v>158</v>
       </c>
       <c r="B124" s="2">
-        <f>E124/D124</f>
+        <f t="shared" si="15"/>
         <v>0.59849465641260213</v>
       </c>
       <c r="C124" s="2">
-        <f>F124/D124</f>
+        <f t="shared" si="16"/>
         <v>0.40150534358739781</v>
       </c>
       <c r="D124" s="4">
-        <f>E124+F124</f>
+        <f t="shared" si="17"/>
         <v>64890.301999999996</v>
       </c>
       <c r="E124" s="4">
-        <f>H124+I124+N124+P124+R124+S124+U124+V124+Z124+AC124+AD124+AE124+AI124+AL124+AK124+AJ124+AO124</f>
+        <f t="shared" si="18"/>
         <v>38836.498999999989</v>
       </c>
       <c r="F124" s="4">
-        <f>G124+J124+K124+L124+M124+O124+Q124+T124+W124+X124+Y124+AA124+AB124+AF124+AG124+AH124+AJ124+AM124+AN124</f>
+        <f t="shared" si="19"/>
         <v>26053.803000000007</v>
       </c>
       <c r="G124" s="3">
@@ -13623,23 +13929,23 @@
         <v>159</v>
       </c>
       <c r="B125" s="2">
-        <f>E125/D125</f>
+        <f t="shared" si="15"/>
         <v>0.32595724503101908</v>
       </c>
       <c r="C125" s="2">
-        <f>F125/D125</f>
+        <f t="shared" si="16"/>
         <v>0.67404275496898081</v>
       </c>
       <c r="D125" s="4">
-        <f>E125+F125</f>
+        <f t="shared" si="17"/>
         <v>25.307000000000002</v>
       </c>
       <c r="E125" s="4">
-        <f>H125+I125+N125+P125+R125+S125+U125+V125+Z125+AC125+AD125+AE125+AI125+AL125+AK125+AJ125+AO125</f>
+        <f t="shared" si="18"/>
         <v>8.2490000000000006</v>
       </c>
       <c r="F125" s="4">
-        <f>G125+J125+K125+L125+M125+O125+Q125+T125+W125+X125+Y125+AA125+AB125+AF125+AG125+AH125+AJ125+AM125+AN125</f>
+        <f t="shared" si="19"/>
         <v>17.058</v>
       </c>
       <c r="G125" s="3">
@@ -13695,23 +14001,23 @@
         <v>160</v>
       </c>
       <c r="B126" s="2">
-        <f>E126/D126</f>
+        <f t="shared" si="15"/>
         <v>0.10074265808699015</v>
       </c>
       <c r="C126" s="2">
-        <f>F126/D126</f>
+        <f t="shared" si="16"/>
         <v>0.89925734191300988</v>
       </c>
       <c r="D126" s="4">
-        <f>E126+F126</f>
+        <f t="shared" si="17"/>
         <v>21082.380000000005</v>
       </c>
       <c r="E126" s="4">
-        <f>H126+I126+N126+P126+R126+S126+U126+V126+Z126+AC126+AD126+AE126+AI126+AL126+AK126+AJ126+AO126</f>
+        <f t="shared" si="18"/>
         <v>2123.895</v>
       </c>
       <c r="F126" s="4">
-        <f>G126+J126+K126+L126+M126+O126+Q126+T126+W126+X126+Y126+AA126+AB126+AF126+AG126+AH126+AJ126+AM126+AN126</f>
+        <f t="shared" si="19"/>
         <v>18958.485000000004</v>
       </c>
       <c r="G126" s="3">
@@ -13795,23 +14101,23 @@
         <v>161</v>
       </c>
       <c r="B127" s="2">
-        <f>E127/D127</f>
+        <f t="shared" si="15"/>
         <v>0.192069797580737</v>
       </c>
       <c r="C127" s="2">
-        <f>F127/D127</f>
+        <f t="shared" si="16"/>
         <v>0.80793020241926305</v>
       </c>
       <c r="D127" s="4">
-        <f>E127+F127</f>
+        <f t="shared" si="17"/>
         <v>97279.131000000023</v>
       </c>
       <c r="E127" s="4">
-        <f>H127+I127+N127+P127+R127+S127+U127+V127+Z127+AC127+AD127+AE127+AI127+AL127+AK127+AJ127+AO127</f>
+        <f t="shared" si="18"/>
         <v>18684.383000000002</v>
       </c>
       <c r="F127" s="4">
-        <f>G127+J127+K127+L127+M127+O127+Q127+T127+W127+X127+Y127+AA127+AB127+AF127+AG127+AH127+AJ127+AM127+AN127</f>
+        <f t="shared" si="19"/>
         <v>78594.748000000021</v>
       </c>
       <c r="G127" s="3">
@@ -13903,23 +14209,23 @@
         <v>162</v>
       </c>
       <c r="B128" s="2">
-        <f>E128/D128</f>
+        <f t="shared" si="15"/>
         <v>0.22025865876991479</v>
       </c>
       <c r="C128" s="2">
-        <f>F128/D128</f>
+        <f t="shared" si="16"/>
         <v>0.77974134123008521</v>
       </c>
       <c r="D128" s="4">
-        <f>E128+F128</f>
+        <f t="shared" si="17"/>
         <v>169220.63</v>
       </c>
       <c r="E128" s="4">
-        <f>H128+I128+N128+P128+R128+S128+U128+V128+Z128+AC128+AD128+AE128+AI128+AL128+AK128+AJ128+AO128</f>
+        <f t="shared" si="18"/>
         <v>37272.309000000008</v>
       </c>
       <c r="F128" s="4">
-        <f>G128+J128+K128+L128+M128+O128+Q128+T128+W128+X128+Y128+AA128+AB128+AF128+AG128+AH128+AJ128+AM128+AN128</f>
+        <f t="shared" si="19"/>
         <v>131948.321</v>
       </c>
       <c r="G128" s="3">
@@ -14013,23 +14319,23 @@
         <v>163</v>
       </c>
       <c r="B129" s="2">
-        <f>E129/D129</f>
+        <f t="shared" si="15"/>
         <v>0.64000362653892251</v>
       </c>
       <c r="C129" s="2">
-        <f>F129/D129</f>
+        <f t="shared" si="16"/>
         <v>0.35999637346107749</v>
       </c>
       <c r="D129" s="4">
-        <f>E129+F129</f>
+        <f t="shared" si="17"/>
         <v>72565.055999999997</v>
       </c>
       <c r="E129" s="4">
-        <f>H129+I129+N129+P129+R129+S129+U129+V129+Z129+AC129+AD129+AE129+AI129+AL129+AK129+AJ129+AO129</f>
+        <f t="shared" si="18"/>
         <v>46441.898999999998</v>
       </c>
       <c r="F129" s="4">
-        <f>G129+J129+K129+L129+M129+O129+Q129+T129+W129+X129+Y129+AA129+AB129+AF129+AG129+AH129+AJ129+AM129+AN129</f>
+        <f t="shared" si="19"/>
         <v>26123.156999999999</v>
       </c>
       <c r="G129" s="3">
@@ -14119,23 +14425,23 @@
         <v>164</v>
       </c>
       <c r="B130" s="2">
-        <f>E130/D130</f>
+        <f t="shared" ref="B130:B161" si="20">E130/D130</f>
         <v>0.80831597413409251</v>
       </c>
       <c r="C130" s="2">
-        <f>F130/D130</f>
+        <f t="shared" ref="C130:C161" si="21">F130/D130</f>
         <v>0.19168402586590763</v>
       </c>
       <c r="D130" s="4">
-        <f>E130+F130</f>
+        <f t="shared" ref="D130:D161" si="22">E130+F130</f>
         <v>273174.56299999997</v>
       </c>
       <c r="E130" s="4">
-        <f>H130+I130+N130+P130+R130+S130+U130+V130+Z130+AC130+AD130+AE130+AI130+AL130+AK130+AJ130+AO130</f>
+        <f t="shared" ref="E130:E161" si="23">H130+I130+N130+P130+R130+S130+U130+V130+Z130+AC130+AD130+AE130+AI130+AL130+AK130+AJ130+AO130</f>
         <v>220811.36299999998</v>
       </c>
       <c r="F130" s="4">
-        <f>G130+J130+K130+L130+M130+O130+Q130+T130+W130+X130+Y130+AA130+AB130+AF130+AG130+AH130+AJ130+AM130+AN130</f>
+        <f t="shared" ref="F130:F161" si="24">G130+J130+K130+L130+M130+O130+Q130+T130+W130+X130+Y130+AA130+AB130+AF130+AG130+AH130+AJ130+AM130+AN130</f>
         <v>52363.200000000004</v>
       </c>
       <c r="G130" s="3">
@@ -14233,23 +14539,23 @@
         <v>165</v>
       </c>
       <c r="B131" s="2">
-        <f>E131/D131</f>
+        <f t="shared" si="20"/>
         <v>0.9023099826139247</v>
       </c>
       <c r="C131" s="2">
-        <f>F131/D131</f>
+        <f t="shared" si="21"/>
         <v>9.7690017386075301E-2</v>
       </c>
       <c r="D131" s="4">
-        <f>E131+F131</f>
+        <f t="shared" si="22"/>
         <v>57711.127</v>
       </c>
       <c r="E131" s="4">
-        <f>H131+I131+N131+P131+R131+S131+U131+V131+Z131+AC131+AD131+AE131+AI131+AL131+AK131+AJ131+AO131</f>
+        <f t="shared" si="23"/>
         <v>52073.326000000001</v>
       </c>
       <c r="F131" s="4">
-        <f>G131+J131+K131+L131+M131+O131+Q131+T131+W131+X131+Y131+AA131+AB131+AF131+AG131+AH131+AJ131+AM131+AN131</f>
+        <f t="shared" si="24"/>
         <v>5637.8009999999995</v>
       </c>
       <c r="G131" s="3">
@@ -14343,23 +14649,23 @@
         <v>166</v>
       </c>
       <c r="B132" s="2">
-        <f>E132/D132</f>
+        <f t="shared" si="20"/>
         <v>0.62981641872136096</v>
       </c>
       <c r="C132" s="2">
-        <f>F132/D132</f>
+        <f t="shared" si="21"/>
         <v>0.37018358127863898</v>
       </c>
       <c r="D132" s="4">
-        <f>E132+F132</f>
+        <f t="shared" si="22"/>
         <v>136229.30499999999</v>
       </c>
       <c r="E132" s="4">
-        <f>H132+I132+N132+P132+R132+S132+U132+V132+Z132+AC132+AD132+AE132+AI132+AL132+AK132+AJ132+AO132</f>
+        <f t="shared" si="23"/>
         <v>85799.452999999994</v>
       </c>
       <c r="F132" s="4">
-        <f>G132+J132+K132+L132+M132+O132+Q132+T132+W132+X132+Y132+AA132+AB132+AF132+AG132+AH132+AJ132+AM132+AN132</f>
+        <f t="shared" si="24"/>
         <v>50429.851999999999</v>
       </c>
       <c r="G132" s="3">
@@ -14451,23 +14757,23 @@
         <v>167</v>
       </c>
       <c r="B133" s="2">
-        <f>E133/D133</f>
+        <f t="shared" si="20"/>
         <v>0.53481118274908257</v>
       </c>
       <c r="C133" s="2">
-        <f>F133/D133</f>
+        <f t="shared" si="21"/>
         <v>0.46518881725091749</v>
       </c>
       <c r="D133" s="4">
-        <f>E133+F133</f>
+        <f t="shared" si="22"/>
         <v>822454.11499999999</v>
       </c>
       <c r="E133" s="4">
-        <f>H133+I133+N133+P133+R133+S133+U133+V133+Z133+AC133+AD133+AE133+AI133+AL133+AK133+AJ133+AO133</f>
+        <f t="shared" si="23"/>
         <v>439857.658</v>
       </c>
       <c r="F133" s="4">
-        <f>G133+J133+K133+L133+M133+O133+Q133+T133+W133+X133+Y133+AA133+AB133+AF133+AG133+AH133+AJ133+AM133+AN133</f>
+        <f t="shared" si="24"/>
         <v>382596.45700000005</v>
       </c>
       <c r="G133" s="3">
@@ -14569,23 +14875,23 @@
         <v>168</v>
       </c>
       <c r="B134" s="2">
-        <f>E134/D134</f>
+        <f t="shared" si="20"/>
         <v>0.15002081158990194</v>
       </c>
       <c r="C134" s="2">
-        <f>F134/D134</f>
+        <f t="shared" si="21"/>
         <v>0.84997918841009812</v>
       </c>
       <c r="D134" s="4">
-        <f>E134+F134</f>
+        <f t="shared" si="22"/>
         <v>14974.828999999998</v>
       </c>
       <c r="E134" s="4">
-        <f>H134+I134+N134+P134+R134+S134+U134+V134+Z134+AC134+AD134+AE134+AI134+AL134+AK134+AJ134+AO134</f>
+        <f t="shared" si="23"/>
         <v>2246.5359999999991</v>
       </c>
       <c r="F134" s="4">
-        <f>G134+J134+K134+L134+M134+O134+Q134+T134+W134+X134+Y134+AA134+AB134+AF134+AG134+AH134+AJ134+AM134+AN134</f>
+        <f t="shared" si="24"/>
         <v>12728.293</v>
       </c>
       <c r="G134" s="3">
@@ -14661,23 +14967,23 @@
         <v>169</v>
       </c>
       <c r="B135" s="2">
-        <f>E135/D135</f>
+        <f t="shared" si="20"/>
         <v>0.93236002601185197</v>
       </c>
       <c r="C135" s="2">
-        <f>F135/D135</f>
+        <f t="shared" si="21"/>
         <v>6.7639973988148097E-2</v>
       </c>
       <c r="D135" s="4">
-        <f>E135+F135</f>
+        <f t="shared" si="22"/>
         <v>109.181</v>
       </c>
       <c r="E135" s="4">
-        <f>H135+I135+N135+P135+R135+S135+U135+V135+Z135+AC135+AD135+AE135+AI135+AL135+AK135+AJ135+AO135</f>
+        <f t="shared" si="23"/>
         <v>101.79600000000001</v>
       </c>
       <c r="F135" s="4">
-        <f>G135+J135+K135+L135+M135+O135+Q135+T135+W135+X135+Y135+AA135+AB135+AF135+AG135+AH135+AJ135+AM135+AN135</f>
+        <f t="shared" si="24"/>
         <v>7.3849999999999971</v>
       </c>
       <c r="G135" s="3">
@@ -14735,23 +15041,23 @@
         <v>170</v>
       </c>
       <c r="B136" s="2">
-        <f>E136/D136</f>
+        <f t="shared" si="20"/>
         <v>0.57851864610420989</v>
       </c>
       <c r="C136" s="2">
-        <f>F136/D136</f>
+        <f t="shared" si="21"/>
         <v>0.42148135389579017</v>
       </c>
       <c r="D136" s="4">
-        <f>E136+F136</f>
+        <f t="shared" si="22"/>
         <v>238.03899999999999</v>
       </c>
       <c r="E136" s="4">
-        <f>H136+I136+N136+P136+R136+S136+U136+V136+Z136+AC136+AD136+AE136+AI136+AL136+AK136+AJ136+AO136</f>
+        <f t="shared" si="23"/>
         <v>137.71</v>
       </c>
       <c r="F136" s="4">
-        <f>G136+J136+K136+L136+M136+O136+Q136+T136+W136+X136+Y136+AA136+AB136+AF136+AG136+AH136+AJ136+AM136+AN136</f>
+        <f t="shared" si="24"/>
         <v>100.32899999999999</v>
       </c>
       <c r="G136" s="3">
@@ -14813,23 +15119,23 @@
         <v>171</v>
       </c>
       <c r="B137" s="2">
-        <f>E137/D137</f>
+        <f t="shared" si="20"/>
         <v>0.53623954429525289</v>
       </c>
       <c r="C137" s="2">
-        <f>F137/D137</f>
+        <f t="shared" si="21"/>
         <v>0.46376045570474705</v>
       </c>
       <c r="D137" s="4">
-        <f>E137+F137</f>
+        <f t="shared" si="22"/>
         <v>314.06299999999999</v>
       </c>
       <c r="E137" s="4">
-        <f>H137+I137+N137+P137+R137+S137+U137+V137+Z137+AC137+AD137+AE137+AI137+AL137+AK137+AJ137+AO137</f>
+        <f t="shared" si="23"/>
         <v>168.41300000000001</v>
       </c>
       <c r="F137" s="4">
-        <f>G137+J137+K137+L137+M137+O137+Q137+T137+W137+X137+Y137+AA137+AB137+AF137+AG137+AH137+AJ137+AM137+AN137</f>
+        <f t="shared" si="24"/>
         <v>145.64999999999998</v>
       </c>
       <c r="G137" s="3">
@@ -14893,23 +15199,23 @@
         <v>172</v>
       </c>
       <c r="B138" s="2">
-        <f>E138/D138</f>
+        <f t="shared" si="20"/>
         <v>0.11715445889409197</v>
       </c>
       <c r="C138" s="2">
-        <f>F138/D138</f>
+        <f t="shared" si="21"/>
         <v>0.88284554110590796</v>
       </c>
       <c r="D138" s="4">
-        <f>E138+F138</f>
+        <f t="shared" si="22"/>
         <v>75885.588000000018</v>
       </c>
       <c r="E138" s="4">
-        <f>H138+I138+N138+P138+R138+S138+U138+V138+Z138+AC138+AD138+AE138+AI138+AL138+AK138+AJ138+AO138</f>
+        <f t="shared" si="23"/>
         <v>8890.3350000000009</v>
       </c>
       <c r="F138" s="4">
-        <f>G138+J138+K138+L138+M138+O138+Q138+T138+W138+X138+Y138+AA138+AB138+AF138+AG138+AH138+AJ138+AM138+AN138</f>
+        <f t="shared" si="24"/>
         <v>66995.253000000012</v>
       </c>
       <c r="G138" s="3">
@@ -14985,23 +15291,23 @@
         <v>173</v>
       </c>
       <c r="B139" s="2">
-        <f>E139/D139</f>
+        <f t="shared" si="20"/>
         <v>0.51077508105963554</v>
       </c>
       <c r="C139" s="2">
-        <f>F139/D139</f>
+        <f t="shared" si="21"/>
         <v>0.48922491894036452</v>
       </c>
       <c r="D139" s="4">
-        <f>E139+F139</f>
+        <f t="shared" si="22"/>
         <v>54841.721999999994</v>
       </c>
       <c r="E139" s="4">
-        <f>H139+I139+N139+P139+R139+S139+U139+V139+Z139+AC139+AD139+AE139+AI139+AL139+AK139+AJ139+AO139</f>
+        <f t="shared" si="23"/>
         <v>28011.784999999996</v>
       </c>
       <c r="F139" s="4">
-        <f>G139+J139+K139+L139+M139+O139+Q139+T139+W139+X139+Y139+AA139+AB139+AF139+AG139+AH139+AJ139+AM139+AN139</f>
+        <f t="shared" si="24"/>
         <v>26829.937000000002</v>
       </c>
       <c r="G139" s="3">
@@ -15091,23 +15397,23 @@
         <v>174</v>
       </c>
       <c r="B140" s="2">
-        <f>E140/D140</f>
+        <f t="shared" si="20"/>
         <v>0.85052326119840715</v>
       </c>
       <c r="C140" s="2">
-        <f>F140/D140</f>
+        <f t="shared" si="21"/>
         <v>0.14947673880159293</v>
       </c>
       <c r="D140" s="4">
-        <f>E140+F140</f>
+        <f t="shared" si="22"/>
         <v>97.179000000000002</v>
       </c>
       <c r="E140" s="4">
-        <f>H140+I140+N140+P140+R140+S140+U140+V140+Z140+AC140+AD140+AE140+AI140+AL140+AK140+AJ140+AO140</f>
+        <f t="shared" si="23"/>
         <v>82.653000000000006</v>
       </c>
       <c r="F140" s="4">
-        <f>G140+J140+K140+L140+M140+O140+Q140+T140+W140+X140+Y140+AA140+AB140+AF140+AG140+AH140+AJ140+AM140+AN140</f>
+        <f t="shared" si="24"/>
         <v>14.526</v>
       </c>
       <c r="G140" s="3">
@@ -15173,23 +15479,23 @@
         <v>175</v>
       </c>
       <c r="B141" s="2">
-        <f>E141/D141</f>
+        <f t="shared" si="20"/>
         <v>7.826162002878477E-2</v>
       </c>
       <c r="C141" s="2">
-        <f>F141/D141</f>
+        <f t="shared" si="21"/>
         <v>0.92173837997121522</v>
       </c>
       <c r="D141" s="4">
-        <f>E141+F141</f>
+        <f t="shared" si="22"/>
         <v>16082.812999999998</v>
       </c>
       <c r="E141" s="4">
-        <f>H141+I141+N141+P141+R141+S141+U141+V141+Z141+AC141+AD141+AE141+AI141+AL141+AK141+AJ141+AO141</f>
+        <f t="shared" si="23"/>
         <v>1258.6669999999999</v>
       </c>
       <c r="F141" s="4">
-        <f>G141+J141+K141+L141+M141+O141+Q141+T141+W141+X141+Y141+AA141+AB141+AF141+AG141+AH141+AJ141+AM141+AN141</f>
+        <f t="shared" si="24"/>
         <v>14824.145999999999</v>
       </c>
       <c r="G141" s="3">
@@ -15255,23 +15561,23 @@
         <v>176</v>
       </c>
       <c r="B142" s="2">
-        <f>E142/D142</f>
+        <f t="shared" si="20"/>
         <v>0.93497919082146796</v>
       </c>
       <c r="C142" s="2">
-        <f>F142/D142</f>
+        <f t="shared" si="21"/>
         <v>6.5020809178532091E-2</v>
       </c>
       <c r="D142" s="4">
-        <f>E142+F142</f>
+        <f t="shared" si="22"/>
         <v>14875.406999999996</v>
       </c>
       <c r="E142" s="4">
-        <f>H142+I142+N142+P142+R142+S142+U142+V142+Z142+AC142+AD142+AE142+AI142+AL142+AK142+AJ142+AO142</f>
+        <f t="shared" si="23"/>
         <v>13908.195999999996</v>
       </c>
       <c r="F142" s="4">
-        <f>G142+J142+K142+L142+M142+O142+Q142+T142+W142+X142+Y142+AA142+AB142+AF142+AG142+AH142+AJ142+AM142+AN142</f>
+        <f t="shared" si="24"/>
         <v>967.21100000000013</v>
       </c>
       <c r="G142" s="3">
@@ -15359,23 +15665,23 @@
         <v>177</v>
       </c>
       <c r="B143" s="2">
-        <f>E143/D143</f>
+        <f t="shared" si="20"/>
         <v>0.71840141060359086</v>
       </c>
       <c r="C143" s="2">
-        <f>F143/D143</f>
+        <f t="shared" si="21"/>
         <v>0.28159858939640919</v>
       </c>
       <c r="D143" s="4">
-        <f>E143+F143</f>
+        <f t="shared" si="22"/>
         <v>20561.977999999999</v>
       </c>
       <c r="E143" s="4">
-        <f>H143+I143+N143+P143+R143+S143+U143+V143+Z143+AC143+AD143+AE143+AI143+AL143+AK143+AJ143+AO143</f>
+        <f t="shared" si="23"/>
         <v>14771.754000000001</v>
       </c>
       <c r="F143" s="4">
-        <f>G143+J143+K143+L143+M143+O143+Q143+T143+W143+X143+Y143+AA143+AB143+AF143+AG143+AH143+AJ143+AM143+AN143</f>
+        <f t="shared" si="24"/>
         <v>5790.2239999999993</v>
       </c>
       <c r="G143" s="3">
@@ -15461,23 +15767,23 @@
         <v>178</v>
       </c>
       <c r="B144" s="2">
-        <f>E144/D144</f>
+        <f t="shared" si="20"/>
         <v>1.4019728874021051E-4</v>
       </c>
       <c r="C144" s="2">
-        <f>F144/D144</f>
+        <f t="shared" si="21"/>
         <v>0.99985980271125974</v>
       </c>
       <c r="D144" s="4">
-        <f>E144+F144</f>
+        <f t="shared" si="22"/>
         <v>1027.124</v>
       </c>
       <c r="E144" s="4">
-        <f>H144+I144+N144+P144+R144+S144+U144+V144+Z144+AC144+AD144+AE144+AI144+AL144+AK144+AJ144+AO144</f>
+        <f t="shared" si="23"/>
         <v>0.14399999999999999</v>
       </c>
       <c r="F144" s="4">
-        <f>G144+J144+K144+L144+M144+O144+Q144+T144+W144+X144+Y144+AA144+AB144+AF144+AG144+AH144+AJ144+AM144+AN144</f>
+        <f t="shared" si="24"/>
         <v>1026.98</v>
       </c>
       <c r="G144" s="3">
@@ -15537,23 +15843,23 @@
         <v>179</v>
       </c>
       <c r="B145" s="2">
-        <f>E145/D145</f>
+        <f t="shared" si="20"/>
         <v>1.7110495385009493E-2</v>
       </c>
       <c r="C145" s="2">
-        <f>F145/D145</f>
+        <f t="shared" si="21"/>
         <v>0.98288950461499058</v>
       </c>
       <c r="D145" s="4">
-        <f>E145+F145</f>
+        <f t="shared" si="22"/>
         <v>95817.857000000018</v>
       </c>
       <c r="E145" s="4">
-        <f>H145+I145+N145+P145+R145+S145+U145+V145+Z145+AC145+AD145+AE145+AI145+AL145+AK145+AJ145+AO145</f>
+        <f t="shared" si="23"/>
         <v>1639.491</v>
       </c>
       <c r="F145" s="4">
-        <f>G145+J145+K145+L145+M145+O145+Q145+T145+W145+X145+Y145+AA145+AB145+AF145+AG145+AH145+AJ145+AM145+AN145</f>
+        <f t="shared" si="24"/>
         <v>94178.366000000024</v>
       </c>
       <c r="G145" s="3">
@@ -15627,23 +15933,23 @@
         <v>180</v>
       </c>
       <c r="B146" s="2">
-        <f>E146/D146</f>
+        <f t="shared" si="20"/>
         <v>0.42692477088690833</v>
       </c>
       <c r="C146" s="2">
-        <f>F146/D146</f>
+        <f t="shared" si="21"/>
         <v>0.57307522911309172</v>
       </c>
       <c r="D146" s="4">
-        <f>E146+F146</f>
+        <f t="shared" si="22"/>
         <v>353435.93600000005</v>
       </c>
       <c r="E146" s="4">
-        <f>H146+I146+N146+P146+R146+S146+U146+V146+Z146+AC146+AD146+AE146+AI146+AL146+AK146+AJ146+AO146</f>
+        <f t="shared" si="23"/>
         <v>150890.55600000001</v>
       </c>
       <c r="F146" s="4">
-        <f>G146+J146+K146+L146+M146+O146+Q146+T146+W146+X146+Y146+AA146+AB146+AF146+AG146+AH146+AJ146+AM146+AN146</f>
+        <f t="shared" si="24"/>
         <v>202545.38000000003</v>
       </c>
       <c r="G146" s="3">
@@ -15741,23 +16047,23 @@
         <v>181</v>
       </c>
       <c r="B147" s="2">
-        <f>E147/D147</f>
+        <f t="shared" si="20"/>
         <v>0.9789501250783702</v>
       </c>
       <c r="C147" s="2">
-        <f>F147/D147</f>
+        <f t="shared" si="21"/>
         <v>2.1049874921629859E-2</v>
       </c>
       <c r="D147" s="4">
-        <f>E147+F147</f>
+        <f t="shared" si="22"/>
         <v>19913.514999999996</v>
       </c>
       <c r="E147" s="4">
-        <f>H147+I147+N147+P147+R147+S147+U147+V147+Z147+AC147+AD147+AE147+AI147+AL147+AK147+AJ147+AO147</f>
+        <f t="shared" si="23"/>
         <v>19494.337999999996</v>
       </c>
       <c r="F147" s="4">
-        <f>G147+J147+K147+L147+M147+O147+Q147+T147+W147+X147+Y147+AA147+AB147+AF147+AG147+AH147+AJ147+AM147+AN147</f>
+        <f t="shared" si="24"/>
         <v>419.17699999999996</v>
       </c>
       <c r="G147" s="3">
@@ -15845,23 +16151,23 @@
         <v>182</v>
       </c>
       <c r="B148" s="2">
-        <f>E148/D148</f>
+        <f t="shared" si="20"/>
         <v>1.4961461523450729E-2</v>
       </c>
       <c r="C148" s="2">
-        <f>F148/D148</f>
+        <f t="shared" si="21"/>
         <v>0.98503853847654932</v>
       </c>
       <c r="D148" s="4">
-        <f>E148+F148</f>
+        <f t="shared" si="22"/>
         <v>21210.361000000001</v>
       </c>
       <c r="E148" s="4">
-        <f>H148+I148+N148+P148+R148+S148+U148+V148+Z148+AC148+AD148+AE148+AI148+AL148+AK148+AJ148+AO148</f>
+        <f t="shared" si="23"/>
         <v>317.33799999999997</v>
       </c>
       <c r="F148" s="4">
-        <f>G148+J148+K148+L148+M148+O148+Q148+T148+W148+X148+Y148+AA148+AB148+AF148+AG148+AH148+AJ148+AM148+AN148</f>
+        <f t="shared" si="24"/>
         <v>20893.023000000001</v>
       </c>
       <c r="G148" s="3">
@@ -15929,23 +16235,23 @@
         <v>183</v>
       </c>
       <c r="B149" s="2">
-        <f>E149/D149</f>
+        <f t="shared" si="20"/>
         <v>0.91017476070236181</v>
       </c>
       <c r="C149" s="2">
-        <f>F149/D149</f>
+        <f t="shared" si="21"/>
         <v>8.9825239297638165E-2</v>
       </c>
       <c r="D149" s="4">
-        <f>E149+F149</f>
+        <f t="shared" si="22"/>
         <v>173183.38499999998</v>
       </c>
       <c r="E149" s="4">
-        <f>H149+I149+N149+P149+R149+S149+U149+V149+Z149+AC149+AD149+AE149+AI149+AL149+AK149+AJ149+AO149</f>
+        <f t="shared" si="23"/>
         <v>157627.14599999998</v>
       </c>
       <c r="F149" s="4">
-        <f>G149+J149+K149+L149+M149+O149+Q149+T149+W149+X149+Y149+AA149+AB149+AF149+AG149+AH149+AJ149+AM149+AN149</f>
+        <f t="shared" si="24"/>
         <v>15556.238999999998</v>
       </c>
       <c r="G149" s="3">
@@ -16041,23 +16347,23 @@
         <v>184</v>
       </c>
       <c r="B150" s="2">
-        <f>E150/D150</f>
+        <f t="shared" si="20"/>
         <v>0.54999392326703977</v>
       </c>
       <c r="C150" s="2">
-        <f>F150/D150</f>
+        <f t="shared" si="21"/>
         <v>0.45000607673296017</v>
       </c>
       <c r="D150" s="4">
-        <f>E150+F150</f>
+        <f t="shared" si="22"/>
         <v>33998.531999999999</v>
       </c>
       <c r="E150" s="4">
-        <f>H150+I150+N150+P150+R150+S150+U150+V150+Z150+AC150+AD150+AE150+AI150+AL150+AK150+AJ150+AO150</f>
+        <f t="shared" si="23"/>
         <v>18698.985999999997</v>
       </c>
       <c r="F150" s="4">
-        <f>G150+J150+K150+L150+M150+O150+Q150+T150+W150+X150+Y150+AA150+AB150+AF150+AG150+AH150+AJ150+AM150+AN150</f>
+        <f t="shared" si="24"/>
         <v>15299.546000000002</v>
       </c>
       <c r="G150" s="3">
@@ -16145,23 +16451,23 @@
         <v>185</v>
       </c>
       <c r="B151" s="2">
-        <f>E151/D151</f>
+        <f t="shared" si="20"/>
         <v>7.1906309906036192E-2</v>
       </c>
       <c r="C151" s="2">
-        <f>F151/D151</f>
+        <f t="shared" si="21"/>
         <v>0.9280936900939637</v>
       </c>
       <c r="D151" s="4">
-        <f>E151+F151</f>
+        <f t="shared" si="22"/>
         <v>142449.12600000002</v>
       </c>
       <c r="E151" s="4">
-        <f>H151+I151+N151+P151+R151+S151+U151+V151+Z151+AC151+AD151+AE151+AI151+AL151+AK151+AJ151+AO151</f>
+        <f t="shared" si="23"/>
         <v>10242.991</v>
       </c>
       <c r="F151" s="4">
-        <f>G151+J151+K151+L151+M151+O151+Q151+T151+W151+X151+Y151+AA151+AB151+AF151+AG151+AH151+AJ151+AM151+AN151</f>
+        <f t="shared" si="24"/>
         <v>132206.13500000001</v>
       </c>
       <c r="G151" s="3">
@@ -16233,23 +16539,23 @@
         <v>186</v>
       </c>
       <c r="B152" s="2">
-        <f>E152/D152</f>
+        <f t="shared" si="20"/>
         <v>0.52280048744320207</v>
       </c>
       <c r="C152" s="2">
-        <f>F152/D152</f>
+        <f t="shared" si="21"/>
         <v>0.47719951255679788</v>
       </c>
       <c r="D152" s="4">
-        <f>E152+F152</f>
+        <f t="shared" si="22"/>
         <v>3738.692</v>
       </c>
       <c r="E152" s="4">
-        <f>H152+I152+N152+P152+R152+S152+U152+V152+Z152+AC152+AD152+AE152+AI152+AL152+AK152+AJ152+AO152</f>
+        <f t="shared" si="23"/>
         <v>1954.5900000000001</v>
       </c>
       <c r="F152" s="4">
-        <f>G152+J152+K152+L152+M152+O152+Q152+T152+W152+X152+Y152+AA152+AB152+AF152+AG152+AH152+AJ152+AM152+AN152</f>
+        <f t="shared" si="24"/>
         <v>1784.1019999999999</v>
       </c>
       <c r="G152" s="3">
@@ -16325,23 +16631,23 @@
         <v>187</v>
       </c>
       <c r="B153" s="2">
-        <f>E153/D153</f>
+        <f t="shared" si="20"/>
         <v>0.28258570692383894</v>
       </c>
       <c r="C153" s="2">
-        <f>F153/D153</f>
+        <f t="shared" si="21"/>
         <v>0.71741429307616111</v>
       </c>
       <c r="D153" s="4">
-        <f>E153+F153</f>
+        <f t="shared" si="22"/>
         <v>5891.3560000000007</v>
       </c>
       <c r="E153" s="4">
-        <f>H153+I153+N153+P153+R153+S153+U153+V153+Z153+AC153+AD153+AE153+AI153+AL153+AK153+AJ153+AO153</f>
+        <f t="shared" si="23"/>
         <v>1664.8130000000003</v>
       </c>
       <c r="F153" s="4">
-        <f>G153+J153+K153+L153+M153+O153+Q153+T153+W153+X153+Y153+AA153+AB153+AF153+AG153+AH153+AJ153+AM153+AN153</f>
+        <f t="shared" si="24"/>
         <v>4226.5430000000006</v>
       </c>
       <c r="G153" s="3">
@@ -16413,23 +16719,23 @@
         <v>188</v>
       </c>
       <c r="B154" s="2">
-        <f>E154/D154</f>
+        <f t="shared" si="20"/>
         <v>0.47831491434448675</v>
       </c>
       <c r="C154" s="2">
-        <f>F154/D154</f>
+        <f t="shared" si="21"/>
         <v>0.52168508565551319</v>
       </c>
       <c r="D154" s="4">
-        <f>E154+F154</f>
+        <f t="shared" si="22"/>
         <v>204259.76500000001</v>
       </c>
       <c r="E154" s="4">
-        <f>H154+I154+N154+P154+R154+S154+U154+V154+Z154+AC154+AD154+AE154+AI154+AL154+AK154+AJ154+AO154</f>
+        <f t="shared" si="23"/>
         <v>97700.491999999998</v>
       </c>
       <c r="F154" s="4">
-        <f>G154+J154+K154+L154+M154+O154+Q154+T154+W154+X154+Y154+AA154+AB154+AF154+AG154+AH154+AJ154+AM154+AN154</f>
+        <f t="shared" si="24"/>
         <v>106559.273</v>
       </c>
       <c r="G154" s="3">
@@ -16525,23 +16831,23 @@
         <v>189</v>
       </c>
       <c r="B155" s="2">
-        <f>E155/D155</f>
+        <f t="shared" si="20"/>
         <v>0.96436185845480293</v>
       </c>
       <c r="C155" s="2">
-        <f>F155/D155</f>
+        <f t="shared" si="21"/>
         <v>3.5638141545197059E-2</v>
       </c>
       <c r="D155" s="4">
-        <f>E155+F155</f>
+        <f t="shared" si="22"/>
         <v>40068.727999999988</v>
       </c>
       <c r="E155" s="4">
-        <f>H155+I155+N155+P155+R155+S155+U155+V155+Z155+AC155+AD155+AE155+AI155+AL155+AK155+AJ155+AO155</f>
+        <f t="shared" si="23"/>
         <v>38640.75299999999</v>
       </c>
       <c r="F155" s="4">
-        <f>G155+J155+K155+L155+M155+O155+Q155+T155+W155+X155+Y155+AA155+AB155+AF155+AG155+AH155+AJ155+AM155+AN155</f>
+        <f t="shared" si="24"/>
         <v>1427.9750000000004</v>
       </c>
       <c r="G155" s="3">
@@ -16631,23 +16937,23 @@
         <v>190</v>
       </c>
       <c r="B156" s="2">
-        <f>E156/D156</f>
+        <f t="shared" si="20"/>
         <v>0.47835911114027291</v>
       </c>
       <c r="C156" s="2">
-        <f>F156/D156</f>
+        <f t="shared" si="21"/>
         <v>0.52164088885972704</v>
       </c>
       <c r="D156" s="4">
-        <f>E156+F156</f>
+        <f t="shared" si="22"/>
         <v>8717.6409999999996</v>
       </c>
       <c r="E156" s="4">
-        <f>H156+I156+N156+P156+R156+S156+U156+V156+Z156+AC156+AD156+AE156+AI156+AL156+AK156+AJ156+AO156</f>
+        <f t="shared" si="23"/>
         <v>4170.1629999999996</v>
       </c>
       <c r="F156" s="4">
-        <f>G156+J156+K156+L156+M156+O156+Q156+T156+W156+X156+Y156+AA156+AB156+AF156+AG156+AH156+AJ156+AM156+AN156</f>
+        <f t="shared" si="24"/>
         <v>4547.4779999999992</v>
       </c>
       <c r="G156" s="3">
@@ -16719,23 +17025,23 @@
         <v>191</v>
       </c>
       <c r="B157" s="2">
-        <f>E157/D157</f>
+        <f t="shared" si="20"/>
         <v>0.98814180760275228</v>
       </c>
       <c r="C157" s="2">
-        <f>F157/D157</f>
+        <f t="shared" si="21"/>
         <v>1.1858192397247704E-2</v>
       </c>
       <c r="D157" s="4">
-        <f>E157+F157</f>
+        <f t="shared" si="22"/>
         <v>14917.282000000001</v>
       </c>
       <c r="E157" s="4">
-        <f>H157+I157+N157+P157+R157+S157+U157+V157+Z157+AC157+AD157+AE157+AI157+AL157+AK157+AJ157+AO157</f>
+        <f t="shared" si="23"/>
         <v>14740.390000000001</v>
       </c>
       <c r="F157" s="4">
-        <f>G157+J157+K157+L157+M157+O157+Q157+T157+W157+X157+Y157+AA157+AB157+AF157+AG157+AH157+AJ157+AM157+AN157</f>
+        <f t="shared" si="24"/>
         <v>176.89200000000002</v>
       </c>
       <c r="G157" s="3">
@@ -16825,23 +17131,23 @@
         <v>192</v>
       </c>
       <c r="B158" s="2">
-        <f>E158/D158</f>
+        <f t="shared" si="20"/>
         <v>0.30354839873753287</v>
       </c>
       <c r="C158" s="2">
-        <f>F158/D158</f>
+        <f t="shared" si="21"/>
         <v>0.69645160126246708</v>
       </c>
       <c r="D158" s="4">
-        <f>E158+F158</f>
+        <f t="shared" si="22"/>
         <v>9006.1750000000011</v>
       </c>
       <c r="E158" s="4">
-        <f>H158+I158+N158+P158+R158+S158+U158+V158+Z158+AC158+AD158+AE158+AI158+AL158+AK158+AJ158+AO158</f>
+        <f t="shared" si="23"/>
         <v>2733.8100000000004</v>
       </c>
       <c r="F158" s="4">
-        <f>G158+J158+K158+L158+M158+O158+Q158+T158+W158+X158+Y158+AA158+AB158+AF158+AG158+AH158+AJ158+AM158+AN158</f>
+        <f t="shared" si="24"/>
         <v>6272.3650000000007</v>
       </c>
       <c r="G158" s="3">
@@ -16917,23 +17223,23 @@
         <v>193</v>
       </c>
       <c r="B159" s="2">
-        <f>E159/D159</f>
+        <f t="shared" si="20"/>
         <v>4.1401012794930185E-2</v>
       </c>
       <c r="C159" s="2">
-        <f>F159/D159</f>
+        <f t="shared" si="21"/>
         <v>0.95859898720506986</v>
       </c>
       <c r="D159" s="4">
-        <f>E159+F159</f>
+        <f t="shared" si="22"/>
         <v>294343.69299999997</v>
       </c>
       <c r="E159" s="4">
-        <f>H159+I159+N159+P159+R159+S159+U159+V159+Z159+AC159+AD159+AE159+AI159+AL159+AK159+AJ159+AO159</f>
+        <f t="shared" si="23"/>
         <v>12186.127</v>
       </c>
       <c r="F159" s="4">
-        <f>G159+J159+K159+L159+M159+O159+Q159+T159+W159+X159+Y159+AA159+AB159+AF159+AG159+AH159+AJ159+AM159+AN159</f>
+        <f t="shared" si="24"/>
         <v>282157.56599999999</v>
       </c>
       <c r="G159" s="3">
@@ -17017,23 +17323,23 @@
         <v>194</v>
       </c>
       <c r="B160" s="2">
-        <f>E160/D160</f>
+        <f t="shared" si="20"/>
         <v>0.54275793885069779</v>
       </c>
       <c r="C160" s="2">
-        <f>F160/D160</f>
+        <f t="shared" si="21"/>
         <v>0.45724206114930221</v>
       </c>
       <c r="D160" s="4">
-        <f>E160+F160</f>
+        <f t="shared" si="22"/>
         <v>188947.43799999997</v>
       </c>
       <c r="E160" s="4">
-        <f>H160+I160+N160+P160+R160+S160+U160+V160+Z160+AC160+AD160+AE160+AI160+AL160+AK160+AJ160+AO160</f>
+        <f t="shared" si="23"/>
         <v>102552.72199999999</v>
       </c>
       <c r="F160" s="4">
-        <f>G160+J160+K160+L160+M160+O160+Q160+T160+W160+X160+Y160+AA160+AB160+AF160+AG160+AH160+AJ160+AM160+AN160</f>
+        <f t="shared" si="24"/>
         <v>86394.715999999971</v>
       </c>
       <c r="G160" s="3">
@@ -17127,23 +17433,23 @@
         <v>195</v>
       </c>
       <c r="B161" s="2">
-        <f>E161/D161</f>
+        <f t="shared" si="20"/>
         <v>9.8369470377130799E-2</v>
       </c>
       <c r="C161" s="2">
-        <f>F161/D161</f>
+        <f t="shared" si="21"/>
         <v>0.90163052962286916</v>
       </c>
       <c r="D161" s="4">
-        <f>E161+F161</f>
+        <f t="shared" si="22"/>
         <v>21093.821000000004</v>
       </c>
       <c r="E161" s="4">
-        <f>H161+I161+N161+P161+R161+S161+U161+V161+Z161+AC161+AD161+AE161+AI161+AL161+AK161+AJ161+AO161</f>
+        <f t="shared" si="23"/>
         <v>2074.9879999999998</v>
       </c>
       <c r="F161" s="4">
-        <f>G161+J161+K161+L161+M161+O161+Q161+T161+W161+X161+Y161+AA161+AB161+AF161+AG161+AH161+AJ161+AM161+AN161</f>
+        <f t="shared" si="24"/>
         <v>19018.833000000002</v>
       </c>
       <c r="G161" s="3">
@@ -17219,23 +17525,23 @@
         <v>196</v>
       </c>
       <c r="B162" s="2">
-        <f>E162/D162</f>
+        <f t="shared" ref="B162:B177" si="25">E162/D162</f>
         <v>0.54478306638942786</v>
       </c>
       <c r="C162" s="2">
-        <f>F162/D162</f>
+        <f t="shared" ref="C162:C193" si="26">F162/D162</f>
         <v>0.45521693361057225</v>
       </c>
       <c r="D162" s="4">
-        <f>E162+F162</f>
+        <f t="shared" ref="D162:D193" si="27">E162+F162</f>
         <v>114.94299999999998</v>
       </c>
       <c r="E162" s="4">
-        <f>H162+I162+N162+P162+R162+S162+U162+V162+Z162+AC162+AD162+AE162+AI162+AL162+AK162+AJ162+AO162</f>
+        <f t="shared" ref="E162:E177" si="28">H162+I162+N162+P162+R162+S162+U162+V162+Z162+AC162+AD162+AE162+AI162+AL162+AK162+AJ162+AO162</f>
         <v>62.618999999999993</v>
       </c>
       <c r="F162" s="4">
-        <f>G162+J162+K162+L162+M162+O162+Q162+T162+W162+X162+Y162+AA162+AB162+AF162+AG162+AH162+AJ162+AM162+AN162</f>
+        <f t="shared" ref="F162:F193" si="29">G162+J162+K162+L162+M162+O162+Q162+T162+W162+X162+Y162+AA162+AB162+AF162+AG162+AH162+AJ162+AM162+AN162</f>
         <v>52.323999999999998</v>
       </c>
       <c r="G162" s="3">
@@ -17299,23 +17605,23 @@
         <v>197</v>
       </c>
       <c r="B163" s="2">
-        <f>E163/D163</f>
+        <f t="shared" si="25"/>
         <v>0.63222167404796015</v>
       </c>
       <c r="C163" s="2">
-        <f>F163/D163</f>
+        <f t="shared" si="26"/>
         <v>0.36777832595203974</v>
       </c>
       <c r="D163" s="4">
-        <f>E163+F163</f>
+        <f t="shared" si="27"/>
         <v>14691.192000000003</v>
       </c>
       <c r="E163" s="4">
-        <f>H163+I163+N163+P163+R163+S163+U163+V163+Z163+AC163+AD163+AE163+AI163+AL163+AK163+AJ163+AO163</f>
+        <f t="shared" si="28"/>
         <v>9288.090000000002</v>
       </c>
       <c r="F163" s="4">
-        <f>G163+J163+K163+L163+M163+O163+Q163+T163+W163+X163+Y163+AA163+AB163+AF163+AG163+AH163+AJ163+AM163+AN163</f>
+        <f t="shared" si="29"/>
         <v>5403.1019999999999</v>
       </c>
       <c r="G163" s="3">
@@ -17395,23 +17701,23 @@
         <v>198</v>
       </c>
       <c r="B164" s="2">
-        <f>E164/D164</f>
+        <f t="shared" si="25"/>
         <v>0.58059734494645698</v>
       </c>
       <c r="C164" s="2">
-        <f>F164/D164</f>
+        <f t="shared" si="26"/>
         <v>0.41940265505354302</v>
       </c>
       <c r="D164" s="4">
-        <f>E164+F164</f>
+        <f t="shared" si="27"/>
         <v>99523.266000000003</v>
       </c>
       <c r="E164" s="4">
-        <f>H164+I164+N164+P164+R164+S164+U164+V164+Z164+AC164+AD164+AE164+AI164+AL164+AK164+AJ164+AO164</f>
+        <f t="shared" si="28"/>
         <v>57782.943999999996</v>
       </c>
       <c r="F164" s="4">
-        <f>G164+J164+K164+L164+M164+O164+Q164+T164+W164+X164+Y164+AA164+AB164+AF164+AG164+AH164+AJ164+AM164+AN164</f>
+        <f t="shared" si="29"/>
         <v>41740.322000000007</v>
       </c>
       <c r="G164" s="3">
@@ -17511,23 +17817,23 @@
         <v>199</v>
       </c>
       <c r="B165" s="2">
-        <f>E165/D165</f>
+        <f t="shared" si="25"/>
         <v>0.42188811952264887</v>
       </c>
       <c r="C165" s="2">
-        <f>F165/D165</f>
+        <f t="shared" si="26"/>
         <v>0.57811188047735118</v>
       </c>
       <c r="D165" s="4">
-        <f>E165+F165</f>
+        <f t="shared" si="27"/>
         <v>11825.173000000001</v>
       </c>
       <c r="E165" s="4">
-        <f>H165+I165+N165+P165+R165+S165+U165+V165+Z165+AC165+AD165+AE165+AI165+AL165+AK165+AJ165+AO165</f>
+        <f t="shared" si="28"/>
         <v>4988.9000000000005</v>
       </c>
       <c r="F165" s="4">
-        <f>G165+J165+K165+L165+M165+O165+Q165+T165+W165+X165+Y165+AA165+AB165+AF165+AG165+AH165+AJ165+AM165+AN165</f>
+        <f t="shared" si="29"/>
         <v>6836.2730000000001</v>
       </c>
       <c r="G165" s="3">
@@ -17597,23 +17903,23 @@
         <v>200</v>
       </c>
       <c r="B166" s="2">
-        <f>E166/D166</f>
+        <f t="shared" si="25"/>
         <v>0.17783610860470839</v>
       </c>
       <c r="C166" s="2">
-        <f>F166/D166</f>
+        <f t="shared" si="26"/>
         <v>0.82216389139529167</v>
       </c>
       <c r="D166" s="4">
-        <f>E166+F166</f>
+        <f t="shared" si="27"/>
         <v>48.763999999999996</v>
       </c>
       <c r="E166" s="4">
-        <f>H166+I166+N166+P166+R166+S166+U166+V166+Z166+AC166+AD166+AE166+AI166+AL166+AK166+AJ166+AO166</f>
+        <f t="shared" si="28"/>
         <v>8.6719999999999988</v>
       </c>
       <c r="F166" s="4">
-        <f>G166+J166+K166+L166+M166+O166+Q166+T166+W166+X166+Y166+AA166+AB166+AF166+AG166+AH166+AJ166+AM166+AN166</f>
+        <f t="shared" si="29"/>
         <v>40.091999999999999</v>
       </c>
       <c r="G166" s="3"/>
@@ -17669,23 +17975,23 @@
         <v>201</v>
       </c>
       <c r="B167" s="2">
-        <f>E167/D167</f>
+        <f t="shared" si="25"/>
         <v>8.2873727847852963E-2</v>
       </c>
       <c r="C167" s="2">
-        <f>F167/D167</f>
+        <f t="shared" si="26"/>
         <v>0.91712627215214704</v>
       </c>
       <c r="D167" s="4">
-        <f>E167+F167</f>
+        <f t="shared" si="27"/>
         <v>53343.756999999991</v>
       </c>
       <c r="E167" s="4">
-        <f>H167+I167+N167+P167+R167+S167+U167+V167+Z167+AC167+AD167+AE167+AI167+AL167+AK167+AJ167+AO167</f>
+        <f t="shared" si="28"/>
         <v>4420.7960000000003</v>
       </c>
       <c r="F167" s="4">
-        <f>G167+J167+K167+L167+M167+O167+Q167+T167+W167+X167+Y167+AA167+AB167+AF167+AG167+AH167+AJ167+AM167+AN167</f>
+        <f t="shared" si="29"/>
         <v>48922.960999999988</v>
       </c>
       <c r="G167" s="3">
@@ -17769,23 +18075,23 @@
         <v>202</v>
       </c>
       <c r="B168" s="2">
-        <f>E168/D168</f>
+        <f t="shared" si="25"/>
         <v>0.65974077897178596</v>
       </c>
       <c r="C168" s="2">
-        <f>F168/D168</f>
+        <f t="shared" si="26"/>
         <v>0.34025922102821399</v>
       </c>
       <c r="D168" s="4">
-        <f>E168+F168</f>
+        <f t="shared" si="27"/>
         <v>152823.25</v>
       </c>
       <c r="E168" s="4">
-        <f>H168+I168+N168+P168+R168+S168+U168+V168+Z168+AC168+AD168+AE168+AI168+AL168+AK168+AJ168+AO168</f>
+        <f t="shared" si="28"/>
         <v>100823.72999999998</v>
       </c>
       <c r="F168" s="4">
-        <f>G168+J168+K168+L168+M168+O168+Q168+T168+W168+X168+Y168+AA168+AB168+AF168+AG168+AH168+AJ168+AM168+AN168</f>
+        <f t="shared" si="29"/>
         <v>51999.520000000004</v>
       </c>
       <c r="G168" s="3">
@@ -17879,23 +18185,23 @@
         <v>203</v>
       </c>
       <c r="B169" s="2">
-        <f>E169/D169</f>
+        <f t="shared" si="25"/>
         <v>0.35557410384463217</v>
       </c>
       <c r="C169" s="2">
-        <f>F169/D169</f>
+        <f t="shared" si="26"/>
         <v>0.64442589615536783</v>
       </c>
       <c r="D169" s="4">
-        <f>E169+F169</f>
+        <f t="shared" si="27"/>
         <v>30274.131000000001</v>
       </c>
       <c r="E169" s="4">
-        <f>H169+I169+N169+P169+R169+S169+U169+V169+Z169+AC169+AD169+AE169+AI169+AL169+AK169+AJ169+AO169</f>
+        <f t="shared" si="28"/>
         <v>10764.696999999998</v>
       </c>
       <c r="F169" s="4">
-        <f>G169+J169+K169+L169+M169+O169+Q169+T169+W169+X169+Y169+AA169+AB169+AF169+AG169+AH169+AJ169+AM169+AN169</f>
+        <f t="shared" si="29"/>
         <v>19509.434000000001</v>
       </c>
       <c r="G169" s="3">
@@ -17973,23 +18279,23 @@
         <v>204</v>
       </c>
       <c r="B170" s="2">
-        <f>E170/D170</f>
+        <f t="shared" si="25"/>
         <v>0.54419501840355167</v>
       </c>
       <c r="C170" s="2">
-        <f>F170/D170</f>
+        <f t="shared" si="26"/>
         <v>0.45580498159644828</v>
       </c>
       <c r="D170" s="4">
-        <f>E170+F170</f>
+        <f t="shared" si="27"/>
         <v>2478990.2450000001</v>
       </c>
       <c r="E170" s="4">
-        <f>H170+I170+N170+P170+R170+S170+U170+V170+Z170+AC170+AD170+AE170+AI170+AL170+AK170+AJ170+AO170</f>
+        <f t="shared" si="28"/>
         <v>1349054.142</v>
       </c>
       <c r="F170" s="4">
-        <f>G170+J170+K170+L170+M170+O170+Q170+T170+W170+X170+Y170+AA170+AB170+AF170+AG170+AH170+AJ170+AM170+AN170</f>
+        <f t="shared" si="29"/>
         <v>1129936.1029999999</v>
       </c>
       <c r="G170" s="3">
@@ -18093,23 +18399,23 @@
         <v>205</v>
       </c>
       <c r="B171" s="2">
-        <f>E171/D171</f>
+        <f t="shared" si="25"/>
         <v>0.51283401731000455</v>
       </c>
       <c r="C171" s="2">
-        <f>F171/D171</f>
+        <f t="shared" si="26"/>
         <v>0.48716598268999528</v>
       </c>
       <c r="D171" s="4">
-        <f>E171+F171</f>
+        <f t="shared" si="27"/>
         <v>18641.474000000002</v>
       </c>
       <c r="E171" s="4">
-        <f>H171+I171+N171+P171+R171+S171+U171+V171+Z171+AC171+AD171+AE171+AI171+AL171+AK171+AJ171+AO171</f>
+        <f t="shared" si="28"/>
         <v>9559.9820000000018</v>
       </c>
       <c r="F171" s="4">
-        <f>G171+J171+K171+L171+M171+O171+Q171+T171+W171+X171+Y171+AA171+AB171+AF171+AG171+AH171+AJ171+AM171+AN171</f>
+        <f t="shared" si="29"/>
         <v>9081.4919999999984</v>
       </c>
       <c r="G171" s="3">
@@ -18195,23 +18501,23 @@
         <v>206</v>
       </c>
       <c r="B172" s="2">
-        <f>E172/D172</f>
+        <f t="shared" si="25"/>
         <v>0.12680607854620807</v>
       </c>
       <c r="C172" s="2">
-        <f>F172/D172</f>
+        <f t="shared" si="26"/>
         <v>0.87319392145379193</v>
       </c>
       <c r="D172" s="4">
-        <f>E172+F172</f>
+        <f t="shared" si="27"/>
         <v>1005.701</v>
       </c>
       <c r="E172" s="4">
-        <f>H172+I172+N172+P172+R172+S172+U172+V172+Z172+AC172+AD172+AE172+AI172+AL172+AK172+AJ172+AO172</f>
+        <f t="shared" si="28"/>
         <v>127.529</v>
       </c>
       <c r="F172" s="4">
-        <f>G172+J172+K172+L172+M172+O172+Q172+T172+W172+X172+Y172+AA172+AB172+AF172+AG172+AH172+AJ172+AM172+AN172</f>
+        <f t="shared" si="29"/>
         <v>878.17200000000003</v>
       </c>
       <c r="G172" s="3">
@@ -18275,23 +18581,23 @@
         <v>207</v>
       </c>
       <c r="B173" s="2">
-        <f>E173/D173</f>
+        <f t="shared" si="25"/>
         <v>0.34649052086090809</v>
       </c>
       <c r="C173" s="2">
-        <f>F173/D173</f>
+        <f t="shared" si="26"/>
         <v>0.65350947913909196</v>
       </c>
       <c r="D173" s="4">
-        <f>E173+F173</f>
+        <f t="shared" si="27"/>
         <v>91501.241999999998</v>
       </c>
       <c r="E173" s="4">
-        <f>H173+I173+N173+P173+R173+S173+U173+V173+Z173+AC173+AD173+AE173+AI173+AL173+AK173+AJ173+AO173</f>
+        <f t="shared" si="28"/>
         <v>31704.312999999998</v>
       </c>
       <c r="F173" s="4">
-        <f>G173+J173+K173+L173+M173+O173+Q173+T173+W173+X173+Y173+AA173+AB173+AF173+AG173+AH173+AJ173+AM173+AN173</f>
+        <f t="shared" si="29"/>
         <v>59796.929000000004</v>
       </c>
       <c r="G173" s="3">
@@ -18375,23 +18681,23 @@
         <v>208</v>
       </c>
       <c r="B174" s="2">
-        <f>E174/D174</f>
+        <f t="shared" si="25"/>
         <v>0.69186923411395362</v>
       </c>
       <c r="C174" s="2">
-        <f>F174/D174</f>
+        <f t="shared" si="26"/>
         <v>0.30813076588604638</v>
       </c>
       <c r="D174" s="4">
-        <f>E174+F174</f>
+        <f t="shared" si="27"/>
         <v>28200.566000000003</v>
       </c>
       <c r="E174" s="4">
-        <f>H174+I174+N174+P174+R174+S174+U174+V174+Z174+AC174+AD174+AE174+AI174+AL174+AK174+AJ174+AO174</f>
+        <f t="shared" si="28"/>
         <v>19511.104000000003</v>
       </c>
       <c r="F174" s="4">
-        <f>G174+J174+K174+L174+M174+O174+Q174+T174+W174+X174+Y174+AA174+AB174+AF174+AG174+AH174+AJ174+AM174+AN174</f>
+        <f t="shared" si="29"/>
         <v>8689.4619999999995</v>
       </c>
       <c r="G174" s="3">
@@ -18481,23 +18787,23 @@
         <v>209</v>
       </c>
       <c r="B175" s="2">
-        <f>E175/D175</f>
+        <f t="shared" si="25"/>
         <v>0.3404378370420541</v>
       </c>
       <c r="C175" s="2">
-        <f>F175/D175</f>
+        <f t="shared" si="26"/>
         <v>0.6595621629579459</v>
       </c>
       <c r="D175" s="4">
-        <f>E175+F175</f>
+        <f t="shared" si="27"/>
         <v>42888.193999999996</v>
       </c>
       <c r="E175" s="4">
-        <f>H175+I175+N175+P175+R175+S175+U175+V175+Z175+AC175+AD175+AE175+AI175+AL175+AK175+AJ175+AO175</f>
+        <f t="shared" si="28"/>
         <v>14600.764000000001</v>
       </c>
       <c r="F175" s="4">
-        <f>G175+J175+K175+L175+M175+O175+Q175+T175+W175+X175+Y175+AA175+AB175+AF175+AG175+AH175+AJ175+AM175+AN175</f>
+        <f t="shared" si="29"/>
         <v>28287.429999999997</v>
       </c>
       <c r="G175" s="3">
@@ -18579,23 +18885,23 @@
         <v>210</v>
       </c>
       <c r="B176" s="2">
-        <f>E176/D176</f>
+        <f t="shared" si="25"/>
         <v>0.13734968740562015</v>
       </c>
       <c r="C176" s="2">
-        <f>F176/D176</f>
+        <f t="shared" si="26"/>
         <v>0.86265031259437996</v>
       </c>
       <c r="D176" s="4">
-        <f>E176+F176</f>
+        <f t="shared" si="27"/>
         <v>67936.921999999991</v>
       </c>
       <c r="E176" s="4">
-        <f>H176+I176+N176+P176+R176+S176+U176+V176+Z176+AC176+AD176+AE176+AI176+AL176+AK176+AJ176+AO176</f>
+        <f t="shared" si="28"/>
         <v>9331.114999999998</v>
       </c>
       <c r="F176" s="4">
-        <f>G176+J176+K176+L176+M176+O176+Q176+T176+W176+X176+Y176+AA176+AB176+AF176+AG176+AH176+AJ176+AM176+AN176</f>
+        <f t="shared" si="29"/>
         <v>58605.807000000001</v>
       </c>
       <c r="G176" s="3">
@@ -18679,23 +18985,23 @@
         <v>211</v>
       </c>
       <c r="B177" s="2">
-        <f>E177/D177</f>
+        <f t="shared" si="25"/>
         <v>0.35691166877232616</v>
       </c>
       <c r="C177" s="2">
-        <f>F177/D177</f>
+        <f t="shared" si="26"/>
         <v>0.64308833122767384</v>
       </c>
       <c r="D177" s="4">
-        <f>E177+F177</f>
+        <f t="shared" si="27"/>
         <v>31549.102999999996</v>
       </c>
       <c r="E177" s="4">
-        <f>H177+I177+N177+P177+R177+S177+U177+V177+Z177+AC177+AD177+AE177+AI177+AL177+AK177+AJ177+AO177</f>
+        <f t="shared" si="28"/>
         <v>11260.243</v>
       </c>
       <c r="F177" s="4">
-        <f>G177+J177+K177+L177+M177+O177+Q177+T177+W177+X177+Y177+AA177+AB177+AF177+AG177+AH177+AJ177+AM177+AN177</f>
+        <f t="shared" si="29"/>
         <v>20288.859999999997</v>
       </c>
       <c r="G177" s="3">
@@ -18771,13 +19077,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E63186-6804-44BA-A257-14CC277DA36B}">
   <dimension ref="A1:AM179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF172" sqref="AF172:AM172"/>
+      <selection pane="bottomLeft" activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
